--- a/Data/Seed_dispersal/Raw_TaquaraAnne_EMZ4_Seed-dispersal.xlsx
+++ b/Data/Seed_dispersal/Raw_TaquaraAnne_EMZ4_Seed-dispersal.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Documentos\github\BLT_IBM-Model\Data\Seed_dispersal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7914984-FB1D-498A-B890-E406540B867C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D20C53E-472F-4503-AEA1-2520DA2CC72B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw_TaquaraAnne_EMZ4_Seed-dispe" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Raw_TaquaraAnne_EMZ4_Seed-dispe'!$A$1:$L$151</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -2991,7 +2994,7 @@
         <v>65</v>
       </c>
       <c r="G32" s="1">
-        <v>43130.371527777781</v>
+        <v>43131.371527777781</v>
       </c>
       <c r="H32">
         <v>-52.247969740000002</v>
@@ -3029,7 +3032,7 @@
         <v>65</v>
       </c>
       <c r="G33" s="1">
-        <v>43130.378472222219</v>
+        <v>43131.378472222219</v>
       </c>
       <c r="H33">
         <v>-52.247070190000002</v>
@@ -3219,7 +3222,7 @@
         <v>68</v>
       </c>
       <c r="G38" s="1">
-        <v>43130.732638888891</v>
+        <v>43131.732638888891</v>
       </c>
       <c r="H38">
         <v>-52.248911130000003</v>
@@ -5651,7 +5654,7 @@
         <v>157</v>
       </c>
       <c r="G102" s="1">
-        <v>43283.361111111109</v>
+        <v>43284.361111111109</v>
       </c>
       <c r="H102">
         <v>-52.249048960000003</v>
@@ -5689,7 +5692,7 @@
         <v>157</v>
       </c>
       <c r="G103" s="1">
-        <v>43283.371527777781</v>
+        <v>43284.371527777781</v>
       </c>
       <c r="H103">
         <v>-52.248395389999999</v>
@@ -6297,7 +6300,7 @@
         <v>189</v>
       </c>
       <c r="G119" s="1">
-        <v>43360.34375</v>
+        <v>43361.34375</v>
       </c>
       <c r="H119">
         <v>-52.251927590000001</v>
@@ -6335,7 +6338,7 @@
         <v>190</v>
       </c>
       <c r="G120" s="1">
-        <v>43360.34375</v>
+        <v>43361.34375</v>
       </c>
       <c r="H120">
         <v>-52.251927590000001</v>
@@ -7532,6 +7535,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L151" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/Data/Seed_dispersal/Raw_TaquaraAnne_EMZ4_Seed-dispersal.xlsx
+++ b/Data/Seed_dispersal/Raw_TaquaraAnne_EMZ4_Seed-dispersal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Documentos\github\BLT_IBM-Model\Data\Seed_dispersal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D20C53E-472F-4503-AEA1-2520DA2CC72B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923D1E25-4540-4315-B434-9B0543E75AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,862 +67,862 @@
     <t>Psidium longipetiolatum</t>
   </si>
   <si>
-    <t>SDDec2017_1</t>
-  </si>
-  <si>
     <t>FTDec2017_2</t>
   </si>
   <si>
-    <t>SDDec2017_2</t>
-  </si>
-  <si>
     <t>FTDec2017_3</t>
   </si>
   <si>
-    <t>SDDec2017_3</t>
-  </si>
-  <si>
     <t>FTJan4</t>
   </si>
   <si>
-    <t>SDJan4</t>
-  </si>
-  <si>
     <t>FTJan5</t>
   </si>
   <si>
-    <t>SDJan5</t>
-  </si>
-  <si>
     <t>Campomanesia xanthocarpa</t>
   </si>
   <si>
-    <t>SDJan6</t>
-  </si>
-  <si>
-    <t>SDJan7</t>
-  </si>
-  <si>
     <t>FTJan6</t>
   </si>
   <si>
-    <t>SDJan8</t>
-  </si>
-  <si>
     <t>FTJan7</t>
   </si>
   <si>
-    <t>SDJan9</t>
-  </si>
-  <si>
     <t>FTJan8</t>
   </si>
   <si>
-    <t>SDJan10</t>
-  </si>
-  <si>
     <t>FTJan9</t>
   </si>
   <si>
-    <t>SDJan11</t>
-  </si>
-  <si>
     <t>Philodendron spp.</t>
   </si>
   <si>
-    <t>SDJan12</t>
-  </si>
-  <si>
     <t>&gt;100</t>
   </si>
   <si>
-    <t>SDJan13</t>
-  </si>
-  <si>
-    <t>SDJan14</t>
-  </si>
-  <si>
     <t>Sorocea bonplandii</t>
   </si>
   <si>
-    <t>SDJan15</t>
-  </si>
-  <si>
-    <t>SDJan16</t>
-  </si>
-  <si>
-    <t>SDJan17</t>
-  </si>
-  <si>
     <t>FTJan10</t>
   </si>
   <si>
-    <t>SDJan18</t>
-  </si>
-  <si>
     <t>FTJan11</t>
   </si>
   <si>
-    <t>SDJan19</t>
-  </si>
-  <si>
     <t>FTJan12</t>
   </si>
   <si>
     <t>Allophylus edulis</t>
   </si>
   <si>
-    <t>SDJan20</t>
-  </si>
-  <si>
-    <t>SDJan21</t>
-  </si>
-  <si>
     <t>FTJan13</t>
   </si>
   <si>
     <t>Eugenia brasiliensis</t>
   </si>
   <si>
-    <t>SDJan22</t>
-  </si>
-  <si>
-    <t>SDJan23</t>
-  </si>
-  <si>
     <t>FTJan14</t>
   </si>
   <si>
-    <t>SDJan24</t>
-  </si>
-  <si>
     <t>FTJan15</t>
   </si>
   <si>
-    <t>SDJan25</t>
-  </si>
-  <si>
     <t>FTJan16</t>
   </si>
   <si>
     <t>Ficus enormis</t>
   </si>
   <si>
-    <t>SDJan26</t>
-  </si>
-  <si>
-    <t>SDJan27</t>
-  </si>
-  <si>
     <t>FTJan17</t>
   </si>
   <si>
-    <t>SDJan28</t>
-  </si>
-  <si>
-    <t>SDJan29</t>
-  </si>
-  <si>
     <t>FTJan18</t>
   </si>
   <si>
-    <t>SDJan30</t>
-  </si>
-  <si>
     <t>FTJan21</t>
   </si>
   <si>
-    <t>SDJan31</t>
-  </si>
-  <si>
     <t>FTJan22</t>
   </si>
   <si>
-    <t>SDJan32</t>
-  </si>
-  <si>
     <t>FTJan19</t>
   </si>
   <si>
-    <t>SDJan33</t>
-  </si>
-  <si>
     <t>FTJan20</t>
   </si>
   <si>
-    <t>SDJan34</t>
-  </si>
-  <si>
     <t>Myrceugenia ovata</t>
   </si>
   <si>
-    <t>SDJan35</t>
-  </si>
-  <si>
-    <t>SDJan36</t>
-  </si>
-  <si>
     <t>FTJan23</t>
   </si>
   <si>
-    <t>SDJan37</t>
-  </si>
-  <si>
     <t>FTJan*24</t>
   </si>
   <si>
-    <t>SDJan*38</t>
-  </si>
-  <si>
-    <t>SDJan*39</t>
-  </si>
-  <si>
     <t>FTJan*25</t>
   </si>
   <si>
-    <t>SDJan*40</t>
-  </si>
-  <si>
     <t>FTJan*26</t>
   </si>
   <si>
-    <t>SDJan*41</t>
-  </si>
-  <si>
-    <t>SDJan*42</t>
-  </si>
-  <si>
-    <t>SDJan*43</t>
-  </si>
-  <si>
     <t>FTJan*27</t>
   </si>
   <si>
     <t>Rhipsalis teres</t>
   </si>
   <si>
-    <t>SDJan*44</t>
-  </si>
-  <si>
     <t>FTJan*28</t>
   </si>
   <si>
-    <t>SDJan*45</t>
-  </si>
-  <si>
     <t>FTJan*29</t>
   </si>
   <si>
-    <t>SDJan*46</t>
-  </si>
-  <si>
     <t>Rhipsalis cereuscula</t>
   </si>
   <si>
-    <t>SDJan*47</t>
-  </si>
-  <si>
-    <t>SDJan*48</t>
-  </si>
-  <si>
     <t>FTJan*30</t>
   </si>
   <si>
-    <t>SDJan*49</t>
-  </si>
-  <si>
     <t>FTJan*31</t>
   </si>
   <si>
-    <t>SDJan*50</t>
-  </si>
-  <si>
     <t>FTJan*32</t>
   </si>
   <si>
-    <t>SDJan*51</t>
-  </si>
-  <si>
     <t>Psidium myrtoides</t>
   </si>
   <si>
-    <t>SDJan*52</t>
-  </si>
-  <si>
     <t>FTJan*33</t>
   </si>
   <si>
-    <t>SDJan*53</t>
-  </si>
-  <si>
     <t>FTJan*34</t>
   </si>
   <si>
-    <t>SDJan*54</t>
-  </si>
-  <si>
     <t>Trichilia pallida</t>
   </si>
   <si>
-    <t>SDJan*55</t>
-  </si>
-  <si>
-    <t>SDJan*56</t>
-  </si>
-  <si>
     <t>FTMar*35</t>
   </si>
   <si>
-    <t>SDMar*57</t>
-  </si>
-  <si>
     <t>FTMar*36</t>
   </si>
   <si>
-    <t>SDMar*58</t>
-  </si>
-  <si>
     <t>Myrciaria cuspidata</t>
   </si>
   <si>
-    <t>SDMar*59</t>
-  </si>
-  <si>
-    <t>SDMar*60</t>
-  </si>
-  <si>
     <t>FTMar*37</t>
   </si>
   <si>
     <t>Eugenia punicifolia</t>
   </si>
   <si>
-    <t>SDMar*61</t>
-  </si>
-  <si>
     <t>FTMar*38</t>
   </si>
   <si>
-    <t>SDMar*62</t>
-  </si>
-  <si>
-    <t>SDMar*63</t>
-  </si>
-  <si>
-    <t>SDMar*64</t>
-  </si>
-  <si>
     <t>FTMar*39</t>
   </si>
   <si>
-    <t>SDMar*65</t>
-  </si>
-  <si>
     <t>FTMar*40</t>
   </si>
   <si>
-    <t>SDMar*66</t>
-  </si>
-  <si>
     <t>FTMar*41</t>
   </si>
   <si>
-    <t>SDMar*67</t>
-  </si>
-  <si>
     <t>Epiphyllum phyllanthus</t>
   </si>
   <si>
-    <t>SDMar*68</t>
-  </si>
-  <si>
-    <t>SDMar*69</t>
-  </si>
-  <si>
-    <t>SDMar*70</t>
-  </si>
-  <si>
     <t>FTMar*42</t>
   </si>
   <si>
     <t>Myrcia splendens</t>
   </si>
   <si>
-    <t>SDMar*71</t>
-  </si>
-  <si>
     <t>FTMar*43</t>
   </si>
   <si>
-    <t>SDMar*72</t>
-  </si>
-  <si>
     <t>FTMar*44</t>
   </si>
   <si>
-    <t>SDMar*73</t>
-  </si>
-  <si>
     <t>FTMar*45</t>
   </si>
   <si>
-    <t>SDMar*74</t>
-  </si>
-  <si>
     <t>FTMar*46</t>
   </si>
   <si>
     <t>Inga marginata</t>
   </si>
   <si>
-    <t>SDMar*75</t>
-  </si>
-  <si>
     <t>FTMar*47</t>
   </si>
   <si>
-    <t>SDMar*76</t>
-  </si>
-  <si>
     <t>FTMay48</t>
   </si>
   <si>
     <t>Miconia latecrenata</t>
   </si>
   <si>
-    <t>SDMay77</t>
-  </si>
-  <si>
     <t>FTMay49</t>
   </si>
   <si>
     <t>Aechmea bromeliifolia</t>
   </si>
   <si>
-    <t>SDMay78</t>
-  </si>
-  <si>
     <t>FTMay50</t>
   </si>
   <si>
-    <t>SDMay79</t>
-  </si>
-  <si>
     <t>FTMay51</t>
   </si>
   <si>
-    <t>SDMay80</t>
-  </si>
-  <si>
     <t>FTMay52</t>
   </si>
   <si>
-    <t>SDMay81</t>
-  </si>
-  <si>
     <t>FTMay53</t>
   </si>
   <si>
-    <t>SDMay82</t>
-  </si>
-  <si>
     <t>FTMay54</t>
   </si>
   <si>
-    <t>SDMay83</t>
-  </si>
-  <si>
     <t>FTMay55</t>
   </si>
   <si>
-    <t>SDMay84</t>
-  </si>
-  <si>
     <t>FTMay56</t>
   </si>
   <si>
-    <t>SDMay85</t>
-  </si>
-  <si>
     <t>FTMay57</t>
   </si>
   <si>
     <t>Inga striata</t>
   </si>
   <si>
-    <t>SDMay86</t>
-  </si>
-  <si>
     <t>FTMay58</t>
   </si>
   <si>
-    <t>SDMay87</t>
-  </si>
-  <si>
     <t>Miconia pusilliflora</t>
   </si>
   <si>
-    <t>SDMay88</t>
-  </si>
-  <si>
-    <t>SDMay89</t>
-  </si>
-  <si>
     <t>FTMay59</t>
   </si>
   <si>
-    <t>SDMay90</t>
-  </si>
-  <si>
     <t>FTMay60</t>
   </si>
   <si>
-    <t>SDMay91</t>
-  </si>
-  <si>
-    <t>SDMay92</t>
-  </si>
-  <si>
-    <t>SDMay93</t>
-  </si>
-  <si>
     <t>FTJul61</t>
   </si>
   <si>
     <t>Psidium cinerum</t>
   </si>
   <si>
-    <t>SDJul94</t>
-  </si>
-  <si>
     <t>FTJul62</t>
   </si>
   <si>
-    <t>SDJul95</t>
-  </si>
-  <si>
     <t>FTJul63</t>
   </si>
   <si>
-    <t>SDJul96</t>
-  </si>
-  <si>
     <t>FTJul64</t>
   </si>
   <si>
-    <t>SDJul97</t>
-  </si>
-  <si>
     <t>FTJul65</t>
   </si>
   <si>
-    <t>SDJul98</t>
-  </si>
-  <si>
     <t>FTJul66</t>
   </si>
   <si>
     <t>Tapirira guianensis</t>
   </si>
   <si>
-    <t>SDJul99</t>
-  </si>
-  <si>
     <t>FTJul67</t>
   </si>
   <si>
-    <t>SDJul100</t>
-  </si>
-  <si>
     <t>FTJul68</t>
   </si>
   <si>
-    <t>SDJul101</t>
-  </si>
-  <si>
     <t>FTJul69</t>
   </si>
   <si>
-    <t>SDJul102</t>
-  </si>
-  <si>
     <t>FTJul70</t>
   </si>
   <si>
     <t>Randia armata</t>
   </si>
   <si>
-    <t>SDJul103</t>
-  </si>
-  <si>
     <t>FTJul71</t>
   </si>
   <si>
     <t>Cordia ecalyculata</t>
   </si>
   <si>
-    <t>SDJul104</t>
-  </si>
-  <si>
     <t>FTJul72</t>
   </si>
   <si>
-    <t>SDJul105</t>
-  </si>
-  <si>
     <t>FTJul75</t>
   </si>
   <si>
     <t>Vochysia tucanorum</t>
   </si>
   <si>
-    <t>SDJul106</t>
-  </si>
-  <si>
     <t>FTJul76</t>
   </si>
   <si>
-    <t>SDJul107</t>
-  </si>
-  <si>
     <t>FTJul73</t>
   </si>
   <si>
-    <t>SDJul108</t>
-  </si>
-  <si>
     <t>FTJul74</t>
   </si>
   <si>
-    <t>SDJul109</t>
-  </si>
-  <si>
     <t>FTSep75</t>
   </si>
   <si>
     <t>Aechmea distichantha</t>
   </si>
   <si>
-    <t>SDSep110</t>
-  </si>
-  <si>
     <t>FTSep76</t>
   </si>
   <si>
-    <t>SDSep111</t>
-  </si>
-  <si>
     <t>FTSep77</t>
   </si>
   <si>
-    <t>SDSep112</t>
-  </si>
-  <si>
     <t>FTSep78</t>
   </si>
   <si>
-    <t>SDSep113</t>
-  </si>
-  <si>
-    <t>SDSep114</t>
-  </si>
-  <si>
-    <t>SDSep115</t>
-  </si>
-  <si>
     <t>FTSep79</t>
   </si>
   <si>
-    <t>SDSep116</t>
-  </si>
-  <si>
     <t>FTSep80</t>
   </si>
   <si>
-    <t>SDSep117</t>
-  </si>
-  <si>
     <t>FTSep81</t>
   </si>
   <si>
-    <t>SDSep118</t>
-  </si>
-  <si>
-    <t>SDSep119</t>
-  </si>
-  <si>
     <t>FTSep82</t>
   </si>
   <si>
-    <t>SDSep120</t>
-  </si>
-  <si>
     <t>FTSep83</t>
   </si>
   <si>
-    <t>SDSep121</t>
-  </si>
-  <si>
     <t>FTSep84</t>
   </si>
   <si>
-    <t>SDSep122</t>
-  </si>
-  <si>
     <t>FTSep85</t>
   </si>
   <si>
-    <t>SDSep123</t>
-  </si>
-  <si>
     <t>FTSep86</t>
   </si>
   <si>
-    <t>SDSep124</t>
-  </si>
-  <si>
     <t>FTSep87</t>
   </si>
   <si>
-    <t>SDSep125</t>
-  </si>
-  <si>
     <t>FTSep88</t>
   </si>
   <si>
-    <t>SDSep126</t>
-  </si>
-  <si>
     <t>Doliocarpus dentatus</t>
   </si>
   <si>
-    <t>SDSep127</t>
-  </si>
-  <si>
-    <t>SDSep128</t>
-  </si>
-  <si>
     <t>FTSep89</t>
   </si>
   <si>
-    <t>SDSep129</t>
-  </si>
-  <si>
     <t>FTSep90</t>
   </si>
   <si>
-    <t>SDSep130</t>
-  </si>
-  <si>
     <t>FTNov91</t>
   </si>
   <si>
-    <t>SDNov131</t>
-  </si>
-  <si>
     <t>FTNov92</t>
   </si>
   <si>
-    <t>SDNov132</t>
-  </si>
-  <si>
-    <t>SDNov133</t>
-  </si>
-  <si>
-    <t>SDNov134</t>
-  </si>
-  <si>
     <t>FTNov93</t>
   </si>
   <si>
-    <t>SDNov135</t>
-  </si>
-  <si>
     <t>FTNov94</t>
   </si>
   <si>
-    <t>SDNov136</t>
-  </si>
-  <si>
     <t>FTNov95</t>
   </si>
   <si>
-    <t>SDNov137</t>
-  </si>
-  <si>
     <t>Eugenia blastantha</t>
   </si>
   <si>
-    <t>SDNov138</t>
-  </si>
-  <si>
-    <t>SDNov139</t>
-  </si>
-  <si>
     <t>FTNov96</t>
   </si>
   <si>
-    <t>SDNov140</t>
-  </si>
-  <si>
     <t>FTNov97</t>
   </si>
   <si>
     <t>Trichilia catigua</t>
   </si>
   <si>
-    <t>SDNov141</t>
-  </si>
-  <si>
     <t>FTNov98</t>
   </si>
   <si>
-    <t>SDNov142</t>
-  </si>
-  <si>
     <t>FTNov99</t>
   </si>
   <si>
-    <t>SDNov143</t>
-  </si>
-  <si>
     <t>FTNov100</t>
   </si>
   <si>
-    <t>SDNov144</t>
-  </si>
-  <si>
     <t>FTDec2018_101</t>
   </si>
   <si>
-    <t>SDDec2018_145</t>
-  </si>
-  <si>
     <t>FTDec2018_102</t>
   </si>
   <si>
-    <t>SDDec2018_146</t>
-  </si>
-  <si>
     <t>FTDec2018_103</t>
   </si>
   <si>
     <t>Xylopia brasiliensis</t>
   </si>
   <si>
-    <t>SDDec2018_147</t>
-  </si>
-  <si>
     <t>FTDec2018_104</t>
   </si>
   <si>
-    <t>SDDec2018_148</t>
-  </si>
-  <si>
-    <t>SDDec2018_149</t>
-  </si>
-  <si>
-    <t>SDDec2018_150</t>
+    <t>SDTaqDec2017_1</t>
+  </si>
+  <si>
+    <t>SDTaqDec2017_2</t>
+  </si>
+  <si>
+    <t>SDTaqDec2017_3</t>
+  </si>
+  <si>
+    <t>SDTaqJan4</t>
+  </si>
+  <si>
+    <t>SDTaqJan5</t>
+  </si>
+  <si>
+    <t>SDTaqJan6</t>
+  </si>
+  <si>
+    <t>SDTaqJan7</t>
+  </si>
+  <si>
+    <t>SDTaqJan8</t>
+  </si>
+  <si>
+    <t>SDTaqJan9</t>
+  </si>
+  <si>
+    <t>SDTaqJan10</t>
+  </si>
+  <si>
+    <t>SDTaqJan11</t>
+  </si>
+  <si>
+    <t>SDTaqJan12</t>
+  </si>
+  <si>
+    <t>SDTaqJan13</t>
+  </si>
+  <si>
+    <t>SDTaqJan14</t>
+  </si>
+  <si>
+    <t>SDTaqJan15</t>
+  </si>
+  <si>
+    <t>SDTaqJan16</t>
+  </si>
+  <si>
+    <t>SDTaqJan17</t>
+  </si>
+  <si>
+    <t>SDTaqJan18</t>
+  </si>
+  <si>
+    <t>SDTaqJan19</t>
+  </si>
+  <si>
+    <t>SDTaqJan20</t>
+  </si>
+  <si>
+    <t>SDTaqJan21</t>
+  </si>
+  <si>
+    <t>SDTaqJan22</t>
+  </si>
+  <si>
+    <t>SDTaqJan23</t>
+  </si>
+  <si>
+    <t>SDTaqJan24</t>
+  </si>
+  <si>
+    <t>SDTaqJan25</t>
+  </si>
+  <si>
+    <t>SDTaqJan26</t>
+  </si>
+  <si>
+    <t>SDTaqJan27</t>
+  </si>
+  <si>
+    <t>SDTaqJan28</t>
+  </si>
+  <si>
+    <t>SDTaqJan29</t>
+  </si>
+  <si>
+    <t>SDTaqJan30</t>
+  </si>
+  <si>
+    <t>SDTaqJan31</t>
+  </si>
+  <si>
+    <t>SDTaqJan32</t>
+  </si>
+  <si>
+    <t>SDTaqJan33</t>
+  </si>
+  <si>
+    <t>SDTaqJan34</t>
+  </si>
+  <si>
+    <t>SDTaqJan35</t>
+  </si>
+  <si>
+    <t>SDTaqJan36</t>
+  </si>
+  <si>
+    <t>SDTaqJan37</t>
+  </si>
+  <si>
+    <t>SDTaqJan*38</t>
+  </si>
+  <si>
+    <t>SDTaqJan*39</t>
+  </si>
+  <si>
+    <t>SDTaqJan*40</t>
+  </si>
+  <si>
+    <t>SDTaqJan*41</t>
+  </si>
+  <si>
+    <t>SDTaqJan*42</t>
+  </si>
+  <si>
+    <t>SDTaqJan*43</t>
+  </si>
+  <si>
+    <t>SDTaqJan*44</t>
+  </si>
+  <si>
+    <t>SDTaqJan*45</t>
+  </si>
+  <si>
+    <t>SDTaqJan*46</t>
+  </si>
+  <si>
+    <t>SDTaqJan*47</t>
+  </si>
+  <si>
+    <t>SDTaqJan*48</t>
+  </si>
+  <si>
+    <t>SDTaqJan*49</t>
+  </si>
+  <si>
+    <t>SDTaqJan*50</t>
+  </si>
+  <si>
+    <t>SDTaqJan*51</t>
+  </si>
+  <si>
+    <t>SDTaqJan*52</t>
+  </si>
+  <si>
+    <t>SDTaqJan*53</t>
+  </si>
+  <si>
+    <t>SDTaqJan*54</t>
+  </si>
+  <si>
+    <t>SDTaqJan*55</t>
+  </si>
+  <si>
+    <t>SDTaqJan*56</t>
+  </si>
+  <si>
+    <t>SDTaqMar*57</t>
+  </si>
+  <si>
+    <t>SDTaqMar*58</t>
+  </si>
+  <si>
+    <t>SDTaqMar*59</t>
+  </si>
+  <si>
+    <t>SDTaqMar*60</t>
+  </si>
+  <si>
+    <t>SDTaqMar*61</t>
+  </si>
+  <si>
+    <t>SDTaqMar*62</t>
+  </si>
+  <si>
+    <t>SDTaqMar*63</t>
+  </si>
+  <si>
+    <t>SDTaqMar*64</t>
+  </si>
+  <si>
+    <t>SDTaqMar*65</t>
+  </si>
+  <si>
+    <t>SDTaqMar*66</t>
+  </si>
+  <si>
+    <t>SDTaqMar*67</t>
+  </si>
+  <si>
+    <t>SDTaqMar*68</t>
+  </si>
+  <si>
+    <t>SDTaqMar*69</t>
+  </si>
+  <si>
+    <t>SDTaqMar*70</t>
+  </si>
+  <si>
+    <t>SDTaqMar*71</t>
+  </si>
+  <si>
+    <t>SDTaqMar*72</t>
+  </si>
+  <si>
+    <t>SDTaqMar*73</t>
+  </si>
+  <si>
+    <t>SDTaqMar*74</t>
+  </si>
+  <si>
+    <t>SDTaqMar*75</t>
+  </si>
+  <si>
+    <t>SDTaqMar*76</t>
+  </si>
+  <si>
+    <t>SDTaqMay77</t>
+  </si>
+  <si>
+    <t>SDTaqMay78</t>
+  </si>
+  <si>
+    <t>SDTaqMay79</t>
+  </si>
+  <si>
+    <t>SDTaqMay80</t>
+  </si>
+  <si>
+    <t>SDTaqMay81</t>
+  </si>
+  <si>
+    <t>SDTaqMay82</t>
+  </si>
+  <si>
+    <t>SDTaqMay83</t>
+  </si>
+  <si>
+    <t>SDTaqMay84</t>
+  </si>
+  <si>
+    <t>SDTaqMay85</t>
+  </si>
+  <si>
+    <t>SDTaqMay86</t>
+  </si>
+  <si>
+    <t>SDTaqMay87</t>
+  </si>
+  <si>
+    <t>SDTaqMay88</t>
+  </si>
+  <si>
+    <t>SDTaqMay89</t>
+  </si>
+  <si>
+    <t>SDTaqMay90</t>
+  </si>
+  <si>
+    <t>SDTaqMay91</t>
+  </si>
+  <si>
+    <t>SDTaqMay92</t>
+  </si>
+  <si>
+    <t>SDTaqMay93</t>
+  </si>
+  <si>
+    <t>SDTaqJul94</t>
+  </si>
+  <si>
+    <t>SDTaqJul95</t>
+  </si>
+  <si>
+    <t>SDTaqJul96</t>
+  </si>
+  <si>
+    <t>SDTaqJul97</t>
+  </si>
+  <si>
+    <t>SDTaqJul98</t>
+  </si>
+  <si>
+    <t>SDTaqJul99</t>
+  </si>
+  <si>
+    <t>SDTaqJul100</t>
+  </si>
+  <si>
+    <t>SDTaqJul101</t>
+  </si>
+  <si>
+    <t>SDTaqJul102</t>
+  </si>
+  <si>
+    <t>SDTaqJul103</t>
+  </si>
+  <si>
+    <t>SDTaqJul104</t>
+  </si>
+  <si>
+    <t>SDTaqJul105</t>
+  </si>
+  <si>
+    <t>SDTaqJul106</t>
+  </si>
+  <si>
+    <t>SDTaqJul107</t>
+  </si>
+  <si>
+    <t>SDTaqJul108</t>
+  </si>
+  <si>
+    <t>SDTaqJul109</t>
+  </si>
+  <si>
+    <t>SDTaqSep110</t>
+  </si>
+  <si>
+    <t>SDTaqSep111</t>
+  </si>
+  <si>
+    <t>SDTaqSep112</t>
+  </si>
+  <si>
+    <t>SDTaqSep113</t>
+  </si>
+  <si>
+    <t>SDTaqSep114</t>
+  </si>
+  <si>
+    <t>SDTaqSep115</t>
+  </si>
+  <si>
+    <t>SDTaqSep116</t>
+  </si>
+  <si>
+    <t>SDTaqSep117</t>
+  </si>
+  <si>
+    <t>SDTaqSep118</t>
+  </si>
+  <si>
+    <t>SDTaqSep119</t>
+  </si>
+  <si>
+    <t>SDTaqSep120</t>
+  </si>
+  <si>
+    <t>SDTaqSep121</t>
+  </si>
+  <si>
+    <t>SDTaqSep122</t>
+  </si>
+  <si>
+    <t>SDTaqSep123</t>
+  </si>
+  <si>
+    <t>SDTaqSep124</t>
+  </si>
+  <si>
+    <t>SDTaqSep125</t>
+  </si>
+  <si>
+    <t>SDTaqSep126</t>
+  </si>
+  <si>
+    <t>SDTaqSep127</t>
+  </si>
+  <si>
+    <t>SDTaqSep128</t>
+  </si>
+  <si>
+    <t>SDTaqSep129</t>
+  </si>
+  <si>
+    <t>SDTaqSep130</t>
+  </si>
+  <si>
+    <t>SDTaqNov131</t>
+  </si>
+  <si>
+    <t>SDTaqNov132</t>
+  </si>
+  <si>
+    <t>SDTaqNov133</t>
+  </si>
+  <si>
+    <t>SDTaqNov134</t>
+  </si>
+  <si>
+    <t>SDTaqNov135</t>
+  </si>
+  <si>
+    <t>SDTaqNov136</t>
+  </si>
+  <si>
+    <t>SDTaqNov137</t>
+  </si>
+  <si>
+    <t>SDTaqNov138</t>
+  </si>
+  <si>
+    <t>SDTaqNov139</t>
+  </si>
+  <si>
+    <t>SDTaqNov140</t>
+  </si>
+  <si>
+    <t>SDTaqNov141</t>
+  </si>
+  <si>
+    <t>SDTaqNov142</t>
+  </si>
+  <si>
+    <t>SDTaqNov143</t>
+  </si>
+  <si>
+    <t>SDTaqNov144</t>
+  </si>
+  <si>
+    <t>SDTaqDec2018_145</t>
+  </si>
+  <si>
+    <t>SDTaqDec2018_146</t>
+  </si>
+  <si>
+    <t>SDTaqDec2018_147</t>
+  </si>
+  <si>
+    <t>SDTaqDec2018_148</t>
+  </si>
+  <si>
+    <t>SDTaqDec2018_149</t>
+  </si>
+  <si>
+    <t>SDTaqDec2018_150</t>
   </si>
 </sst>
 </file>
@@ -1786,7 +1786,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1863,7 +1865,7 @@
         <v>-22.60770076</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -1874,7 +1876,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -1901,7 +1903,7 @@
         <v>-22.60770076</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>151</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -1912,7 +1914,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -1939,7 +1941,7 @@
         <v>-22.605491820000001</v>
       </c>
       <c r="J4" t="s">
-        <v>18</v>
+        <v>152</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -1950,7 +1952,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -1977,7 +1979,7 @@
         <v>-22.60315743</v>
       </c>
       <c r="J5" t="s">
-        <v>20</v>
+        <v>153</v>
       </c>
       <c r="K5">
         <v>5</v>
@@ -1988,7 +1990,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -2015,7 +2017,7 @@
         <v>-22.60315743</v>
       </c>
       <c r="J6" t="s">
-        <v>22</v>
+        <v>154</v>
       </c>
       <c r="K6">
         <v>5</v>
@@ -2026,10 +2028,10 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1">
         <v>43127.475694444445</v>
@@ -2053,7 +2055,7 @@
         <v>-22.60315743</v>
       </c>
       <c r="J7" t="s">
-        <v>24</v>
+        <v>155</v>
       </c>
       <c r="K7">
         <v>7</v>
@@ -2064,10 +2066,10 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1">
         <v>43127.475694444445</v>
@@ -2091,7 +2093,7 @@
         <v>-22.60315743</v>
       </c>
       <c r="J8" t="s">
-        <v>25</v>
+        <v>156</v>
       </c>
       <c r="K8">
         <v>8</v>
@@ -2102,10 +2104,10 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1">
         <v>43127.548611111109</v>
@@ -2129,7 +2131,7 @@
         <v>-22.606846659999999</v>
       </c>
       <c r="J9" t="s">
-        <v>27</v>
+        <v>157</v>
       </c>
       <c r="K9">
         <v>9</v>
@@ -2140,7 +2142,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -2167,7 +2169,7 @@
         <v>-22.608855640000002</v>
       </c>
       <c r="J10" t="s">
-        <v>29</v>
+        <v>158</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -2178,7 +2180,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -2205,7 +2207,7 @@
         <v>-22.60864376</v>
       </c>
       <c r="J11" t="s">
-        <v>31</v>
+        <v>159</v>
       </c>
       <c r="K11">
         <v>5</v>
@@ -2216,7 +2218,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -2243,7 +2245,7 @@
         <v>-22.608483669999998</v>
       </c>
       <c r="J12" t="s">
-        <v>33</v>
+        <v>160</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -2254,10 +2256,10 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C13" s="1">
         <v>43127.576388888891</v>
@@ -2281,10 +2283,10 @@
         <v>-22.608483669999998</v>
       </c>
       <c r="J13" t="s">
-        <v>35</v>
+        <v>161</v>
       </c>
       <c r="K13" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="L13">
         <v>478</v>
@@ -2292,10 +2294,10 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C14" s="1">
         <v>43127.576388888891</v>
@@ -2319,10 +2321,10 @@
         <v>-22.608855640000002</v>
       </c>
       <c r="J14" t="s">
-        <v>37</v>
+        <v>162</v>
       </c>
       <c r="K14" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="L14">
         <v>396</v>
@@ -2330,10 +2332,10 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C15" s="1">
         <v>43127.576388888891</v>
@@ -2357,10 +2359,10 @@
         <v>-22.60864376</v>
       </c>
       <c r="J15" t="s">
-        <v>38</v>
+        <v>163</v>
       </c>
       <c r="K15" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="L15">
         <v>445</v>
@@ -2368,10 +2370,10 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C16" s="1">
         <v>43127.614583333336</v>
@@ -2395,7 +2397,7 @@
         <v>-22.608855640000002</v>
       </c>
       <c r="J16" t="s">
-        <v>40</v>
+        <v>164</v>
       </c>
       <c r="K16">
         <v>8</v>
@@ -2406,10 +2408,10 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C17" s="1">
         <v>43127.614583333336</v>
@@ -2433,7 +2435,7 @@
         <v>-22.60864376</v>
       </c>
       <c r="J17" t="s">
-        <v>41</v>
+        <v>165</v>
       </c>
       <c r="K17">
         <v>9</v>
@@ -2444,10 +2446,10 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C18" s="1">
         <v>43127.614583333336</v>
@@ -2471,7 +2473,7 @@
         <v>-22.608483669999998</v>
       </c>
       <c r="J18" t="s">
-        <v>42</v>
+        <v>166</v>
       </c>
       <c r="K18">
         <v>9</v>
@@ -2482,7 +2484,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
@@ -2509,7 +2511,7 @@
         <v>-22.610789789999998</v>
       </c>
       <c r="J19" t="s">
-        <v>44</v>
+        <v>167</v>
       </c>
       <c r="K19">
         <v>6</v>
@@ -2520,7 +2522,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
         <v>13</v>
@@ -2547,7 +2549,7 @@
         <v>-22.610789789999998</v>
       </c>
       <c r="J20" t="s">
-        <v>46</v>
+        <v>168</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -2558,10 +2560,10 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C21" s="1">
         <v>43129.295138888891</v>
@@ -2585,7 +2587,7 @@
         <v>-22.602947149999999</v>
       </c>
       <c r="J21" t="s">
-        <v>49</v>
+        <v>169</v>
       </c>
       <c r="K21">
         <v>4</v>
@@ -2596,10 +2598,10 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C22" s="1">
         <v>43129.295138888891</v>
@@ -2623,7 +2625,7 @@
         <v>-22.602947149999999</v>
       </c>
       <c r="J22" t="s">
-        <v>50</v>
+        <v>170</v>
       </c>
       <c r="K22">
         <v>5</v>
@@ -2634,10 +2636,10 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="C23" s="1">
         <v>43129.315972222219</v>
@@ -2661,7 +2663,7 @@
         <v>-22.60364186</v>
       </c>
       <c r="J23" t="s">
-        <v>53</v>
+        <v>171</v>
       </c>
       <c r="K23">
         <v>8</v>
@@ -2672,10 +2674,10 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="C24" s="1">
         <v>43129.315972222219</v>
@@ -2699,7 +2701,7 @@
         <v>-22.60364186</v>
       </c>
       <c r="J24" t="s">
-        <v>54</v>
+        <v>172</v>
       </c>
       <c r="K24">
         <v>6</v>
@@ -2710,10 +2712,10 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="C25" s="1">
         <v>43129.416666666664</v>
@@ -2737,7 +2739,7 @@
         <v>-22.608460340000001</v>
       </c>
       <c r="J25" t="s">
-        <v>56</v>
+        <v>173</v>
       </c>
       <c r="K25">
         <v>4</v>
@@ -2748,10 +2750,10 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="C26" s="1">
         <v>43129.416666666664</v>
@@ -2775,7 +2777,7 @@
         <v>-22.60872818</v>
       </c>
       <c r="J26" t="s">
-        <v>58</v>
+        <v>174</v>
       </c>
       <c r="K26">
         <v>5</v>
@@ -2786,10 +2788,10 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="C27" s="1">
         <v>43129.482638888891</v>
@@ -2813,7 +2815,7 @@
         <v>-22.61059474</v>
       </c>
       <c r="J27" t="s">
-        <v>61</v>
+        <v>175</v>
       </c>
       <c r="K27">
         <v>21</v>
@@ -2824,10 +2826,10 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="C28" s="1">
         <v>43129.482638888891</v>
@@ -2851,7 +2853,7 @@
         <v>-22.61059474</v>
       </c>
       <c r="J28" t="s">
-        <v>62</v>
+        <v>176</v>
       </c>
       <c r="K28">
         <v>18</v>
@@ -2862,10 +2864,10 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="C29" s="1">
         <v>43129.579861111109</v>
@@ -2889,7 +2891,7 @@
         <v>-22.610523130000001</v>
       </c>
       <c r="J29" t="s">
-        <v>64</v>
+        <v>177</v>
       </c>
       <c r="K29">
         <v>5</v>
@@ -2900,10 +2902,10 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="C30" s="1">
         <v>43129.579861111109</v>
@@ -2927,7 +2929,7 @@
         <v>-22.610523130000001</v>
       </c>
       <c r="J30" t="s">
-        <v>65</v>
+        <v>178</v>
       </c>
       <c r="K30">
         <v>5</v>
@@ -2938,10 +2940,10 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="C31" s="1">
         <v>43129.743055555555</v>
@@ -2965,7 +2967,7 @@
         <v>-22.606368740000001</v>
       </c>
       <c r="J31" t="s">
-        <v>67</v>
+        <v>179</v>
       </c>
       <c r="K31">
         <v>9</v>
@@ -2976,10 +2978,10 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C32" s="1">
         <v>43131.322916666664</v>
@@ -3003,7 +3005,7 @@
         <v>-22.60780638</v>
       </c>
       <c r="J32" t="s">
-        <v>69</v>
+        <v>180</v>
       </c>
       <c r="K32">
         <v>8</v>
@@ -3014,10 +3016,10 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C33" s="1">
         <v>43131.322916666664</v>
@@ -3041,7 +3043,7 @@
         <v>-22.60794907</v>
       </c>
       <c r="J33" t="s">
-        <v>71</v>
+        <v>181</v>
       </c>
       <c r="K33">
         <v>9</v>
@@ -3052,10 +3054,10 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="C34" s="1">
         <v>43130.402777777781</v>
@@ -3079,7 +3081,7 @@
         <v>-22.603461450000001</v>
       </c>
       <c r="J34" t="s">
-        <v>73</v>
+        <v>182</v>
       </c>
       <c r="K34">
         <v>8</v>
@@ -3090,10 +3092,10 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="C35" s="1">
         <v>43130.402777777781</v>
@@ -3117,7 +3119,7 @@
         <v>-22.602931810000001</v>
       </c>
       <c r="J35" t="s">
-        <v>75</v>
+        <v>183</v>
       </c>
       <c r="K35">
         <v>9</v>
@@ -3128,10 +3130,10 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="C36" s="1">
         <v>43130.427083333336</v>
@@ -3155,7 +3157,7 @@
         <v>-22.603461450000001</v>
       </c>
       <c r="J36" t="s">
-        <v>77</v>
+        <v>184</v>
       </c>
       <c r="K36">
         <v>6</v>
@@ -3166,10 +3168,10 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="C37" s="1">
         <v>43130.427083333336</v>
@@ -3193,7 +3195,7 @@
         <v>-22.602931810000001</v>
       </c>
       <c r="J37" t="s">
-        <v>78</v>
+        <v>185</v>
       </c>
       <c r="K37">
         <v>5</v>
@@ -3204,10 +3206,10 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="C38" s="1">
         <v>43131.663194444445</v>
@@ -3231,7 +3233,7 @@
         <v>-22.601690430000001</v>
       </c>
       <c r="J38" t="s">
-        <v>80</v>
+        <v>186</v>
       </c>
       <c r="K38">
         <v>21</v>
@@ -3242,10 +3244,10 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="C39" s="1">
         <v>43132.302083333336</v>
@@ -3269,7 +3271,7 @@
         <v>-22.604304129999999</v>
       </c>
       <c r="J39" t="s">
-        <v>82</v>
+        <v>187</v>
       </c>
       <c r="K39">
         <v>6</v>
@@ -3280,10 +3282,10 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="C40" s="1">
         <v>43132.3125</v>
@@ -3307,7 +3309,7 @@
         <v>-22.604304129999999</v>
       </c>
       <c r="J40" t="s">
-        <v>83</v>
+        <v>188</v>
       </c>
       <c r="K40">
         <v>25</v>
@@ -3318,10 +3320,10 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="C41" s="1">
         <v>43132.392361111109</v>
@@ -3345,7 +3347,7 @@
         <v>-22.60834676</v>
       </c>
       <c r="J41" t="s">
-        <v>85</v>
+        <v>189</v>
       </c>
       <c r="K41">
         <v>5</v>
@@ -3356,10 +3358,10 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="C42" s="1">
         <v>43132.392361111109</v>
@@ -3383,7 +3385,7 @@
         <v>-22.60798522</v>
       </c>
       <c r="J42" t="s">
-        <v>87</v>
+        <v>190</v>
       </c>
       <c r="K42">
         <v>4</v>
@@ -3394,10 +3396,10 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="C43" s="1">
         <v>43132.451388888891</v>
@@ -3421,7 +3423,7 @@
         <v>-22.60834676</v>
       </c>
       <c r="J43" t="s">
-        <v>88</v>
+        <v>191</v>
       </c>
       <c r="K43">
         <v>21</v>
@@ -3432,10 +3434,10 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="C44" s="1">
         <v>43132.451388888891</v>
@@ -3459,7 +3461,7 @@
         <v>-22.60798522</v>
       </c>
       <c r="J44" t="s">
-        <v>89</v>
+        <v>192</v>
       </c>
       <c r="K44">
         <v>18</v>
@@ -3470,10 +3472,10 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="C45" s="1">
         <v>43132.579861111109</v>
@@ -3497,7 +3499,7 @@
         <v>-22.60876476</v>
       </c>
       <c r="J45" t="s">
-        <v>92</v>
+        <v>193</v>
       </c>
       <c r="K45">
         <v>32</v>
@@ -3508,10 +3510,10 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C46" s="1">
         <v>43133.395833333336</v>
@@ -3535,7 +3537,7 @@
         <v>-22.604691800000001</v>
       </c>
       <c r="J46" t="s">
-        <v>94</v>
+        <v>194</v>
       </c>
       <c r="K46">
         <v>8</v>
@@ -3546,10 +3548,10 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C47" s="1">
         <v>43133.395833333336</v>
@@ -3573,7 +3575,7 @@
         <v>-22.604664100000001</v>
       </c>
       <c r="J47" t="s">
-        <v>96</v>
+        <v>195</v>
       </c>
       <c r="K47">
         <v>6</v>
@@ -3584,10 +3586,10 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="C48" s="1">
         <v>43133.413194444445</v>
@@ -3611,7 +3613,7 @@
         <v>-22.604691800000001</v>
       </c>
       <c r="J48" t="s">
-        <v>98</v>
+        <v>196</v>
       </c>
       <c r="K48">
         <v>23</v>
@@ -3622,10 +3624,10 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="C49" s="1">
         <v>43133.413194444445</v>
@@ -3649,7 +3651,7 @@
         <v>-22.604664100000001</v>
       </c>
       <c r="J49" t="s">
-        <v>99</v>
+        <v>197</v>
       </c>
       <c r="K49">
         <v>31</v>
@@ -3660,10 +3662,10 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="C50" s="1">
         <v>43133.753472222219</v>
@@ -3687,7 +3689,7 @@
         <v>-22.602211220000001</v>
       </c>
       <c r="J50" t="s">
-        <v>101</v>
+        <v>198</v>
       </c>
       <c r="K50">
         <v>29</v>
@@ -3698,7 +3700,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="B51" t="s">
         <v>13</v>
@@ -3725,7 +3727,7 @@
         <v>-22.605342010000001</v>
       </c>
       <c r="J51" t="s">
-        <v>103</v>
+        <v>199</v>
       </c>
       <c r="K51">
         <v>5</v>
@@ -3736,7 +3738,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="B52" t="s">
         <v>13</v>
@@ -3763,7 +3765,7 @@
         <v>-22.60574639</v>
       </c>
       <c r="J52" t="s">
-        <v>105</v>
+        <v>200</v>
       </c>
       <c r="K52">
         <v>9</v>
@@ -3774,10 +3776,10 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="C53" s="1">
         <v>43134.309027777781</v>
@@ -3801,7 +3803,7 @@
         <v>-22.605342010000001</v>
       </c>
       <c r="J53" t="s">
-        <v>107</v>
+        <v>201</v>
       </c>
       <c r="K53">
         <v>5</v>
@@ -3812,7 +3814,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="B54" t="s">
         <v>13</v>
@@ -3839,7 +3841,7 @@
         <v>-22.599226909999999</v>
       </c>
       <c r="J54" t="s">
-        <v>109</v>
+        <v>202</v>
       </c>
       <c r="K54">
         <v>5</v>
@@ -3850,7 +3852,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="B55" t="s">
         <v>13</v>
@@ -3877,7 +3879,7 @@
         <v>-22.59916256</v>
       </c>
       <c r="J55" t="s">
-        <v>111</v>
+        <v>203</v>
       </c>
       <c r="K55">
         <v>3</v>
@@ -3888,10 +3890,10 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="C56" s="1">
         <v>43135.586805555555</v>
@@ -3915,7 +3917,7 @@
         <v>-22.599226909999999</v>
       </c>
       <c r="J56" t="s">
-        <v>113</v>
+        <v>204</v>
       </c>
       <c r="K56">
         <v>6</v>
@@ -3926,10 +3928,10 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="C57" s="1">
         <v>43135.586805555555</v>
@@ -3953,7 +3955,7 @@
         <v>-22.59916256</v>
       </c>
       <c r="J57" t="s">
-        <v>114</v>
+        <v>205</v>
       </c>
       <c r="K57">
         <v>8</v>
@@ -3964,10 +3966,10 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="C58" s="1">
         <v>43159.430555555555</v>
@@ -3991,7 +3993,7 @@
         <v>-22.59978783</v>
       </c>
       <c r="J58" t="s">
-        <v>116</v>
+        <v>206</v>
       </c>
       <c r="K58">
         <v>4</v>
@@ -4002,10 +4004,10 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="C59" s="1">
         <v>43159.430555555555</v>
@@ -4029,7 +4031,7 @@
         <v>-22.59978783</v>
       </c>
       <c r="J59" t="s">
-        <v>118</v>
+        <v>207</v>
       </c>
       <c r="K59">
         <v>3</v>
@@ -4040,10 +4042,10 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>119</v>
+        <v>61</v>
       </c>
       <c r="C60" s="1">
         <v>43159.440972222219</v>
@@ -4067,7 +4069,7 @@
         <v>-22.59978783</v>
       </c>
       <c r="J60" t="s">
-        <v>120</v>
+        <v>208</v>
       </c>
       <c r="K60">
         <v>22</v>
@@ -4078,10 +4080,10 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>119</v>
+        <v>61</v>
       </c>
       <c r="C61" s="1">
         <v>43159.440972222219</v>
@@ -4105,7 +4107,7 @@
         <v>-22.59978783</v>
       </c>
       <c r="J61" t="s">
-        <v>121</v>
+        <v>209</v>
       </c>
       <c r="K61">
         <v>18</v>
@@ -4116,10 +4118,10 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>122</v>
+        <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>123</v>
+        <v>63</v>
       </c>
       <c r="C62" s="1">
         <v>43159.65625</v>
@@ -4143,7 +4145,7 @@
         <v>-22.602274699999999</v>
       </c>
       <c r="J62" t="s">
-        <v>124</v>
+        <v>210</v>
       </c>
       <c r="K62">
         <v>5</v>
@@ -4154,10 +4156,10 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>123</v>
+        <v>63</v>
       </c>
       <c r="C63" s="1">
         <v>43159.65625</v>
@@ -4181,7 +4183,7 @@
         <v>-22.602181300000002</v>
       </c>
       <c r="J63" t="s">
-        <v>126</v>
+        <v>211</v>
       </c>
       <c r="K63">
         <v>4</v>
@@ -4192,10 +4194,10 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>122</v>
+        <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="C64" s="1">
         <v>43159.6875</v>
@@ -4219,7 +4221,7 @@
         <v>-22.602274699999999</v>
       </c>
       <c r="J64" t="s">
-        <v>127</v>
+        <v>212</v>
       </c>
       <c r="K64">
         <v>23</v>
@@ -4230,10 +4232,10 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="C65" s="1">
         <v>43159.6875</v>
@@ -4257,7 +4259,7 @@
         <v>-22.602181300000002</v>
       </c>
       <c r="J65" t="s">
-        <v>128</v>
+        <v>213</v>
       </c>
       <c r="K65">
         <v>21</v>
@@ -4268,10 +4270,10 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>129</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="C66" s="1">
         <v>43160.395833333336</v>
@@ -4295,7 +4297,7 @@
         <v>-22.605273180000001</v>
       </c>
       <c r="J66" t="s">
-        <v>130</v>
+        <v>214</v>
       </c>
       <c r="K66">
         <v>5</v>
@@ -4306,10 +4308,10 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>131</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="C67" s="1">
         <v>43160.395833333336</v>
@@ -4333,7 +4335,7 @@
         <v>-22.605273180000001</v>
       </c>
       <c r="J67" t="s">
-        <v>132</v>
+        <v>215</v>
       </c>
       <c r="K67">
         <v>5</v>
@@ -4344,10 +4346,10 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>133</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="C68" s="1">
         <v>43160.395833333336</v>
@@ -4371,7 +4373,7 @@
         <v>-22.605273180000001</v>
       </c>
       <c r="J68" t="s">
-        <v>134</v>
+        <v>216</v>
       </c>
       <c r="K68">
         <v>4</v>
@@ -4382,10 +4384,10 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>129</v>
+        <v>65</v>
       </c>
       <c r="B69" t="s">
-        <v>135</v>
+        <v>68</v>
       </c>
       <c r="C69" s="1">
         <v>43160.402777777781</v>
@@ -4409,7 +4411,7 @@
         <v>-22.605273180000001</v>
       </c>
       <c r="J69" t="s">
-        <v>136</v>
+        <v>217</v>
       </c>
       <c r="K69">
         <v>31</v>
@@ -4420,10 +4422,10 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>131</v>
+        <v>66</v>
       </c>
       <c r="B70" t="s">
-        <v>135</v>
+        <v>68</v>
       </c>
       <c r="C70" s="1">
         <v>43160.402777777781</v>
@@ -4447,7 +4449,7 @@
         <v>-22.605273180000001</v>
       </c>
       <c r="J70" t="s">
-        <v>137</v>
+        <v>218</v>
       </c>
       <c r="K70">
         <v>35</v>
@@ -4458,10 +4460,10 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>133</v>
+        <v>67</v>
       </c>
       <c r="B71" t="s">
-        <v>135</v>
+        <v>68</v>
       </c>
       <c r="C71" s="1">
         <v>43160.402777777781</v>
@@ -4485,7 +4487,7 @@
         <v>-22.605273180000001</v>
       </c>
       <c r="J71" t="s">
-        <v>138</v>
+        <v>219</v>
       </c>
       <c r="K71">
         <v>29</v>
@@ -4496,10 +4498,10 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>139</v>
+        <v>69</v>
       </c>
       <c r="B72" t="s">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="C72" s="1">
         <v>43160.555555555555</v>
@@ -4523,7 +4525,7 @@
         <v>-22.60639145</v>
       </c>
       <c r="J72" t="s">
-        <v>141</v>
+        <v>220</v>
       </c>
       <c r="K72">
         <v>5</v>
@@ -4534,10 +4536,10 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>135</v>
+        <v>68</v>
       </c>
       <c r="C73" s="1">
         <v>43161.336805555555</v>
@@ -4561,7 +4563,7 @@
         <v>-22.603865859999999</v>
       </c>
       <c r="J73" t="s">
-        <v>143</v>
+        <v>221</v>
       </c>
       <c r="K73">
         <v>38</v>
@@ -4572,10 +4574,10 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>135</v>
+        <v>68</v>
       </c>
       <c r="C74" s="1">
         <v>43161.336805555555</v>
@@ -4599,7 +4601,7 @@
         <v>-22.603865859999999</v>
       </c>
       <c r="J74" t="s">
-        <v>145</v>
+        <v>222</v>
       </c>
       <c r="K74">
         <v>32</v>
@@ -4610,10 +4612,10 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>123</v>
+        <v>63</v>
       </c>
       <c r="C75" s="1">
         <v>43161.385416666664</v>
@@ -4637,7 +4639,7 @@
         <v>-22.603241950000001</v>
       </c>
       <c r="J75" t="s">
-        <v>147</v>
+        <v>223</v>
       </c>
       <c r="K75">
         <v>6</v>
@@ -4648,10 +4650,10 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>149</v>
+        <v>75</v>
       </c>
       <c r="C76" s="1">
         <v>43161.447916666664</v>
@@ -4675,7 +4677,7 @@
         <v>-22.6021638</v>
       </c>
       <c r="J76" t="s">
-        <v>150</v>
+        <v>224</v>
       </c>
       <c r="K76">
         <v>4</v>
@@ -4686,10 +4688,10 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>151</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>119</v>
+        <v>61</v>
       </c>
       <c r="C77" s="1">
         <v>43161.673611111109</v>
@@ -4713,7 +4715,7 @@
         <v>-22.59840037</v>
       </c>
       <c r="J77" t="s">
-        <v>152</v>
+        <v>225</v>
       </c>
       <c r="K77">
         <v>5</v>
@@ -4724,10 +4726,10 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c r="C78" s="1">
         <v>43222.371527777781</v>
@@ -4751,10 +4753,10 @@
         <v>-22.601862990000001</v>
       </c>
       <c r="J78" t="s">
-        <v>155</v>
+        <v>226</v>
       </c>
       <c r="K78" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="L78">
         <v>210</v>
@@ -4762,10 +4764,10 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>157</v>
+        <v>80</v>
       </c>
       <c r="C79" s="1">
         <v>43222.465277777781</v>
@@ -4789,7 +4791,7 @@
         <v>-22.605291730000001</v>
       </c>
       <c r="J79" t="s">
-        <v>158</v>
+        <v>227</v>
       </c>
       <c r="K79">
         <v>8</v>
@@ -4800,10 +4802,10 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>159</v>
+        <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>149</v>
+        <v>75</v>
       </c>
       <c r="C80" s="1">
         <v>43222.756944444445</v>
@@ -4827,7 +4829,7 @@
         <v>-22.60511528</v>
       </c>
       <c r="J80" t="s">
-        <v>160</v>
+        <v>228</v>
       </c>
       <c r="K80">
         <v>4</v>
@@ -4838,10 +4840,10 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>161</v>
+        <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>149</v>
+        <v>75</v>
       </c>
       <c r="C81" s="1">
         <v>43222.756944444445</v>
@@ -4865,7 +4867,7 @@
         <v>-22.60511528</v>
       </c>
       <c r="J81" t="s">
-        <v>162</v>
+        <v>229</v>
       </c>
       <c r="K81">
         <v>3</v>
@@ -4876,10 +4878,10 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>163</v>
+        <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>149</v>
+        <v>75</v>
       </c>
       <c r="C82" s="1">
         <v>43222.756944444445</v>
@@ -4903,7 +4905,7 @@
         <v>-22.60511528</v>
       </c>
       <c r="J82" t="s">
-        <v>164</v>
+        <v>230</v>
       </c>
       <c r="K82">
         <v>4</v>
@@ -4914,10 +4916,10 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>165</v>
+        <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c r="C83" s="1">
         <v>43223.274305555555</v>
@@ -4941,10 +4943,10 @@
         <v>-22.603085499999999</v>
       </c>
       <c r="J83" t="s">
-        <v>166</v>
+        <v>231</v>
       </c>
       <c r="K83" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="L83">
         <v>209</v>
@@ -4952,10 +4954,10 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>167</v>
+        <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c r="C84" s="1">
         <v>43223.274305555555</v>
@@ -4979,10 +4981,10 @@
         <v>-22.603085499999999</v>
       </c>
       <c r="J84" t="s">
-        <v>168</v>
+        <v>232</v>
       </c>
       <c r="K84" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="L84">
         <v>209</v>
@@ -4990,10 +4992,10 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>169</v>
+        <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c r="C85" s="1">
         <v>43223.274305555555</v>
@@ -5017,10 +5019,10 @@
         <v>-22.603085499999999</v>
       </c>
       <c r="J85" t="s">
-        <v>170</v>
+        <v>233</v>
       </c>
       <c r="K85" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="L85">
         <v>209</v>
@@ -5028,10 +5030,10 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>171</v>
+        <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>154</v>
+        <v>78</v>
       </c>
       <c r="C86" s="1">
         <v>43223.274305555555</v>
@@ -5055,10 +5057,10 @@
         <v>-22.603085499999999</v>
       </c>
       <c r="J86" t="s">
-        <v>172</v>
+        <v>234</v>
       </c>
       <c r="K86" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="L86">
         <v>209</v>
@@ -5066,10 +5068,10 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>173</v>
+        <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>174</v>
+        <v>89</v>
       </c>
       <c r="C87" s="1">
         <v>43223.430555555555</v>
@@ -5093,7 +5095,7 @@
         <v>-22.601780659999999</v>
       </c>
       <c r="J87" t="s">
-        <v>175</v>
+        <v>235</v>
       </c>
       <c r="K87">
         <v>9</v>
@@ -5104,10 +5106,10 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>176</v>
+        <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>174</v>
+        <v>89</v>
       </c>
       <c r="C88" s="1">
         <v>43223.430555555555</v>
@@ -5131,7 +5133,7 @@
         <v>-22.602959769999998</v>
       </c>
       <c r="J88" t="s">
-        <v>177</v>
+        <v>236</v>
       </c>
       <c r="K88">
         <v>8</v>
@@ -5142,10 +5144,10 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>173</v>
+        <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>178</v>
+        <v>91</v>
       </c>
       <c r="C89" s="1">
         <v>43223.447916666664</v>
@@ -5169,10 +5171,10 @@
         <v>-22.601780659999999</v>
       </c>
       <c r="J89" t="s">
-        <v>179</v>
+        <v>237</v>
       </c>
       <c r="K89" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="L89">
         <v>257</v>
@@ -5180,10 +5182,10 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>176</v>
+        <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>178</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1">
         <v>43223.447916666664</v>
@@ -5207,10 +5209,10 @@
         <v>-22.602959769999998</v>
       </c>
       <c r="J90" t="s">
-        <v>180</v>
+        <v>238</v>
       </c>
       <c r="K90" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="L90">
         <v>446</v>
@@ -5218,10 +5220,10 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>181</v>
+        <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>119</v>
+        <v>61</v>
       </c>
       <c r="C91" s="1">
         <v>43223.569444444445</v>
@@ -5245,7 +5247,7 @@
         <v>-22.608179329999999</v>
       </c>
       <c r="J91" t="s">
-        <v>182</v>
+        <v>239</v>
       </c>
       <c r="K91">
         <v>8</v>
@@ -5256,10 +5258,10 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>183</v>
+        <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>119</v>
+        <v>61</v>
       </c>
       <c r="C92" s="1">
         <v>43223.569444444445</v>
@@ -5283,7 +5285,7 @@
         <v>-22.608464529999999</v>
       </c>
       <c r="J92" t="s">
-        <v>184</v>
+        <v>240</v>
       </c>
       <c r="K92">
         <v>9</v>
@@ -5294,10 +5296,10 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>181</v>
+        <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>178</v>
+        <v>91</v>
       </c>
       <c r="C93" s="1">
         <v>43223.597222222219</v>
@@ -5321,10 +5323,10 @@
         <v>-22.608179329999999</v>
       </c>
       <c r="J93" t="s">
-        <v>185</v>
+        <v>241</v>
       </c>
       <c r="K93" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="L93">
         <v>76</v>
@@ -5332,10 +5334,10 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>183</v>
+        <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>178</v>
+        <v>91</v>
       </c>
       <c r="C94" s="1">
         <v>43223.597222222219</v>
@@ -5359,10 +5361,10 @@
         <v>-22.608464529999999</v>
       </c>
       <c r="J94" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="K94" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="L94">
         <v>90</v>
@@ -5370,10 +5372,10 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>187</v>
+        <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>188</v>
+        <v>95</v>
       </c>
       <c r="C95" s="1">
         <v>43283.347222222219</v>
@@ -5397,7 +5399,7 @@
         <v>-22.60422492</v>
       </c>
       <c r="J95" t="s">
-        <v>189</v>
+        <v>243</v>
       </c>
       <c r="K95">
         <v>13</v>
@@ -5408,10 +5410,10 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>190</v>
+        <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>188</v>
+        <v>95</v>
       </c>
       <c r="C96" s="1">
         <v>43283.347222222219</v>
@@ -5435,7 +5437,7 @@
         <v>-22.604612230000001</v>
       </c>
       <c r="J96" t="s">
-        <v>191</v>
+        <v>244</v>
       </c>
       <c r="K96">
         <v>10</v>
@@ -5446,10 +5448,10 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>192</v>
+        <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="C97" s="1">
         <v>43283.479166666664</v>
@@ -5473,7 +5475,7 @@
         <v>-22.607038710000001</v>
       </c>
       <c r="J97" t="s">
-        <v>193</v>
+        <v>245</v>
       </c>
       <c r="K97">
         <v>3</v>
@@ -5484,10 +5486,10 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>194</v>
+        <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="C98" s="1">
         <v>43283.479166666664</v>
@@ -5511,7 +5513,7 @@
         <v>-22.607038710000001</v>
       </c>
       <c r="J98" t="s">
-        <v>195</v>
+        <v>246</v>
       </c>
       <c r="K98">
         <v>4</v>
@@ -5522,10 +5524,10 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>196</v>
+        <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="C99" s="1">
         <v>43283.479166666664</v>
@@ -5549,7 +5551,7 @@
         <v>-22.606781179999999</v>
       </c>
       <c r="J99" t="s">
-        <v>197</v>
+        <v>247</v>
       </c>
       <c r="K99">
         <v>6</v>
@@ -5560,10 +5562,10 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>198</v>
+        <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>199</v>
+        <v>101</v>
       </c>
       <c r="C100" s="1">
         <v>43283.597222222219</v>
@@ -5587,7 +5589,7 @@
         <v>-22.608908069999998</v>
       </c>
       <c r="J100" t="s">
-        <v>200</v>
+        <v>248</v>
       </c>
       <c r="K100">
         <v>5</v>
@@ -5598,10 +5600,10 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>201</v>
+        <v>102</v>
       </c>
       <c r="B101" t="s">
-        <v>199</v>
+        <v>101</v>
       </c>
       <c r="C101" s="1">
         <v>43283.597222222219</v>
@@ -5625,7 +5627,7 @@
         <v>-22.608908069999998</v>
       </c>
       <c r="J101" t="s">
-        <v>202</v>
+        <v>249</v>
       </c>
       <c r="K101">
         <v>5</v>
@@ -5636,10 +5638,10 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
       <c r="B102" t="s">
-        <v>188</v>
+        <v>95</v>
       </c>
       <c r="C102" s="1">
         <v>43284.291666666664</v>
@@ -5663,7 +5665,7 @@
         <v>-22.605508449999999</v>
       </c>
       <c r="J102" t="s">
-        <v>204</v>
+        <v>250</v>
       </c>
       <c r="K102">
         <v>9</v>
@@ -5674,10 +5676,10 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>205</v>
+        <v>104</v>
       </c>
       <c r="B103" t="s">
-        <v>188</v>
+        <v>95</v>
       </c>
       <c r="C103" s="1">
         <v>43284.291666666664</v>
@@ -5701,7 +5703,7 @@
         <v>-22.60565699</v>
       </c>
       <c r="J103" t="s">
-        <v>206</v>
+        <v>251</v>
       </c>
       <c r="K103">
         <v>10</v>
@@ -5712,10 +5714,10 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>207</v>
+        <v>105</v>
       </c>
       <c r="B104" t="s">
-        <v>208</v>
+        <v>106</v>
       </c>
       <c r="C104" s="1">
         <v>43284.340277777781</v>
@@ -5739,7 +5741,7 @@
         <v>-22.606176810000001</v>
       </c>
       <c r="J104" t="s">
-        <v>209</v>
+        <v>252</v>
       </c>
       <c r="K104">
         <v>15</v>
@@ -5750,10 +5752,10 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>210</v>
+        <v>107</v>
       </c>
       <c r="B105" t="s">
-        <v>211</v>
+        <v>108</v>
       </c>
       <c r="C105" s="1">
         <v>43285.493055555555</v>
@@ -5777,7 +5779,7 @@
         <v>-22.604545689999998</v>
       </c>
       <c r="J105" t="s">
-        <v>212</v>
+        <v>253</v>
       </c>
       <c r="K105">
         <v>7</v>
@@ -5788,10 +5790,10 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>213</v>
+        <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>211</v>
+        <v>108</v>
       </c>
       <c r="C106" s="1">
         <v>43285.611111111109</v>
@@ -5815,7 +5817,7 @@
         <v>-22.601522769999999</v>
       </c>
       <c r="J106" t="s">
-        <v>214</v>
+        <v>254</v>
       </c>
       <c r="K106">
         <v>7</v>
@@ -5826,10 +5828,10 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>215</v>
+        <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>216</v>
+        <v>111</v>
       </c>
       <c r="C107" s="1">
         <v>43359.392361111109</v>
@@ -5853,7 +5855,7 @@
         <v>-22.605425749999998</v>
       </c>
       <c r="J107" t="s">
-        <v>217</v>
+        <v>255</v>
       </c>
       <c r="K107">
         <v>5</v>
@@ -5864,10 +5866,10 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>218</v>
+        <v>112</v>
       </c>
       <c r="B108" t="s">
-        <v>216</v>
+        <v>111</v>
       </c>
       <c r="C108" s="1">
         <v>43359.392361111109</v>
@@ -5891,7 +5893,7 @@
         <v>-22.606084360000001</v>
       </c>
       <c r="J108" t="s">
-        <v>219</v>
+        <v>256</v>
       </c>
       <c r="K108">
         <v>4</v>
@@ -5902,10 +5904,10 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>220</v>
+        <v>113</v>
       </c>
       <c r="B109" t="s">
-        <v>211</v>
+        <v>108</v>
       </c>
       <c r="C109" s="1">
         <v>43286.402777777781</v>
@@ -5929,7 +5931,7 @@
         <v>-22.605218130000001</v>
       </c>
       <c r="J109" t="s">
-        <v>221</v>
+        <v>257</v>
       </c>
       <c r="K109">
         <v>6</v>
@@ -5940,10 +5942,10 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>222</v>
+        <v>114</v>
       </c>
       <c r="B110" t="s">
-        <v>211</v>
+        <v>108</v>
       </c>
       <c r="C110" s="1">
         <v>43286.402777777781</v>
@@ -5967,7 +5969,7 @@
         <v>-22.605358710000001</v>
       </c>
       <c r="J110" t="s">
-        <v>223</v>
+        <v>258</v>
       </c>
       <c r="K110">
         <v>4</v>
@@ -5978,10 +5980,10 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>224</v>
+        <v>115</v>
       </c>
       <c r="B111" t="s">
-        <v>225</v>
+        <v>116</v>
       </c>
       <c r="C111" s="1">
         <v>43359.402777777781</v>
@@ -6005,7 +6007,7 @@
         <v>-22.605425749999998</v>
       </c>
       <c r="J111" t="s">
-        <v>226</v>
+        <v>259</v>
       </c>
       <c r="K111">
         <v>9</v>
@@ -6016,10 +6018,10 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>227</v>
+        <v>117</v>
       </c>
       <c r="B112" t="s">
-        <v>225</v>
+        <v>116</v>
       </c>
       <c r="C112" s="1">
         <v>43359.402777777781</v>
@@ -6043,7 +6045,7 @@
         <v>-22.606084360000001</v>
       </c>
       <c r="J112" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="K112">
         <v>8</v>
@@ -6054,10 +6056,10 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>229</v>
+        <v>118</v>
       </c>
       <c r="B113" t="s">
-        <v>211</v>
+        <v>108</v>
       </c>
       <c r="C113" s="1">
         <v>43359.520833333336</v>
@@ -6081,7 +6083,7 @@
         <v>-22.608775860000002</v>
       </c>
       <c r="J113" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="K113">
         <v>5</v>
@@ -6092,10 +6094,10 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>231</v>
+        <v>119</v>
       </c>
       <c r="B114" t="s">
-        <v>211</v>
+        <v>108</v>
       </c>
       <c r="C114" s="1">
         <v>43359.520833333336</v>
@@ -6119,7 +6121,7 @@
         <v>-22.60983822</v>
       </c>
       <c r="J114" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="K114">
         <v>4</v>
@@ -6130,10 +6132,10 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>229</v>
+        <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>225</v>
+        <v>116</v>
       </c>
       <c r="C115" s="1">
         <v>43359.53125</v>
@@ -6157,7 +6159,7 @@
         <v>-22.608775860000002</v>
       </c>
       <c r="J115" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="K115">
         <v>11</v>
@@ -6168,10 +6170,10 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>231</v>
+        <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>225</v>
+        <v>116</v>
       </c>
       <c r="C116" s="1">
         <v>43359.53125</v>
@@ -6195,7 +6197,7 @@
         <v>-22.60983822</v>
       </c>
       <c r="J116" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="K116">
         <v>7</v>
@@ -6206,10 +6208,10 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>235</v>
+        <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>211</v>
+        <v>108</v>
       </c>
       <c r="C117" s="1">
         <v>43360.506944444445</v>
@@ -6233,7 +6235,7 @@
         <v>-22.607551690000001</v>
       </c>
       <c r="J117" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="K117">
         <v>10</v>
@@ -6244,10 +6246,10 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>237</v>
+        <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>211</v>
+        <v>108</v>
       </c>
       <c r="C118" s="1">
         <v>43360.506944444445</v>
@@ -6271,7 +6273,7 @@
         <v>-22.60707111</v>
       </c>
       <c r="J118" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="K118">
         <v>9</v>
@@ -6282,10 +6284,10 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>239</v>
+        <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>216</v>
+        <v>111</v>
       </c>
       <c r="C119" s="1">
         <v>43360.65625</v>
@@ -6309,7 +6311,7 @@
         <v>-22.60435674</v>
       </c>
       <c r="J119" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="K119">
         <v>4</v>
@@ -6320,10 +6322,10 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>239</v>
+        <v>122</v>
       </c>
       <c r="B120" t="s">
-        <v>157</v>
+        <v>80</v>
       </c>
       <c r="C120" s="1">
         <v>43360.666666666664</v>
@@ -6347,7 +6349,7 @@
         <v>-22.60435674</v>
       </c>
       <c r="J120" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="K120">
         <v>16</v>
@@ -6358,10 +6360,10 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>242</v>
+        <v>123</v>
       </c>
       <c r="B121" t="s">
-        <v>188</v>
+        <v>95</v>
       </c>
       <c r="C121" s="1">
         <v>43361.357638888891</v>
@@ -6385,7 +6387,7 @@
         <v>-22.60259396</v>
       </c>
       <c r="J121" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="K121">
         <v>14</v>
@@ -6396,10 +6398,10 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>244</v>
+        <v>124</v>
       </c>
       <c r="B122" t="s">
-        <v>188</v>
+        <v>95</v>
       </c>
       <c r="C122" s="1">
         <v>43361.357638888891</v>
@@ -6423,7 +6425,7 @@
         <v>-22.602114799999999</v>
       </c>
       <c r="J122" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="K122">
         <v>9</v>
@@ -6434,10 +6436,10 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>246</v>
+        <v>125</v>
       </c>
       <c r="B123" t="s">
-        <v>188</v>
+        <v>95</v>
       </c>
       <c r="C123" s="1">
         <v>43361.357638888891</v>
@@ -6461,7 +6463,7 @@
         <v>-22.602059409999999</v>
       </c>
       <c r="J123" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="K123">
         <v>11</v>
@@ -6472,10 +6474,10 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>248</v>
+        <v>126</v>
       </c>
       <c r="B124" t="s">
-        <v>211</v>
+        <v>108</v>
       </c>
       <c r="C124" s="1">
         <v>43361.524305555555</v>
@@ -6499,7 +6501,7 @@
         <v>-22.601890340000001</v>
       </c>
       <c r="J124" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="K124">
         <v>6</v>
@@ -6510,10 +6512,10 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>250</v>
+        <v>127</v>
       </c>
       <c r="B125" t="s">
-        <v>211</v>
+        <v>108</v>
       </c>
       <c r="C125" s="1">
         <v>43361.524305555555</v>
@@ -6537,7 +6539,7 @@
         <v>-22.602992400000002</v>
       </c>
       <c r="J125" t="s">
-        <v>251</v>
+        <v>273</v>
       </c>
       <c r="K125">
         <v>7</v>
@@ -6548,10 +6550,10 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>252</v>
+        <v>128</v>
       </c>
       <c r="B126" t="s">
-        <v>216</v>
+        <v>111</v>
       </c>
       <c r="C126" s="1">
         <v>43362.361111111109</v>
@@ -6575,7 +6577,7 @@
         <v>-22.60314254</v>
       </c>
       <c r="J126" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="K126">
         <v>3</v>
@@ -6586,10 +6588,10 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>254</v>
+        <v>129</v>
       </c>
       <c r="B127" t="s">
-        <v>216</v>
+        <v>111</v>
       </c>
       <c r="C127" s="1">
         <v>43362.361111111109</v>
@@ -6613,7 +6615,7 @@
         <v>-22.602791150000002</v>
       </c>
       <c r="J127" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="K127">
         <v>4</v>
@@ -6624,10 +6626,10 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>252</v>
+        <v>128</v>
       </c>
       <c r="B128" t="s">
-        <v>256</v>
+        <v>130</v>
       </c>
       <c r="C128" s="1">
         <v>43362.371527777781</v>
@@ -6651,7 +6653,7 @@
         <v>-22.60314254</v>
       </c>
       <c r="J128" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="K128">
         <v>7</v>
@@ -6662,10 +6664,10 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>254</v>
+        <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>256</v>
+        <v>130</v>
       </c>
       <c r="C129" s="1">
         <v>43362.371527777781</v>
@@ -6689,7 +6691,7 @@
         <v>-22.602791150000002</v>
       </c>
       <c r="J129" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="K129">
         <v>7</v>
@@ -6700,10 +6702,10 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>259</v>
+        <v>131</v>
       </c>
       <c r="B130" t="s">
-        <v>188</v>
+        <v>95</v>
       </c>
       <c r="C130" s="1">
         <v>43362.392361111109</v>
@@ -6727,7 +6729,7 @@
         <v>-22.60237841</v>
       </c>
       <c r="J130" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="K130">
         <v>11</v>
@@ -6738,10 +6740,10 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>261</v>
+        <v>132</v>
       </c>
       <c r="B131" t="s">
-        <v>216</v>
+        <v>111</v>
       </c>
       <c r="C131" s="1">
         <v>43362.46875</v>
@@ -6765,7 +6767,7 @@
         <v>-22.600290040000001</v>
       </c>
       <c r="J131" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="K131">
         <v>8</v>
@@ -6776,10 +6778,10 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>263</v>
+        <v>133</v>
       </c>
       <c r="B132" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="C132" s="1">
         <v>43434.319444444445</v>
@@ -6803,7 +6805,7 @@
         <v>-22.603362600000001</v>
       </c>
       <c r="J132" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="K132">
         <v>4</v>
@@ -6814,10 +6816,10 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>265</v>
+        <v>134</v>
       </c>
       <c r="B133" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="C133" s="1">
         <v>43434.319444444445</v>
@@ -6841,7 +6843,7 @@
         <v>-22.603570130000001</v>
       </c>
       <c r="J133" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="K133">
         <v>5</v>
@@ -6852,10 +6854,10 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>263</v>
+        <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C134" s="1">
         <v>43434.329861111109</v>
@@ -6879,7 +6881,7 @@
         <v>-22.603362600000001</v>
       </c>
       <c r="J134" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="K134">
         <v>11</v>
@@ -6890,10 +6892,10 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>265</v>
+        <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C135" s="1">
         <v>43434.329861111109</v>
@@ -6917,7 +6919,7 @@
         <v>-22.603570130000001</v>
       </c>
       <c r="J135" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="K135">
         <v>10</v>
@@ -6928,10 +6930,10 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>269</v>
+        <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>256</v>
+        <v>130</v>
       </c>
       <c r="C136" s="1">
         <v>43434.361111111109</v>
@@ -6955,7 +6957,7 @@
         <v>-22.604143839999999</v>
       </c>
       <c r="J136" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="K136">
         <v>8</v>
@@ -6966,10 +6968,10 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>271</v>
+        <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="C137" s="1">
         <v>43434.392361111109</v>
@@ -6993,7 +6995,7 @@
         <v>-22.605906470000001</v>
       </c>
       <c r="J137" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="K137">
         <v>5</v>
@@ -7004,10 +7006,10 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>273</v>
+        <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="C138" s="1">
         <v>43434.392361111109</v>
@@ -7031,7 +7033,7 @@
         <v>-22.605906470000001</v>
       </c>
       <c r="J138" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="K138">
         <v>5</v>
@@ -7042,10 +7044,10 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>271</v>
+        <v>136</v>
       </c>
       <c r="B139" t="s">
-        <v>275</v>
+        <v>138</v>
       </c>
       <c r="C139" s="1">
         <v>43434.402777777781</v>
@@ -7069,7 +7071,7 @@
         <v>-22.605906470000001</v>
       </c>
       <c r="J139" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="K139">
         <v>4</v>
@@ -7080,10 +7082,10 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>273</v>
+        <v>137</v>
       </c>
       <c r="B140" t="s">
-        <v>275</v>
+        <v>138</v>
       </c>
       <c r="C140" s="1">
         <v>43434.402777777781</v>
@@ -7107,7 +7109,7 @@
         <v>-22.605906470000001</v>
       </c>
       <c r="J140" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="K140">
         <v>6</v>
@@ -7118,10 +7120,10 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>278</v>
+        <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="C141" s="1">
         <v>43434.53125</v>
@@ -7145,7 +7147,7 @@
         <v>-22.60675311</v>
       </c>
       <c r="J141" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="K141">
         <v>26</v>
@@ -7156,10 +7158,10 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>280</v>
+        <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>281</v>
+        <v>141</v>
       </c>
       <c r="C142" s="1">
         <v>43434.572916666664</v>
@@ -7183,7 +7185,7 @@
         <v>-22.609250549999999</v>
       </c>
       <c r="J142" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="K142">
         <v>6</v>
@@ -7194,10 +7196,10 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>283</v>
+        <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>281</v>
+        <v>141</v>
       </c>
       <c r="C143" s="1">
         <v>43434.628472222219</v>
@@ -7221,7 +7223,7 @@
         <v>-22.598689950000001</v>
       </c>
       <c r="J143" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="K143">
         <v>8</v>
@@ -7232,10 +7234,10 @@
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>285</v>
+        <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>281</v>
+        <v>141</v>
       </c>
       <c r="C144" s="1">
         <v>43434.628472222219</v>
@@ -7259,7 +7261,7 @@
         <v>-22.598689950000001</v>
       </c>
       <c r="J144" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="K144">
         <v>8</v>
@@ -7270,10 +7272,10 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>287</v>
+        <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>281</v>
+        <v>141</v>
       </c>
       <c r="C145" s="1">
         <v>43434.628472222219</v>
@@ -7297,7 +7299,7 @@
         <v>-22.598689950000001</v>
       </c>
       <c r="J145" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="K145">
         <v>4</v>
@@ -7308,10 +7310,10 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>289</v>
+        <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C146" s="1">
         <v>43435.319444444445</v>
@@ -7335,7 +7337,7 @@
         <v>-22.600328350000002</v>
       </c>
       <c r="J146" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="K146">
         <v>11</v>
@@ -7346,10 +7348,10 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>291</v>
+        <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C147" s="1">
         <v>43435.319444444445</v>
@@ -7373,7 +7375,7 @@
         <v>-22.600625789999999</v>
       </c>
       <c r="J147" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="K147">
         <v>10</v>
@@ -7384,10 +7386,10 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>293</v>
+        <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>294</v>
+        <v>148</v>
       </c>
       <c r="C148" s="1">
         <v>43435.385416666664</v>
@@ -7411,7 +7413,7 @@
         <v>-22.602078859999999</v>
       </c>
       <c r="J148" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K148">
         <v>8</v>
@@ -7422,10 +7424,10 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>296</v>
+        <v>149</v>
       </c>
       <c r="B149" t="s">
-        <v>294</v>
+        <v>148</v>
       </c>
       <c r="C149" s="1">
         <v>43435.385416666664</v>
@@ -7460,10 +7462,10 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>293</v>
+        <v>147</v>
       </c>
       <c r="B150" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C150" s="1">
         <v>43435.399305555555</v>
@@ -7498,10 +7500,10 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>296</v>
+        <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C151" s="1">
         <v>43435.399305555555</v>

--- a/Data/Seed_dispersal/Raw_TaquaraAnne_EMZ4_Seed-dispersal.xlsx
+++ b/Data/Seed_dispersal/Raw_TaquaraAnne_EMZ4_Seed-dispersal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Documentos\github\BLT_IBM-Model\Data\Seed_dispersal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923D1E25-4540-4315-B434-9B0543E75AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8F83AD-0C43-4947-81AD-FDD8DE282D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Raw_TaquaraAnne_EMZ4_Seed-dispe" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Raw_TaquaraAnne_EMZ4_Seed-dispe'!$A$1:$L$151</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Raw_TaquaraAnne_EMZ4_Seed-dispe'!$A$1:$M$151</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="310">
   <si>
     <t>id_feces</t>
   </si>
@@ -923,13 +923,43 @@
   </si>
   <si>
     <t>SDTaqDec2018_150</t>
+  </si>
+  <si>
+    <t>id_month</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Dec2017</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>Dec2018</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1060,6 +1090,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1784,5760 +1820,6213 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L151"/>
+  <dimension ref="A1:M151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="5"/>
-    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="5"/>
+    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D2" s="1">
         <v>43071.520833333336</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>-52.25213608</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>-22.606907</v>
       </c>
-      <c r="F2" s="5">
+      <c r="G2" s="5">
         <v>8</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>43071.548611111109</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>-52.250304929999999</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>-22.60770076</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>150</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>2</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>205</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D3" s="1">
         <v>43071.520833333336</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>-52.25213608</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>-22.606907</v>
       </c>
-      <c r="F3" s="5">
+      <c r="G3" s="5">
         <v>8</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>43071.548611111109</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>-52.250304929999999</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>-22.60770076</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>151</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>1</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>205</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" t="s">
+        <v>305</v>
+      </c>
+      <c r="D4" s="1">
         <v>43072.541666666664</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>-52.239610040000002</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>-22.607952529999999</v>
       </c>
-      <c r="F4" s="5">
+      <c r="G4" s="5">
         <v>16</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>43072.572916666664</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>-52.238786990000001</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>-22.605491820000001</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>152</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>3</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>267</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D5" s="1">
         <v>43127.427083333336</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>-52.25378122</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>-22.600967570000002</v>
       </c>
-      <c r="F5" s="5">
+      <c r="G5" s="5">
         <v>26</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>43127.489583333336</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>-52.256094480000002</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>-22.60315743</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>153</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>5</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>327</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" t="s">
+        <v>301</v>
+      </c>
+      <c r="D6" s="1">
         <v>43127.427083333336</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>-52.25378122</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>-22.600967570000002</v>
       </c>
-      <c r="F6" s="5">
+      <c r="G6" s="5">
         <v>26</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>43127.496527777781</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>-52.256094480000002</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>-22.60315743</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>154</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>5</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>327</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" t="s">
+        <v>301</v>
+      </c>
+      <c r="D7" s="1">
         <v>43127.475694444445</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>-52.255980520000001</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>-22.602941380000001</v>
       </c>
-      <c r="F7" s="5">
+      <c r="G7" s="5">
         <v>27</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>43127.489583333336</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>-52.256094480000002</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>-22.60315743</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>155</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>7</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" t="s">
+        <v>301</v>
+      </c>
+      <c r="D8" s="1">
         <v>43127.475694444445</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>-52.255980520000001</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>-22.602941380000001</v>
       </c>
-      <c r="F8" s="5">
+      <c r="G8" s="5">
         <v>27</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>43127.496527777781</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>-52.256094480000002</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>-22.60315743</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>156</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>8</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" t="s">
+        <v>301</v>
+      </c>
+      <c r="D9" s="1">
         <v>43127.548611111109</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>-52.258715039999998</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>-22.6054362</v>
       </c>
-      <c r="F9" s="5">
+      <c r="G9" s="5">
         <v>28</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>43127.586805555555</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>-52.258300239999997</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>-22.606846659999999</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>157</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>9</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" t="s">
+        <v>301</v>
+      </c>
+      <c r="D10" s="1">
         <v>43127.572916666664</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>-52.258829859999999</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>-22.60615086</v>
       </c>
-      <c r="F10" s="5">
+      <c r="G10" s="5">
         <v>29</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>43127.625</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>-52.256084090000002</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>-22.608855640000002</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>158</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>3</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>396</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" t="s">
+        <v>301</v>
+      </c>
+      <c r="D11" s="1">
         <v>43127.572916666664</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>-52.258829859999999</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>-22.60615086</v>
       </c>
-      <c r="F11" s="5">
+      <c r="G11" s="5">
         <v>29</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>43127.631944444445</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>-52.25529298</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>-22.60864376</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>159</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>5</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>445</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" t="s">
+        <v>301</v>
+      </c>
+      <c r="D12" s="1">
         <v>43127.572916666664</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>-52.258829859999999</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>-22.60615086</v>
       </c>
-      <c r="F12" s="5">
+      <c r="G12" s="5">
         <v>29</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <v>43127.635416666664</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>-52.254808789999998</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>-22.608483669999998</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>160</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>1</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>478</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" t="s">
+        <v>301</v>
+      </c>
+      <c r="D13" s="1">
         <v>43127.576388888891</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>-52.258829859999999</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>-22.60615086</v>
       </c>
-      <c r="F13" s="5">
+      <c r="G13" s="5">
         <v>30</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <v>43127.635416666664</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>-52.254808789999998</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>-22.608483669999998</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>161</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>24</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>478</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" t="s">
+        <v>301</v>
+      </c>
+      <c r="D14" s="1">
         <v>43127.576388888891</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>-52.258829859999999</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>-22.60615086</v>
       </c>
-      <c r="F14" s="5">
+      <c r="G14" s="5">
         <v>30</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <v>43127.625</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>-52.256084090000002</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>-22.608855640000002</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>162</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>24</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>396</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" t="s">
+        <v>301</v>
+      </c>
+      <c r="D15" s="1">
         <v>43127.576388888891</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>-52.258829859999999</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>-22.60615086</v>
       </c>
-      <c r="F15" s="5">
+      <c r="G15" s="5">
         <v>30</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H15" s="1">
         <v>43127.631944444445</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>-52.25529298</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>-22.60864376</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>163</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>24</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>445</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" t="s">
+        <v>301</v>
+      </c>
+      <c r="D16" s="1">
         <v>43127.614583333336</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>-52.256504030000002</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>-22.608858489999999</v>
       </c>
-      <c r="F16" s="5">
+      <c r="G16" s="5">
         <v>31</v>
       </c>
-      <c r="G16" s="1">
+      <c r="H16" s="1">
         <v>43127.625</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>-52.256084090000002</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>-22.608855640000002</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>164</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>8</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>21</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" t="s">
+        <v>301</v>
+      </c>
+      <c r="D17" s="1">
         <v>43127.614583333336</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>-52.256504030000002</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>-22.608858489999999</v>
       </c>
-      <c r="F17" s="5">
+      <c r="G17" s="5">
         <v>31</v>
       </c>
-      <c r="G17" s="1">
+      <c r="H17" s="1">
         <v>43127.631944444445</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>-52.25529298</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>-22.60864376</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>165</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>9</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>126</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" t="s">
+        <v>301</v>
+      </c>
+      <c r="D18" s="1">
         <v>43127.614583333336</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>-52.256504030000002</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>-22.608858489999999</v>
       </c>
-      <c r="F18" s="5">
+      <c r="G18" s="5">
         <v>31</v>
       </c>
-      <c r="G18" s="1">
+      <c r="H18" s="1">
         <v>43127.635416666664</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>-52.254808789999998</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>-22.608483669999998</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>166</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>9</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>178</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>26</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" t="s">
+        <v>301</v>
+      </c>
+      <c r="D19" s="1">
         <v>43128.489583333336</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>-52.249675199999999</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>-22.609229859999999</v>
       </c>
-      <c r="F19" s="5">
+      <c r="G19" s="5">
         <v>39</v>
       </c>
-      <c r="G19" s="1">
+      <c r="H19" s="1">
         <v>43128.524305555555</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>-52.248082519999997</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>-22.610789789999998</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>167</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>6</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>229</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>27</v>
       </c>
       <c r="B20" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" t="s">
+        <v>301</v>
+      </c>
+      <c r="D20" s="1">
         <v>43128.489583333336</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>-52.249675199999999</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>-22.609229859999999</v>
       </c>
-      <c r="F20" s="5">
+      <c r="G20" s="5">
         <v>39</v>
       </c>
-      <c r="G20" s="1">
+      <c r="H20" s="1">
         <v>43128.534722222219</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>-52.248082519999997</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>-22.610789789999998</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>168</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>3</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>229</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>28</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" t="s">
+        <v>301</v>
+      </c>
+      <c r="D21" s="1">
         <v>43129.295138888891</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>-52.241387590000002</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>-22.601067919999998</v>
       </c>
-      <c r="F21" s="5">
+      <c r="G21" s="5">
         <v>45</v>
       </c>
-      <c r="G21" s="1">
+      <c r="H21" s="1">
         <v>43129.350694444445</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>-52.239415889999997</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>-22.602947149999999</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>169</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>4</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>280</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" t="s">
+        <v>301</v>
+      </c>
+      <c r="D22" s="1">
         <v>43129.295138888891</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>-52.241387590000002</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>-22.601067919999998</v>
       </c>
-      <c r="F22" s="5">
+      <c r="G22" s="5">
         <v>45</v>
       </c>
-      <c r="G22" s="1">
+      <c r="H22" s="1">
         <v>43129.350694444445</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>-52.239415889999997</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>-22.602947149999999</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>170</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>5</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>280</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>30</v>
       </c>
       <c r="B23" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" t="s">
+        <v>301</v>
+      </c>
+      <c r="D23" s="1">
         <v>43129.315972222219</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>-52.240115969999998</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>-22.602470790000002</v>
       </c>
-      <c r="F23" s="5">
+      <c r="G23" s="5">
         <v>46</v>
       </c>
-      <c r="G23" s="1">
+      <c r="H23" s="1">
         <v>43129.357638888891</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>-52.238675839999999</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>-22.60364186</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>171</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>8</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>191</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>30</v>
       </c>
       <c r="B24" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" t="s">
+        <v>301</v>
+      </c>
+      <c r="D24" s="1">
         <v>43129.315972222219</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>-52.240115969999998</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>-22.602470790000002</v>
       </c>
-      <c r="F24" s="5">
+      <c r="G24" s="5">
         <v>46</v>
       </c>
-      <c r="G24" s="1">
+      <c r="H24" s="1">
         <v>43129.357638888891</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>-52.238675839999999</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>-22.60364186</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>172</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>6</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>191</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>32</v>
       </c>
       <c r="B25" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" t="s">
+        <v>301</v>
+      </c>
+      <c r="D25" s="1">
         <v>43129.416666666664</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>-52.236410679999999</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>-22.60618818</v>
       </c>
-      <c r="F25" s="5">
+      <c r="G25" s="5">
         <v>49</v>
       </c>
-      <c r="G25" s="1">
+      <c r="H25" s="1">
         <v>43129.479166666664</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>-52.235907019999999</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>-22.608460340000001</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>173</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>4</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>239</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>33</v>
       </c>
       <c r="B26" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" t="s">
+        <v>301</v>
+      </c>
+      <c r="D26" s="1">
         <v>43129.416666666664</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>-52.236410679999999</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>-22.60618818</v>
       </c>
-      <c r="F26" s="5">
+      <c r="G26" s="5">
         <v>49</v>
       </c>
-      <c r="G26" s="1">
+      <c r="H26" s="1">
         <v>43129.482638888891</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>-52.236085060000001</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>-22.60872818</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>174</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>5</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>263</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>34</v>
       </c>
       <c r="B27" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" t="s">
+        <v>301</v>
+      </c>
+      <c r="D27" s="1">
         <v>43129.482638888891</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>-52.236085060000001</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>-22.60872818</v>
       </c>
-      <c r="F27" s="5">
+      <c r="G27" s="5">
         <v>50</v>
       </c>
-      <c r="G27" s="1">
+      <c r="H27" s="1">
         <v>43129.611111111109</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>-52.24009573</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>-22.61059474</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>175</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>21</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>455</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>34</v>
       </c>
       <c r="B28" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" t="s">
+        <v>301</v>
+      </c>
+      <c r="D28" s="1">
         <v>43129.482638888891</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>-52.236085060000001</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>-22.60872818</v>
       </c>
-      <c r="F28" s="5">
+      <c r="G28" s="5">
         <v>50</v>
       </c>
-      <c r="G28" s="1">
+      <c r="H28" s="1">
         <v>43129.611111111109</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>-52.24009573</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>-22.61059474</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>176</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>18</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>455</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>36</v>
       </c>
       <c r="B29" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" t="s">
+        <v>301</v>
+      </c>
+      <c r="D29" s="1">
         <v>43129.579861111109</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>-52.239642029999999</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>-22.61064983</v>
       </c>
-      <c r="F29" s="5">
+      <c r="G29" s="5">
         <v>51</v>
       </c>
-      <c r="G29" s="1">
+      <c r="H29" s="1">
         <v>43129.618055555555</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>-52.240907200000002</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>-22.610523130000001</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>177</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>5</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>36</v>
       </c>
       <c r="B30" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" t="s">
+        <v>301</v>
+      </c>
+      <c r="D30" s="1">
         <v>43129.579861111109</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>-52.239642029999999</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>-22.61064983</v>
       </c>
-      <c r="F30" s="5">
+      <c r="G30" s="5">
         <v>51</v>
       </c>
-      <c r="G30" s="1">
+      <c r="H30" s="1">
         <v>43129.618055555555</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>-52.240907200000002</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>-22.610523130000001</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>178</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>5</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>131</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>37</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" t="s">
+        <v>301</v>
+      </c>
+      <c r="D31" s="1">
         <v>43129.743055555555</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>-52.249290819999999</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>-22.60823349</v>
       </c>
-      <c r="F31" s="5">
+      <c r="G31" s="5">
         <v>53</v>
       </c>
-      <c r="G31" s="1">
+      <c r="H31" s="1">
         <v>43130.302083333336</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>-52.251561619999997</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>-22.606368740000001</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>179</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>9</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>302</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>38</v>
       </c>
       <c r="B32" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" t="s">
+        <v>301</v>
+      </c>
+      <c r="D32" s="1">
         <v>43131.322916666664</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>-52.250050049999999</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>-22.60695217</v>
       </c>
-      <c r="F32" s="5">
+      <c r="G32" s="5">
         <v>65</v>
       </c>
-      <c r="G32" s="1">
+      <c r="H32" s="1">
         <v>43131.371527777781</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>-52.247969740000002</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>-22.60780638</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>180</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>8</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>231</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>39</v>
       </c>
       <c r="B33" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" t="s">
+        <v>301</v>
+      </c>
+      <c r="D33" s="1">
         <v>43131.322916666664</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>-52.250050049999999</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>-22.60695217</v>
       </c>
-      <c r="F33" s="5">
+      <c r="G33" s="5">
         <v>65</v>
       </c>
-      <c r="G33" s="1">
+      <c r="H33" s="1">
         <v>43131.378472222219</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>-52.247070190000002</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>-22.60794907</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>181</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>9</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>323</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>40</v>
       </c>
       <c r="B34" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" t="s">
+        <v>301</v>
+      </c>
+      <c r="D34" s="1">
         <v>43130.402777777781</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>-52.244899840000002</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>-22.604552689999998</v>
       </c>
-      <c r="F34" s="5">
+      <c r="G34" s="5">
         <v>57</v>
       </c>
-      <c r="G34" s="1">
+      <c r="H34" s="1">
         <v>43130.482638888891</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>-52.242443790000003</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>-22.603461450000001</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>182</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>8</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>276</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>41</v>
       </c>
       <c r="B35" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" t="s">
+        <v>301</v>
+      </c>
+      <c r="D35" s="1">
         <v>43130.402777777781</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>-52.244899840000002</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>-22.604552689999998</v>
       </c>
-      <c r="F35" s="5">
+      <c r="G35" s="5">
         <v>57</v>
       </c>
-      <c r="G35" s="1">
+      <c r="H35" s="1">
         <v>43130.493055555555</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>-52.242100870000002</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>-22.602931810000001</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>183</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>9</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>333</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>40</v>
       </c>
       <c r="B36" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" t="s">
+        <v>301</v>
+      </c>
+      <c r="D36" s="1">
         <v>43130.427083333336</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>-52.244578310000001</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>-22.604481180000001</v>
       </c>
-      <c r="F36" s="5">
+      <c r="G36" s="5">
         <v>58</v>
       </c>
-      <c r="G36" s="1">
+      <c r="H36" s="1">
         <v>43130.482638888891</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>-52.242443790000003</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>-22.603461450000001</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>184</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>6</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>243</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>41</v>
       </c>
       <c r="B37" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" t="s">
+        <v>301</v>
+      </c>
+      <c r="D37" s="1">
         <v>43130.427083333336</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>-52.244578310000001</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>-22.604481180000001</v>
       </c>
-      <c r="F37" s="5">
+      <c r="G37" s="5">
         <v>58</v>
       </c>
-      <c r="G37" s="1">
+      <c r="H37" s="1">
         <v>43130.493055555555</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>-52.242100870000002</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>-22.602931810000001</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>185</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>5</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>300</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>43</v>
       </c>
       <c r="B38" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" t="s">
+        <v>301</v>
+      </c>
+      <c r="D38" s="1">
         <v>43131.663194444445</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>-52.244388839999999</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>-22.60240422</v>
       </c>
-      <c r="F38" s="5">
+      <c r="G38" s="5">
         <v>68</v>
       </c>
-      <c r="G38" s="1">
+      <c r="H38" s="1">
         <v>43131.732638888891</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>-52.248911130000003</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>-22.601690430000001</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>186</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>21</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>471</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>44</v>
       </c>
       <c r="B39" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" t="s">
+        <v>306</v>
+      </c>
+      <c r="D39" s="1">
         <v>43132.302083333336</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>-52.253450219999998</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>-22.60204676</v>
       </c>
-      <c r="F39" s="5">
+      <c r="G39" s="5">
         <v>69</v>
       </c>
-      <c r="G39" s="1">
+      <c r="H39" s="1">
         <v>43132.371527777781</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>-52.255674599999999</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>-22.604304129999999</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>187</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>6</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>326</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>44</v>
       </c>
       <c r="B40" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" t="s">
+        <v>306</v>
+      </c>
+      <c r="D40" s="1">
         <v>43132.3125</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>-52.253538679999998</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>-22.602300490000001</v>
       </c>
-      <c r="F40" s="5">
+      <c r="G40" s="5">
         <v>70</v>
       </c>
-      <c r="G40" s="1">
+      <c r="H40" s="1">
         <v>43132.371527777781</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>-52.255674599999999</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>-22.604304129999999</v>
       </c>
-      <c r="J40" t="s">
+      <c r="K40" t="s">
         <v>188</v>
       </c>
-      <c r="K40">
+      <c r="L40">
         <v>25</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>301</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>45</v>
       </c>
       <c r="B41" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" t="s">
+        <v>306</v>
+      </c>
+      <c r="D41" s="1">
         <v>43132.392361111109</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>-52.256324990000003</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>-22.60610823</v>
       </c>
-      <c r="F41" s="5">
+      <c r="G41" s="5">
         <v>71</v>
       </c>
-      <c r="G41" s="1">
+      <c r="H41" s="1">
         <v>43132.486111111109</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>-52.254194210000001</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>-22.60834676</v>
       </c>
-      <c r="J41" t="s">
+      <c r="K41" t="s">
         <v>189</v>
       </c>
-      <c r="K41">
+      <c r="L41">
         <v>5</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>318</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>46</v>
       </c>
       <c r="B42" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" t="s">
+        <v>306</v>
+      </c>
+      <c r="D42" s="1">
         <v>43132.392361111109</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>-52.256324990000003</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>-22.60610823</v>
       </c>
-      <c r="F42" s="5">
+      <c r="G42" s="5">
         <v>71</v>
       </c>
-      <c r="G42" s="1">
+      <c r="H42" s="1">
         <v>43132.489583333336</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>-52.25396808</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>-22.60798522</v>
       </c>
-      <c r="J42" t="s">
+      <c r="K42" t="s">
         <v>190</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <v>4</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>310</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>45</v>
       </c>
       <c r="B43" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" t="s">
+        <v>306</v>
+      </c>
+      <c r="D43" s="1">
         <v>43132.451388888891</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>-52.255963450000003</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>-22.607620449999999</v>
       </c>
-      <c r="F43" s="5">
+      <c r="G43" s="5">
         <v>72</v>
       </c>
-      <c r="G43" s="1">
+      <c r="H43" s="1">
         <v>43132.486111111109</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>-52.254194210000001</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>-22.60834676</v>
       </c>
-      <c r="J43" t="s">
+      <c r="K43" t="s">
         <v>191</v>
       </c>
-      <c r="K43">
+      <c r="L43">
         <v>21</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <v>197</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>46</v>
       </c>
       <c r="B44" t="s">
         <v>35</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" t="s">
+        <v>306</v>
+      </c>
+      <c r="D44" s="1">
         <v>43132.451388888891</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>-52.255963450000003</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>-22.607620449999999</v>
       </c>
-      <c r="F44" s="5">
+      <c r="G44" s="5">
         <v>72</v>
       </c>
-      <c r="G44" s="1">
+      <c r="H44" s="1">
         <v>43132.489583333336</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>-52.25396808</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>-22.60798522</v>
       </c>
-      <c r="J44" t="s">
+      <c r="K44" t="s">
         <v>192</v>
       </c>
-      <c r="K44">
+      <c r="L44">
         <v>18</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>209</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>47</v>
       </c>
       <c r="B45" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" t="s">
+        <v>306</v>
+      </c>
+      <c r="D45" s="1">
         <v>43132.579861111109</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>-52.251705440000002</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>-22.607270060000001</v>
       </c>
-      <c r="F45" s="5">
+      <c r="G45" s="5">
         <v>75</v>
       </c>
-      <c r="G45" s="1">
+      <c r="H45" s="1">
         <v>43132.652777777781</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>-52.250013780000003</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>-22.60876476</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>193</v>
       </c>
-      <c r="K45">
+      <c r="L45">
         <v>32</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <v>232</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>49</v>
       </c>
       <c r="B46" t="s">
         <v>18</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" t="s">
+        <v>306</v>
+      </c>
+      <c r="D46" s="1">
         <v>43133.395833333336</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>-52.245083659999999</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>-22.604308670000002</v>
       </c>
-      <c r="F46" s="5">
+      <c r="G46" s="5">
         <v>80</v>
       </c>
-      <c r="G46" s="1">
+      <c r="H46" s="1">
         <v>43133.458333333336</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>-52.247402630000003</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>-22.604691800000001</v>
       </c>
-      <c r="J46" t="s">
+      <c r="K46" t="s">
         <v>194</v>
       </c>
-      <c r="K46">
+      <c r="L46">
         <v>8</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <v>242</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>50</v>
       </c>
       <c r="B47" t="s">
         <v>18</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" t="s">
+        <v>306</v>
+      </c>
+      <c r="D47" s="1">
         <v>43133.395833333336</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>-52.245083659999999</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>-22.604308670000002</v>
       </c>
-      <c r="F47" s="5">
+      <c r="G47" s="5">
         <v>80</v>
       </c>
-      <c r="G47" s="1">
+      <c r="H47" s="1">
         <v>43133.46875</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>-52.248562069999998</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>-22.604664100000001</v>
       </c>
-      <c r="J47" t="s">
+      <c r="K47" t="s">
         <v>195</v>
       </c>
-      <c r="K47">
+      <c r="L47">
         <v>6</v>
       </c>
-      <c r="L47">
+      <c r="M47">
         <v>359</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>49</v>
       </c>
       <c r="B48" t="s">
         <v>51</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" t="s">
+        <v>306</v>
+      </c>
+      <c r="D48" s="1">
         <v>43133.413194444445</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>-52.245497780000001</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>-22.604308589999999</v>
       </c>
-      <c r="F48" s="5">
+      <c r="G48" s="5">
         <v>81</v>
       </c>
-      <c r="G48" s="1">
+      <c r="H48" s="1">
         <v>43133.458333333336</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>-52.247402630000003</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>-22.604691800000001</v>
       </c>
-      <c r="J48" t="s">
+      <c r="K48" t="s">
         <v>196</v>
       </c>
-      <c r="K48">
+      <c r="L48">
         <v>23</v>
       </c>
-      <c r="L48">
+      <c r="M48">
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>50</v>
       </c>
       <c r="B49" t="s">
         <v>51</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" t="s">
+        <v>306</v>
+      </c>
+      <c r="D49" s="1">
         <v>43133.413194444445</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>-52.245497780000001</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>-22.604308589999999</v>
       </c>
-      <c r="F49" s="5">
+      <c r="G49" s="5">
         <v>81</v>
       </c>
-      <c r="G49" s="1">
+      <c r="H49" s="1">
         <v>43133.46875</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>-52.248562069999998</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>-22.604664100000001</v>
       </c>
-      <c r="J49" t="s">
+      <c r="K49" t="s">
         <v>197</v>
       </c>
-      <c r="K49">
+      <c r="L49">
         <v>31</v>
       </c>
-      <c r="L49">
+      <c r="M49">
         <v>317</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>52</v>
       </c>
       <c r="B50" t="s">
         <v>48</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" t="s">
+        <v>306</v>
+      </c>
+      <c r="D50" s="1">
         <v>43133.753472222219</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>-52.254957869999998</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>-22.600330209999999</v>
       </c>
-      <c r="F50" s="5">
+      <c r="G50" s="5">
         <v>88</v>
       </c>
-      <c r="G50" s="1">
+      <c r="H50" s="1">
         <v>43134.28125</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>-52.253715730000003</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>-22.602211220000001</v>
       </c>
-      <c r="J50" t="s">
+      <c r="K50" t="s">
         <v>198</v>
       </c>
-      <c r="K50">
+      <c r="L50">
         <v>29</v>
       </c>
-      <c r="L50">
+      <c r="M50">
         <v>232</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>53</v>
       </c>
       <c r="B51" t="s">
         <v>13</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" t="s">
+        <v>306</v>
+      </c>
+      <c r="D51" s="1">
         <v>43134.298611111109</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>-52.253891680000002</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>-22.603062649999998</v>
       </c>
-      <c r="F51" s="5">
+      <c r="G51" s="5">
         <v>89</v>
       </c>
-      <c r="G51" s="1">
+      <c r="H51" s="1">
         <v>43134.375</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>-52.254962149999997</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>-22.605342010000001</v>
       </c>
-      <c r="J51" t="s">
+      <c r="K51" t="s">
         <v>199</v>
       </c>
-      <c r="K51">
+      <c r="L51">
         <v>5</v>
       </c>
-      <c r="L51">
+      <c r="M51">
         <v>259</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>54</v>
       </c>
       <c r="B52" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" t="s">
+        <v>306</v>
+      </c>
+      <c r="D52" s="1">
         <v>43135.305555555555</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>-52.24611823</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>-22.603830550000001</v>
       </c>
-      <c r="F52" s="5">
+      <c r="G52" s="5">
         <v>101</v>
       </c>
-      <c r="G52" s="1">
+      <c r="H52" s="1">
         <v>43135.381944444445</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>-52.248848969999997</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>-22.60574639</v>
       </c>
-      <c r="J52" t="s">
+      <c r="K52" t="s">
         <v>200</v>
       </c>
-      <c r="K52">
+      <c r="L52">
         <v>9</v>
       </c>
-      <c r="L52">
+      <c r="M52">
         <v>343</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>53</v>
       </c>
       <c r="B53" t="s">
         <v>55</v>
       </c>
-      <c r="C53" s="1">
+      <c r="C53" t="s">
+        <v>306</v>
+      </c>
+      <c r="D53" s="1">
         <v>43134.309027777781</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>-52.253699490000002</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>-22.602968059999998</v>
       </c>
-      <c r="F53" s="5">
+      <c r="G53" s="5">
         <v>90</v>
       </c>
-      <c r="G53" s="1">
+      <c r="H53" s="1">
         <v>43134.375</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>-52.254962149999997</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>-22.605342010000001</v>
       </c>
-      <c r="J53" t="s">
+      <c r="K53" t="s">
         <v>201</v>
       </c>
-      <c r="K53">
+      <c r="L53">
         <v>5</v>
       </c>
-      <c r="L53">
+      <c r="M53">
         <v>276</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>56</v>
       </c>
       <c r="B54" t="s">
         <v>13</v>
       </c>
-      <c r="C54" s="1">
+      <c r="C54" t="s">
+        <v>306</v>
+      </c>
+      <c r="D54" s="1">
         <v>43135.559027777781</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>-52.255029389999997</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>-22.60053933</v>
       </c>
-      <c r="F54" s="5">
+      <c r="G54" s="5">
         <v>105</v>
       </c>
-      <c r="G54" s="1">
+      <c r="H54" s="1">
         <v>43135.611111111109</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>-52.253827639999997</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>-22.599226909999999</v>
       </c>
-      <c r="J54" t="s">
+      <c r="K54" t="s">
         <v>202</v>
       </c>
-      <c r="K54">
+      <c r="L54">
         <v>5</v>
       </c>
-      <c r="L54">
+      <c r="M54">
         <v>183</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>57</v>
       </c>
       <c r="B55" t="s">
         <v>13</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55" t="s">
+        <v>306</v>
+      </c>
+      <c r="D55" s="1">
         <v>43135.559027777781</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>-52.255029389999997</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>-22.60053933</v>
       </c>
-      <c r="F55" s="5">
+      <c r="G55" s="5">
         <v>105</v>
       </c>
-      <c r="G55" s="1">
+      <c r="H55" s="1">
         <v>43135.618055555555</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>-52.253288830000002</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>-22.59916256</v>
       </c>
-      <c r="J55" t="s">
+      <c r="K55" t="s">
         <v>203</v>
       </c>
-      <c r="K55">
+      <c r="L55">
         <v>3</v>
       </c>
-      <c r="L55">
+      <c r="M55">
         <v>228</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>56</v>
       </c>
       <c r="B56" t="s">
         <v>58</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56" t="s">
+        <v>306</v>
+      </c>
+      <c r="D56" s="1">
         <v>43135.586805555555</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>-52.253827639999997</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>-22.599226909999999</v>
       </c>
-      <c r="F56" s="5">
+      <c r="G56" s="5">
         <v>106</v>
       </c>
-      <c r="G56" s="1">
+      <c r="H56" s="1">
         <v>43135.611111111109</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>-52.253827639999997</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>-22.599226909999999</v>
       </c>
-      <c r="J56" t="s">
+      <c r="K56" t="s">
         <v>204</v>
       </c>
-      <c r="K56">
+      <c r="L56">
         <v>6</v>
       </c>
-      <c r="L56">
+      <c r="M56">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>57</v>
       </c>
       <c r="B57" t="s">
         <v>58</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57" t="s">
+        <v>306</v>
+      </c>
+      <c r="D57" s="1">
         <v>43135.586805555555</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>-52.253827639999997</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>-22.599226909999999</v>
       </c>
-      <c r="F57" s="5">
+      <c r="G57" s="5">
         <v>106</v>
       </c>
-      <c r="G57" s="1">
+      <c r="H57" s="1">
         <v>43135.618055555555</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>-52.253288830000002</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>-22.59916256</v>
       </c>
-      <c r="J57" t="s">
+      <c r="K57" t="s">
         <v>205</v>
       </c>
-      <c r="K57">
+      <c r="L57">
         <v>8</v>
       </c>
-      <c r="L57">
+      <c r="M57">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>59</v>
       </c>
       <c r="B58" t="s">
         <v>31</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58" t="s">
+        <v>306</v>
+      </c>
+      <c r="D58" s="1">
         <v>43159.430555555555</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>-52.253082030000002</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>-22.60096661</v>
       </c>
-      <c r="F58" s="5">
+      <c r="G58" s="5">
         <v>110</v>
       </c>
-      <c r="G58" s="1">
+      <c r="H58" s="1">
         <v>43159.461805555555</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>-52.252368449999999</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>-22.59978783</v>
       </c>
-      <c r="J58" t="s">
+      <c r="K58" t="s">
         <v>206</v>
       </c>
-      <c r="K58">
+      <c r="L58">
         <v>4</v>
       </c>
-      <c r="L58">
+      <c r="M58">
         <v>142</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>60</v>
       </c>
       <c r="B59" t="s">
         <v>31</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59" t="s">
+        <v>306</v>
+      </c>
+      <c r="D59" s="1">
         <v>43159.430555555555</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>-52.253082030000002</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>-22.60096661</v>
       </c>
-      <c r="F59" s="5">
+      <c r="G59" s="5">
         <v>110</v>
       </c>
-      <c r="G59" s="1">
+      <c r="H59" s="1">
         <v>43159.465277777781</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>-52.252368449999999</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>-22.59978783</v>
       </c>
-      <c r="J59" t="s">
+      <c r="K59" t="s">
         <v>207</v>
       </c>
-      <c r="K59">
+      <c r="L59">
         <v>3</v>
       </c>
-      <c r="L59">
+      <c r="M59">
         <v>142</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>61</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60" t="s">
+        <v>306</v>
+      </c>
+      <c r="D60" s="1">
         <v>43159.440972222219</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <v>-52.253066349999997</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>-22.601297070000001</v>
       </c>
-      <c r="F60" s="5">
+      <c r="G60" s="5">
         <v>111</v>
       </c>
-      <c r="G60" s="1">
+      <c r="H60" s="1">
         <v>43159.461805555555</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>-52.252368449999999</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <v>-22.59978783</v>
       </c>
-      <c r="J60" t="s">
+      <c r="K60" t="s">
         <v>208</v>
       </c>
-      <c r="K60">
+      <c r="L60">
         <v>22</v>
       </c>
-      <c r="L60">
+      <c r="M60">
         <v>171</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>61</v>
       </c>
-      <c r="C61" s="1">
+      <c r="C61" t="s">
+        <v>306</v>
+      </c>
+      <c r="D61" s="1">
         <v>43159.440972222219</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <v>-52.253066349999997</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>-22.601297070000001</v>
       </c>
-      <c r="F61" s="5">
+      <c r="G61" s="5">
         <v>111</v>
       </c>
-      <c r="G61" s="1">
+      <c r="H61" s="1">
         <v>43159.465277777781</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <v>-52.252368449999999</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <v>-22.59978783</v>
       </c>
-      <c r="J61" t="s">
+      <c r="K61" t="s">
         <v>209</v>
       </c>
-      <c r="K61">
+      <c r="L61">
         <v>18</v>
       </c>
-      <c r="L61">
+      <c r="M61">
         <v>171</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>62</v>
       </c>
       <c r="B62" t="s">
         <v>63</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62" t="s">
+        <v>306</v>
+      </c>
+      <c r="D62" s="1">
         <v>43159.65625</v>
       </c>
-      <c r="D62">
+      <c r="E62">
         <v>-52.244543559999997</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>-22.599975990000001</v>
       </c>
-      <c r="F62" s="5">
+      <c r="G62" s="5">
         <v>116</v>
       </c>
-      <c r="G62" s="1">
+      <c r="H62" s="1">
         <v>43159.711805555555</v>
       </c>
-      <c r="H62">
+      <c r="I62">
         <v>-52.243414629999997</v>
       </c>
-      <c r="I62">
+      <c r="J62">
         <v>-22.602274699999999</v>
       </c>
-      <c r="J62" t="s">
+      <c r="K62" t="s">
         <v>210</v>
       </c>
-      <c r="K62">
+      <c r="L62">
         <v>5</v>
       </c>
-      <c r="L62">
+      <c r="M62">
         <v>263</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>64</v>
       </c>
       <c r="B63" t="s">
         <v>63</v>
       </c>
-      <c r="C63" s="1">
+      <c r="C63" t="s">
+        <v>306</v>
+      </c>
+      <c r="D63" s="1">
         <v>43159.65625</v>
       </c>
-      <c r="D63">
+      <c r="E63">
         <v>-52.244543559999997</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>-22.599975990000001</v>
       </c>
-      <c r="F63" s="5">
+      <c r="G63" s="5">
         <v>116</v>
       </c>
-      <c r="G63" s="1">
+      <c r="H63" s="1">
         <v>43159.739583333336</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>-52.244586230000003</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <v>-22.602181300000002</v>
       </c>
-      <c r="J63" t="s">
+      <c r="K63" t="s">
         <v>211</v>
       </c>
-      <c r="K63">
+      <c r="L63">
         <v>4</v>
       </c>
-      <c r="L63">
+      <c r="M63">
         <v>227</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>62</v>
       </c>
       <c r="B64" t="s">
         <v>35</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64" t="s">
+        <v>306</v>
+      </c>
+      <c r="D64" s="1">
         <v>43159.6875</v>
       </c>
-      <c r="D64">
+      <c r="E64">
         <v>-52.243259209999998</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <v>-22.6018632</v>
       </c>
-      <c r="F64" s="5">
+      <c r="G64" s="5">
         <v>117</v>
       </c>
-      <c r="G64" s="1">
+      <c r="H64" s="1">
         <v>43159.711805555555</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <v>-52.243414629999997</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <v>-22.602274699999999</v>
       </c>
-      <c r="J64" t="s">
+      <c r="K64" t="s">
         <v>212</v>
       </c>
-      <c r="K64">
+      <c r="L64">
         <v>23</v>
       </c>
-      <c r="L64">
+      <c r="M64">
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>35</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65" t="s">
+        <v>306</v>
+      </c>
+      <c r="D65" s="1">
         <v>43159.6875</v>
       </c>
-      <c r="D65">
+      <c r="E65">
         <v>-52.243259209999998</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <v>-22.6018632</v>
       </c>
-      <c r="F65" s="5">
+      <c r="G65" s="5">
         <v>117</v>
       </c>
-      <c r="G65" s="1">
+      <c r="H65" s="1">
         <v>43159.739583333336</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <v>-52.244586230000003</v>
       </c>
-      <c r="I65">
+      <c r="J65">
         <v>-22.602181300000002</v>
       </c>
-      <c r="J65" t="s">
+      <c r="K65" t="s">
         <v>213</v>
       </c>
-      <c r="K65">
+      <c r="L65">
         <v>21</v>
       </c>
-      <c r="L65">
+      <c r="M65">
         <v>140</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>31</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66" t="s">
+        <v>302</v>
+      </c>
+      <c r="D66" s="1">
         <v>43160.395833333336</v>
       </c>
-      <c r="D66">
+      <c r="E66">
         <v>-52.245200529999998</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <v>-22.604127160000001</v>
       </c>
-      <c r="F66" s="5">
+      <c r="G66" s="5">
         <v>121</v>
       </c>
-      <c r="G66" s="1">
+      <c r="H66" s="1">
         <v>43160.430555555555</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <v>-52.247178460000001</v>
       </c>
-      <c r="I66">
+      <c r="J66">
         <v>-22.605273180000001</v>
       </c>
-      <c r="J66" t="s">
+      <c r="K66" t="s">
         <v>214</v>
       </c>
-      <c r="K66">
+      <c r="L66">
         <v>5</v>
       </c>
-      <c r="L66">
+      <c r="M66">
         <v>235</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>31</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C67" t="s">
+        <v>302</v>
+      </c>
+      <c r="D67" s="1">
         <v>43160.395833333336</v>
       </c>
-      <c r="D67">
+      <c r="E67">
         <v>-52.245200529999998</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>-22.604127160000001</v>
       </c>
-      <c r="F67" s="5">
+      <c r="G67" s="5">
         <v>121</v>
       </c>
-      <c r="G67" s="1">
+      <c r="H67" s="1">
         <v>43160.440972222219</v>
       </c>
-      <c r="H67">
+      <c r="I67">
         <v>-52.247178460000001</v>
       </c>
-      <c r="I67">
+      <c r="J67">
         <v>-22.605273180000001</v>
       </c>
-      <c r="J67" t="s">
+      <c r="K67" t="s">
         <v>215</v>
       </c>
-      <c r="K67">
+      <c r="L67">
         <v>5</v>
       </c>
-      <c r="L67">
+      <c r="M67">
         <v>235</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>31</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C68" t="s">
+        <v>302</v>
+      </c>
+      <c r="D68" s="1">
         <v>43160.395833333336</v>
       </c>
-      <c r="D68">
+      <c r="E68">
         <v>-52.245200529999998</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <v>-22.604127160000001</v>
       </c>
-      <c r="F68" s="5">
+      <c r="G68" s="5">
         <v>121</v>
       </c>
-      <c r="G68" s="1">
+      <c r="H68" s="1">
         <v>43160.444444444445</v>
       </c>
-      <c r="H68">
+      <c r="I68">
         <v>-52.247178460000001</v>
       </c>
-      <c r="I68">
+      <c r="J68">
         <v>-22.605273180000001</v>
       </c>
-      <c r="J68" t="s">
+      <c r="K68" t="s">
         <v>216</v>
       </c>
-      <c r="K68">
+      <c r="L68">
         <v>4</v>
       </c>
-      <c r="L68">
+      <c r="M68">
         <v>235</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>65</v>
       </c>
       <c r="B69" t="s">
         <v>68</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69" t="s">
+        <v>302</v>
+      </c>
+      <c r="D69" s="1">
         <v>43160.402777777781</v>
       </c>
-      <c r="D69">
+      <c r="E69">
         <v>-52.245440279999997</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>-22.60429882</v>
       </c>
-      <c r="F69" s="5">
+      <c r="G69" s="5">
         <v>122</v>
       </c>
-      <c r="G69" s="1">
+      <c r="H69" s="1">
         <v>43160.430555555555</v>
       </c>
-      <c r="H69">
+      <c r="I69">
         <v>-52.247178460000001</v>
       </c>
-      <c r="I69">
+      <c r="J69">
         <v>-22.605273180000001</v>
       </c>
-      <c r="J69" t="s">
+      <c r="K69" t="s">
         <v>217</v>
       </c>
-      <c r="K69">
+      <c r="L69">
         <v>31</v>
       </c>
-      <c r="L69">
+      <c r="M69">
         <v>205</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>66</v>
       </c>
       <c r="B70" t="s">
         <v>68</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C70" t="s">
+        <v>302</v>
+      </c>
+      <c r="D70" s="1">
         <v>43160.402777777781</v>
       </c>
-      <c r="D70">
+      <c r="E70">
         <v>-52.245440279999997</v>
       </c>
-      <c r="E70">
+      <c r="F70">
         <v>-22.60429882</v>
       </c>
-      <c r="F70" s="5">
+      <c r="G70" s="5">
         <v>122</v>
       </c>
-      <c r="G70" s="1">
+      <c r="H70" s="1">
         <v>43160.440972222219</v>
       </c>
-      <c r="H70">
+      <c r="I70">
         <v>-52.247178460000001</v>
       </c>
-      <c r="I70">
+      <c r="J70">
         <v>-22.605273180000001</v>
       </c>
-      <c r="J70" t="s">
+      <c r="K70" t="s">
         <v>218</v>
       </c>
-      <c r="K70">
+      <c r="L70">
         <v>35</v>
       </c>
-      <c r="L70">
+      <c r="M70">
         <v>205</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>67</v>
       </c>
       <c r="B71" t="s">
         <v>68</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C71" t="s">
+        <v>302</v>
+      </c>
+      <c r="D71" s="1">
         <v>43160.402777777781</v>
       </c>
-      <c r="D71">
+      <c r="E71">
         <v>-52.245440279999997</v>
       </c>
-      <c r="E71">
+      <c r="F71">
         <v>-22.60429882</v>
       </c>
-      <c r="F71" s="5">
+      <c r="G71" s="5">
         <v>122</v>
       </c>
-      <c r="G71" s="1">
+      <c r="H71" s="1">
         <v>43160.444444444445</v>
       </c>
-      <c r="H71">
+      <c r="I71">
         <v>-52.247178460000001</v>
       </c>
-      <c r="I71">
+      <c r="J71">
         <v>-22.605273180000001</v>
       </c>
-      <c r="J71" t="s">
+      <c r="K71" t="s">
         <v>219</v>
       </c>
-      <c r="K71">
+      <c r="L71">
         <v>29</v>
       </c>
-      <c r="L71">
+      <c r="M71">
         <v>205</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>69</v>
       </c>
       <c r="B72" t="s">
         <v>70</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C72" t="s">
+        <v>302</v>
+      </c>
+      <c r="D72" s="1">
         <v>43160.555555555555</v>
       </c>
-      <c r="D72">
+      <c r="E72">
         <v>-52.251359909999998</v>
       </c>
-      <c r="E72">
+      <c r="F72">
         <v>-22.60655495</v>
       </c>
-      <c r="F72" s="5">
+      <c r="G72" s="5">
         <v>125</v>
       </c>
-      <c r="G72" s="1">
+      <c r="H72" s="1">
         <v>43160.590277777781</v>
       </c>
-      <c r="H72">
+      <c r="I72">
         <v>-52.251643450000003</v>
       </c>
-      <c r="I72">
+      <c r="J72">
         <v>-22.60639145</v>
       </c>
-      <c r="J72" t="s">
+      <c r="K72" t="s">
         <v>220</v>
       </c>
-      <c r="K72">
+      <c r="L72">
         <v>5</v>
       </c>
-      <c r="L72">
+      <c r="M72">
         <v>34</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>71</v>
       </c>
       <c r="B73" t="s">
         <v>68</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C73" t="s">
+        <v>302</v>
+      </c>
+      <c r="D73" s="1">
         <v>43161.336805555555</v>
       </c>
-      <c r="D73">
+      <c r="E73">
         <v>-52.250976459999997</v>
       </c>
-      <c r="E73">
+      <c r="F73">
         <v>-22.60398035</v>
       </c>
-      <c r="F73" s="5">
+      <c r="G73" s="5">
         <v>126</v>
       </c>
-      <c r="G73" s="1">
+      <c r="H73" s="1">
         <v>43161.371527777781</v>
       </c>
-      <c r="H73">
+      <c r="I73">
         <v>-52.251429989999998</v>
       </c>
-      <c r="I73">
+      <c r="J73">
         <v>-22.603865859999999</v>
       </c>
-      <c r="J73" t="s">
+      <c r="K73" t="s">
         <v>221</v>
       </c>
-      <c r="K73">
+      <c r="L73">
         <v>38</v>
       </c>
-      <c r="L73">
+      <c r="M73">
         <v>48</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>72</v>
       </c>
       <c r="B74" t="s">
         <v>68</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C74" t="s">
+        <v>302</v>
+      </c>
+      <c r="D74" s="1">
         <v>43161.336805555555</v>
       </c>
-      <c r="D74">
+      <c r="E74">
         <v>-52.250976459999997</v>
       </c>
-      <c r="E74">
+      <c r="F74">
         <v>-22.60398035</v>
       </c>
-      <c r="F74" s="5">
+      <c r="G74" s="5">
         <v>126</v>
       </c>
-      <c r="G74" s="1">
+      <c r="H74" s="1">
         <v>43161.381944444445</v>
       </c>
-      <c r="H74">
+      <c r="I74">
         <v>-52.251429989999998</v>
       </c>
-      <c r="I74">
+      <c r="J74">
         <v>-22.603865859999999</v>
       </c>
-      <c r="J74" t="s">
+      <c r="K74" t="s">
         <v>222</v>
       </c>
-      <c r="K74">
+      <c r="L74">
         <v>32</v>
       </c>
-      <c r="L74">
+      <c r="M74">
         <v>48</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>73</v>
       </c>
       <c r="B75" t="s">
         <v>63</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C75" t="s">
+        <v>302</v>
+      </c>
+      <c r="D75" s="1">
         <v>43161.385416666664</v>
       </c>
-      <c r="D75">
+      <c r="E75">
         <v>-52.251429989999998</v>
       </c>
-      <c r="E75">
+      <c r="F75">
         <v>-22.603865859999999</v>
       </c>
-      <c r="F75" s="5">
+      <c r="G75" s="5">
         <v>128</v>
       </c>
-      <c r="G75" s="1">
+      <c r="H75" s="1">
         <v>43161.427083333336</v>
       </c>
-      <c r="H75">
+      <c r="I75">
         <v>-52.252653440000003</v>
       </c>
-      <c r="I75">
+      <c r="J75">
         <v>-22.603241950000001</v>
       </c>
-      <c r="J75" t="s">
+      <c r="K75" t="s">
         <v>223</v>
       </c>
-      <c r="K75">
+      <c r="L75">
         <v>6</v>
       </c>
-      <c r="L75">
+      <c r="M75">
         <v>141</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>74</v>
       </c>
       <c r="B76" t="s">
         <v>75</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C76" t="s">
+        <v>302</v>
+      </c>
+      <c r="D76" s="1">
         <v>43161.447916666664</v>
       </c>
-      <c r="D76">
+      <c r="E76">
         <v>-52.253084100000002</v>
       </c>
-      <c r="E76">
+      <c r="F76">
         <v>-22.603590789999998</v>
       </c>
-      <c r="F76" s="5">
+      <c r="G76" s="5">
         <v>129</v>
       </c>
-      <c r="G76" s="1">
+      <c r="H76" s="1">
         <v>43161.527777777781</v>
       </c>
-      <c r="H76">
+      <c r="I76">
         <v>-52.25472765</v>
       </c>
-      <c r="I76">
+      <c r="J76">
         <v>-22.6021638</v>
       </c>
-      <c r="J76" t="s">
+      <c r="K76" t="s">
         <v>224</v>
       </c>
-      <c r="K76">
+      <c r="L76">
         <v>4</v>
       </c>
-      <c r="L76">
+      <c r="M76">
         <v>223</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>76</v>
       </c>
       <c r="B77" t="s">
         <v>61</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C77" t="s">
+        <v>302</v>
+      </c>
+      <c r="D77" s="1">
         <v>43161.673611111109</v>
       </c>
-      <c r="D77">
+      <c r="E77">
         <v>-52.252142050000003</v>
       </c>
-      <c r="E77">
+      <c r="F77">
         <v>-22.598749189999999</v>
       </c>
-      <c r="F77" s="5">
+      <c r="G77" s="5">
         <v>135</v>
       </c>
-      <c r="G77" s="1">
+      <c r="H77" s="1">
         <v>43161.71875</v>
       </c>
-      <c r="H77">
+      <c r="I77">
         <v>-52.249842319999999</v>
       </c>
-      <c r="I77">
+      <c r="J77">
         <v>-22.59840037</v>
       </c>
-      <c r="J77" t="s">
+      <c r="K77" t="s">
         <v>225</v>
       </c>
-      <c r="K77">
+      <c r="L77">
         <v>5</v>
       </c>
-      <c r="L77">
+      <c r="M77">
         <v>239</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>78</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C78" t="s">
+        <v>307</v>
+      </c>
+      <c r="D78" s="1">
         <v>43222.371527777781</v>
       </c>
-      <c r="D78">
+      <c r="E78">
         <v>-52.249311859999999</v>
       </c>
-      <c r="E78">
+      <c r="F78">
         <v>-22.600270040000002</v>
       </c>
-      <c r="F78" s="5">
+      <c r="G78" s="5">
         <v>140</v>
       </c>
-      <c r="G78" s="1">
+      <c r="H78" s="1">
         <v>43222.413194444445</v>
       </c>
-      <c r="H78">
+      <c r="I78">
         <v>-52.250595390000001</v>
       </c>
-      <c r="I78">
+      <c r="J78">
         <v>-22.601862990000001</v>
       </c>
-      <c r="J78" t="s">
+      <c r="K78" t="s">
         <v>226</v>
       </c>
-      <c r="K78" t="s">
+      <c r="L78" t="s">
         <v>24</v>
       </c>
-      <c r="L78">
+      <c r="M78">
         <v>210</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>79</v>
       </c>
       <c r="B79" t="s">
         <v>80</v>
       </c>
-      <c r="C79" s="1">
+      <c r="C79" t="s">
+        <v>307</v>
+      </c>
+      <c r="D79" s="1">
         <v>43222.465277777781</v>
       </c>
-      <c r="D79">
+      <c r="E79">
         <v>-52.250369669999998</v>
       </c>
-      <c r="E79">
+      <c r="F79">
         <v>-22.60287276</v>
       </c>
-      <c r="F79" s="5">
+      <c r="G79" s="5">
         <v>143</v>
       </c>
-      <c r="G79" s="1">
+      <c r="H79" s="1">
         <v>43222.5625</v>
       </c>
-      <c r="H79">
+      <c r="I79">
         <v>-52.249224570000003</v>
       </c>
-      <c r="I79">
+      <c r="J79">
         <v>-22.605291730000001</v>
       </c>
-      <c r="J79" t="s">
+      <c r="K79" t="s">
         <v>227</v>
       </c>
-      <c r="K79">
+      <c r="L79">
         <v>8</v>
       </c>
-      <c r="L79">
+      <c r="M79">
         <v>275</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>81</v>
       </c>
       <c r="B80" t="s">
         <v>75</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C80" t="s">
+        <v>307</v>
+      </c>
+      <c r="D80" s="1">
         <v>43222.756944444445</v>
       </c>
-      <c r="D80">
+      <c r="E80">
         <v>-52.243620120000003</v>
       </c>
-      <c r="E80">
+      <c r="F80">
         <v>-22.60513357</v>
       </c>
-      <c r="F80" s="5">
+      <c r="G80" s="5">
         <v>146</v>
       </c>
-      <c r="G80" s="1">
+      <c r="H80" s="1">
         <v>43223.274305555555</v>
       </c>
-      <c r="H80">
+      <c r="I80">
         <v>-52.244617079999998</v>
       </c>
-      <c r="I80">
+      <c r="J80">
         <v>-22.60511528</v>
       </c>
-      <c r="J80" t="s">
+      <c r="K80" t="s">
         <v>228</v>
       </c>
-      <c r="K80">
+      <c r="L80">
         <v>4</v>
       </c>
-      <c r="L80">
+      <c r="M80">
         <v>103</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>82</v>
       </c>
       <c r="B81" t="s">
         <v>75</v>
       </c>
-      <c r="C81" s="1">
+      <c r="C81" t="s">
+        <v>307</v>
+      </c>
+      <c r="D81" s="1">
         <v>43222.756944444445</v>
       </c>
-      <c r="D81">
+      <c r="E81">
         <v>-52.243620120000003</v>
       </c>
-      <c r="E81">
+      <c r="F81">
         <v>-22.60513357</v>
       </c>
-      <c r="F81" s="5">
+      <c r="G81" s="5">
         <v>146</v>
       </c>
-      <c r="G81" s="1">
+      <c r="H81" s="1">
         <v>43223.274305555555</v>
       </c>
-      <c r="H81">
+      <c r="I81">
         <v>-52.244617079999998</v>
       </c>
-      <c r="I81">
+      <c r="J81">
         <v>-22.60511528</v>
       </c>
-      <c r="J81" t="s">
+      <c r="K81" t="s">
         <v>229</v>
       </c>
-      <c r="K81">
+      <c r="L81">
         <v>3</v>
       </c>
-      <c r="L81">
+      <c r="M81">
         <v>103</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>83</v>
       </c>
       <c r="B82" t="s">
         <v>75</v>
       </c>
-      <c r="C82" s="1">
+      <c r="C82" t="s">
+        <v>307</v>
+      </c>
+      <c r="D82" s="1">
         <v>43222.756944444445</v>
       </c>
-      <c r="D82">
+      <c r="E82">
         <v>-52.243620120000003</v>
       </c>
-      <c r="E82">
+      <c r="F82">
         <v>-22.60513357</v>
       </c>
-      <c r="F82" s="5">
+      <c r="G82" s="5">
         <v>146</v>
       </c>
-      <c r="G82" s="1">
+      <c r="H82" s="1">
         <v>43223.274305555555</v>
       </c>
-      <c r="H82">
+      <c r="I82">
         <v>-52.244617079999998</v>
       </c>
-      <c r="I82">
+      <c r="J82">
         <v>-22.60511528</v>
       </c>
-      <c r="J82" t="s">
+      <c r="K82" t="s">
         <v>230</v>
       </c>
-      <c r="K82">
+      <c r="L82">
         <v>4</v>
       </c>
-      <c r="L82">
+      <c r="M82">
         <v>103</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>84</v>
       </c>
       <c r="B83" t="s">
         <v>78</v>
       </c>
-      <c r="C83" s="1">
+      <c r="C83" t="s">
+        <v>307</v>
+      </c>
+      <c r="D83" s="1">
         <v>43223.274305555555</v>
       </c>
-      <c r="D83">
+      <c r="E83">
         <v>-52.244617079999998</v>
       </c>
-      <c r="E83">
+      <c r="F83">
         <v>-22.60511528</v>
       </c>
-      <c r="F83" s="5">
+      <c r="G83" s="5">
         <v>147</v>
       </c>
-      <c r="G83" s="1">
+      <c r="H83" s="1">
         <v>43223.319444444445</v>
       </c>
-      <c r="H83">
+      <c r="I83">
         <v>-52.244499490000003</v>
       </c>
-      <c r="I83">
+      <c r="J83">
         <v>-22.603085499999999</v>
       </c>
-      <c r="J83" t="s">
+      <c r="K83" t="s">
         <v>231</v>
       </c>
-      <c r="K83" t="s">
+      <c r="L83" t="s">
         <v>24</v>
       </c>
-      <c r="L83">
+      <c r="M83">
         <v>209</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>85</v>
       </c>
       <c r="B84" t="s">
         <v>78</v>
       </c>
-      <c r="C84" s="1">
+      <c r="C84" t="s">
+        <v>307</v>
+      </c>
+      <c r="D84" s="1">
         <v>43223.274305555555</v>
       </c>
-      <c r="D84">
+      <c r="E84">
         <v>-52.244617079999998</v>
       </c>
-      <c r="E84">
+      <c r="F84">
         <v>-22.60511528</v>
       </c>
-      <c r="F84" s="5">
+      <c r="G84" s="5">
         <v>147</v>
       </c>
-      <c r="G84" s="1">
+      <c r="H84" s="1">
         <v>43223.319444444445</v>
       </c>
-      <c r="H84">
+      <c r="I84">
         <v>-52.244499490000003</v>
       </c>
-      <c r="I84">
+      <c r="J84">
         <v>-22.603085499999999</v>
       </c>
-      <c r="J84" t="s">
+      <c r="K84" t="s">
         <v>232</v>
       </c>
-      <c r="K84" t="s">
+      <c r="L84" t="s">
         <v>24</v>
       </c>
-      <c r="L84">
+      <c r="M84">
         <v>209</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>86</v>
       </c>
       <c r="B85" t="s">
         <v>78</v>
       </c>
-      <c r="C85" s="1">
+      <c r="C85" t="s">
+        <v>307</v>
+      </c>
+      <c r="D85" s="1">
         <v>43223.274305555555</v>
       </c>
-      <c r="D85">
+      <c r="E85">
         <v>-52.244617079999998</v>
       </c>
-      <c r="E85">
+      <c r="F85">
         <v>-22.60511528</v>
       </c>
-      <c r="F85" s="5">
+      <c r="G85" s="5">
         <v>147</v>
       </c>
-      <c r="G85" s="1">
+      <c r="H85" s="1">
         <v>43223.326388888891</v>
       </c>
-      <c r="H85">
+      <c r="I85">
         <v>-52.244499490000003</v>
       </c>
-      <c r="I85">
+      <c r="J85">
         <v>-22.603085499999999</v>
       </c>
-      <c r="J85" t="s">
+      <c r="K85" t="s">
         <v>233</v>
       </c>
-      <c r="K85" t="s">
+      <c r="L85" t="s">
         <v>24</v>
       </c>
-      <c r="L85">
+      <c r="M85">
         <v>209</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>87</v>
       </c>
       <c r="B86" t="s">
         <v>78</v>
       </c>
-      <c r="C86" s="1">
+      <c r="C86" t="s">
+        <v>307</v>
+      </c>
+      <c r="D86" s="1">
         <v>43223.274305555555</v>
       </c>
-      <c r="D86">
+      <c r="E86">
         <v>-52.244617079999998</v>
       </c>
-      <c r="E86">
+      <c r="F86">
         <v>-22.60511528</v>
       </c>
-      <c r="F86" s="5">
+      <c r="G86" s="5">
         <v>147</v>
       </c>
-      <c r="G86" s="1">
+      <c r="H86" s="1">
         <v>43223.336805555555</v>
       </c>
-      <c r="H86">
+      <c r="I86">
         <v>-52.244499490000003</v>
       </c>
-      <c r="I86">
+      <c r="J86">
         <v>-22.603085499999999</v>
       </c>
-      <c r="J86" t="s">
+      <c r="K86" t="s">
         <v>234</v>
       </c>
-      <c r="K86" t="s">
+      <c r="L86" t="s">
         <v>24</v>
       </c>
-      <c r="L86">
+      <c r="M86">
         <v>209</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>88</v>
       </c>
       <c r="B87" t="s">
         <v>89</v>
       </c>
-      <c r="C87" s="1">
+      <c r="C87" t="s">
+        <v>307</v>
+      </c>
+      <c r="D87" s="1">
         <v>43223.430555555555</v>
       </c>
-      <c r="D87">
+      <c r="E87">
         <v>-52.243300580000003</v>
       </c>
-      <c r="E87">
+      <c r="F87">
         <v>-22.60002386</v>
       </c>
-      <c r="F87" s="5">
+      <c r="G87" s="5">
         <v>148</v>
       </c>
-      <c r="G87" s="1">
+      <c r="H87" s="1">
         <v>43223.475694444445</v>
       </c>
-      <c r="H87">
+      <c r="I87">
         <v>-52.24036985</v>
       </c>
-      <c r="I87">
+      <c r="J87">
         <v>-22.601780659999999</v>
       </c>
-      <c r="J87" t="s">
+      <c r="K87" t="s">
         <v>235</v>
       </c>
-      <c r="K87">
+      <c r="L87">
         <v>9</v>
       </c>
-      <c r="L87">
+      <c r="M87">
         <v>351</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>90</v>
       </c>
       <c r="B88" t="s">
         <v>89</v>
       </c>
-      <c r="C88" s="1">
+      <c r="C88" t="s">
+        <v>307</v>
+      </c>
+      <c r="D88" s="1">
         <v>43223.430555555555</v>
       </c>
-      <c r="D88">
+      <c r="E88">
         <v>-52.243300580000003</v>
       </c>
-      <c r="E88">
+      <c r="F88">
         <v>-22.60002386</v>
       </c>
-      <c r="F88" s="5">
+      <c r="G88" s="5">
         <v>148</v>
       </c>
-      <c r="G88" s="1">
+      <c r="H88" s="1">
         <v>43223.489583333336</v>
       </c>
-      <c r="H88">
+      <c r="I88">
         <v>-52.238949490000003</v>
       </c>
-      <c r="I88">
+      <c r="J88">
         <v>-22.602959769999998</v>
       </c>
-      <c r="J88" t="s">
+      <c r="K88" t="s">
         <v>236</v>
       </c>
-      <c r="K88">
+      <c r="L88">
         <v>8</v>
       </c>
-      <c r="L88">
+      <c r="M88">
         <v>540</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>88</v>
       </c>
       <c r="B89" t="s">
         <v>91</v>
       </c>
-      <c r="C89" s="1">
+      <c r="C89" t="s">
+        <v>307</v>
+      </c>
+      <c r="D89" s="1">
         <v>43223.447916666664</v>
       </c>
-      <c r="D89">
+      <c r="E89">
         <v>-52.242447869999999</v>
       </c>
-      <c r="E89">
+      <c r="F89">
         <v>-22.600390690000001</v>
       </c>
-      <c r="F89" s="5">
+      <c r="G89" s="5">
         <v>149</v>
       </c>
-      <c r="G89" s="1">
+      <c r="H89" s="1">
         <v>43223.475694444445</v>
       </c>
-      <c r="H89">
+      <c r="I89">
         <v>-52.24036985</v>
       </c>
-      <c r="I89">
+      <c r="J89">
         <v>-22.601780659999999</v>
       </c>
-      <c r="J89" t="s">
+      <c r="K89" t="s">
         <v>237</v>
       </c>
-      <c r="K89" t="s">
+      <c r="L89" t="s">
         <v>24</v>
       </c>
-      <c r="L89">
+      <c r="M89">
         <v>257</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>90</v>
       </c>
       <c r="B90" t="s">
         <v>91</v>
       </c>
-      <c r="C90" s="1">
+      <c r="C90" t="s">
+        <v>307</v>
+      </c>
+      <c r="D90" s="1">
         <v>43223.447916666664</v>
       </c>
-      <c r="D90">
+      <c r="E90">
         <v>-52.242447869999999</v>
       </c>
-      <c r="E90">
+      <c r="F90">
         <v>-22.600390690000001</v>
       </c>
-      <c r="F90" s="5">
+      <c r="G90" s="5">
         <v>149</v>
       </c>
-      <c r="G90" s="1">
+      <c r="H90" s="1">
         <v>43223.489583333336</v>
       </c>
-      <c r="H90">
+      <c r="I90">
         <v>-52.238949490000003</v>
       </c>
-      <c r="I90">
+      <c r="J90">
         <v>-22.602959769999998</v>
       </c>
-      <c r="J90" t="s">
+      <c r="K90" t="s">
         <v>238</v>
       </c>
-      <c r="K90" t="s">
+      <c r="L90" t="s">
         <v>24</v>
       </c>
-      <c r="L90">
+      <c r="M90">
         <v>446</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>92</v>
       </c>
       <c r="B91" t="s">
         <v>61</v>
       </c>
-      <c r="C91" s="1">
+      <c r="C91" t="s">
+        <v>307</v>
+      </c>
+      <c r="D91" s="1">
         <v>43223.569444444445</v>
       </c>
-      <c r="D91">
+      <c r="E91">
         <v>-52.237774700000003</v>
       </c>
-      <c r="E91">
+      <c r="F91">
         <v>-22.608530099999999</v>
       </c>
-      <c r="F91" s="5">
+      <c r="G91" s="5">
         <v>150</v>
       </c>
-      <c r="G91" s="1">
+      <c r="H91" s="1">
         <v>43223.618055555555</v>
       </c>
-      <c r="H91">
+      <c r="I91">
         <v>-52.238425650000003</v>
       </c>
-      <c r="I91">
+      <c r="J91">
         <v>-22.608179329999999</v>
       </c>
-      <c r="J91" t="s">
+      <c r="K91" t="s">
         <v>239</v>
       </c>
-      <c r="K91">
+      <c r="L91">
         <v>8</v>
       </c>
-      <c r="L91">
+      <c r="M91">
         <v>76</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>93</v>
       </c>
       <c r="B92" t="s">
         <v>61</v>
       </c>
-      <c r="C92" s="1">
+      <c r="C92" t="s">
+        <v>307</v>
+      </c>
+      <c r="D92" s="1">
         <v>43223.569444444445</v>
       </c>
-      <c r="D92">
+      <c r="E92">
         <v>-52.237774700000003</v>
       </c>
-      <c r="E92">
+      <c r="F92">
         <v>-22.608530099999999</v>
       </c>
-      <c r="F92" s="5">
+      <c r="G92" s="5">
         <v>150</v>
       </c>
-      <c r="G92" s="1">
+      <c r="H92" s="1">
         <v>43223.621527777781</v>
       </c>
-      <c r="H92">
+      <c r="I92">
         <v>-52.2386512</v>
       </c>
-      <c r="I92">
+      <c r="J92">
         <v>-22.608464529999999</v>
       </c>
-      <c r="J92" t="s">
+      <c r="K92" t="s">
         <v>240</v>
       </c>
-      <c r="K92">
+      <c r="L92">
         <v>9</v>
       </c>
-      <c r="L92">
+      <c r="M92">
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>92</v>
       </c>
       <c r="B93" t="s">
         <v>91</v>
       </c>
-      <c r="C93" s="1">
+      <c r="C93" t="s">
+        <v>307</v>
+      </c>
+      <c r="D93" s="1">
         <v>43223.597222222219</v>
       </c>
-      <c r="D93">
+      <c r="E93">
         <v>-52.237774700000003</v>
       </c>
-      <c r="E93">
+      <c r="F93">
         <v>-22.608530099999999</v>
       </c>
-      <c r="F93" s="5">
+      <c r="G93" s="5">
         <v>151</v>
       </c>
-      <c r="G93" s="1">
+      <c r="H93" s="1">
         <v>43223.618055555555</v>
       </c>
-      <c r="H93">
+      <c r="I93">
         <v>-52.238425650000003</v>
       </c>
-      <c r="I93">
+      <c r="J93">
         <v>-22.608179329999999</v>
       </c>
-      <c r="J93" t="s">
+      <c r="K93" t="s">
         <v>241</v>
       </c>
-      <c r="K93" t="s">
+      <c r="L93" t="s">
         <v>24</v>
       </c>
-      <c r="L93">
+      <c r="M93">
         <v>76</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>93</v>
       </c>
       <c r="B94" t="s">
         <v>91</v>
       </c>
-      <c r="C94" s="1">
+      <c r="C94" t="s">
+        <v>307</v>
+      </c>
+      <c r="D94" s="1">
         <v>43223.597222222219</v>
       </c>
-      <c r="D94">
+      <c r="E94">
         <v>-52.237774700000003</v>
       </c>
-      <c r="E94">
+      <c r="F94">
         <v>-22.608530099999999</v>
       </c>
-      <c r="F94" s="5">
+      <c r="G94" s="5">
         <v>151</v>
       </c>
-      <c r="G94" s="1">
+      <c r="H94" s="1">
         <v>43223.621527777781</v>
       </c>
-      <c r="H94">
+      <c r="I94">
         <v>-52.2386512</v>
       </c>
-      <c r="I94">
+      <c r="J94">
         <v>-22.608464529999999</v>
       </c>
-      <c r="J94" t="s">
+      <c r="K94" t="s">
         <v>242</v>
       </c>
-      <c r="K94" t="s">
+      <c r="L94" t="s">
         <v>24</v>
       </c>
-      <c r="L94">
+      <c r="M94">
         <v>90</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>94</v>
       </c>
       <c r="B95" t="s">
         <v>95</v>
       </c>
-      <c r="C95" s="1">
+      <c r="C95" t="s">
+        <v>303</v>
+      </c>
+      <c r="D95" s="1">
         <v>43283.347222222219</v>
       </c>
-      <c r="D95">
+      <c r="E95">
         <v>-52.254457170000002</v>
       </c>
-      <c r="E95">
+      <c r="F95">
         <v>-22.60193177</v>
       </c>
-      <c r="F95" s="5">
+      <c r="G95" s="5">
         <v>152</v>
       </c>
-      <c r="G95" s="1">
+      <c r="H95" s="1">
         <v>43283.423611111109</v>
       </c>
-      <c r="H95">
+      <c r="I95">
         <v>-52.256197489999998</v>
       </c>
-      <c r="I95">
+      <c r="J95">
         <v>-22.60422492</v>
       </c>
-      <c r="J95" t="s">
+      <c r="K95" t="s">
         <v>243</v>
       </c>
-      <c r="K95">
+      <c r="L95">
         <v>13</v>
       </c>
-      <c r="L95">
+      <c r="M95">
         <v>296</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>96</v>
       </c>
       <c r="B96" t="s">
         <v>95</v>
       </c>
-      <c r="C96" s="1">
+      <c r="C96" t="s">
+        <v>303</v>
+      </c>
+      <c r="D96" s="1">
         <v>43283.347222222219</v>
       </c>
-      <c r="D96">
+      <c r="E96">
         <v>-52.254457170000002</v>
       </c>
-      <c r="E96">
+      <c r="F96">
         <v>-22.60193177</v>
       </c>
-      <c r="F96" s="5">
+      <c r="G96" s="5">
         <v>152</v>
       </c>
-      <c r="G96" s="1">
+      <c r="H96" s="1">
         <v>43283.427083333336</v>
       </c>
-      <c r="H96">
+      <c r="I96">
         <v>-52.256320420000002</v>
       </c>
-      <c r="I96">
+      <c r="J96">
         <v>-22.604612230000001</v>
       </c>
-      <c r="J96" t="s">
+      <c r="K96" t="s">
         <v>244</v>
       </c>
-      <c r="K96">
+      <c r="L96">
         <v>10</v>
       </c>
-      <c r="L96">
+      <c r="M96">
         <v>336</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>97</v>
       </c>
       <c r="B97" t="s">
         <v>58</v>
       </c>
-      <c r="C97" s="1">
+      <c r="C97" t="s">
+        <v>303</v>
+      </c>
+      <c r="D97" s="1">
         <v>43283.479166666664</v>
       </c>
-      <c r="D97">
+      <c r="E97">
         <v>-52.255965709999998</v>
       </c>
-      <c r="E97">
+      <c r="F97">
         <v>-22.60657806</v>
       </c>
-      <c r="F97" s="5">
+      <c r="G97" s="5">
         <v>154</v>
       </c>
-      <c r="G97" s="1">
+      <c r="H97" s="1">
         <v>43283.552083333336</v>
       </c>
-      <c r="H97">
+      <c r="I97">
         <v>-52.253508539999999</v>
       </c>
-      <c r="I97">
+      <c r="J97">
         <v>-22.607038710000001</v>
       </c>
-      <c r="J97" t="s">
+      <c r="K97" t="s">
         <v>245</v>
       </c>
-      <c r="K97">
+      <c r="L97">
         <v>3</v>
       </c>
-      <c r="L97">
+      <c r="M97">
         <v>257</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>98</v>
       </c>
       <c r="B98" t="s">
         <v>58</v>
       </c>
-      <c r="C98" s="1">
+      <c r="C98" t="s">
+        <v>303</v>
+      </c>
+      <c r="D98" s="1">
         <v>43283.479166666664</v>
       </c>
-      <c r="D98">
+      <c r="E98">
         <v>-52.255965709999998</v>
       </c>
-      <c r="E98">
+      <c r="F98">
         <v>-22.60657806</v>
       </c>
-      <c r="F98" s="5">
+      <c r="G98" s="5">
         <v>154</v>
       </c>
-      <c r="G98" s="1">
+      <c r="H98" s="1">
         <v>43283.552083333336</v>
       </c>
-      <c r="H98">
+      <c r="I98">
         <v>-52.253508539999999</v>
       </c>
-      <c r="I98">
+      <c r="J98">
         <v>-22.607038710000001</v>
       </c>
-      <c r="J98" t="s">
+      <c r="K98" t="s">
         <v>246</v>
       </c>
-      <c r="K98">
+      <c r="L98">
         <v>4</v>
       </c>
-      <c r="L98">
+      <c r="M98">
         <v>257</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>99</v>
       </c>
       <c r="B99" t="s">
         <v>58</v>
       </c>
-      <c r="C99" s="1">
+      <c r="C99" t="s">
+        <v>303</v>
+      </c>
+      <c r="D99" s="1">
         <v>43283.479166666664</v>
       </c>
-      <c r="D99">
+      <c r="E99">
         <v>-52.255965709999998</v>
       </c>
-      <c r="E99">
+      <c r="F99">
         <v>-22.60657806</v>
       </c>
-      <c r="F99" s="5">
+      <c r="G99" s="5">
         <v>154</v>
       </c>
-      <c r="G99" s="1">
+      <c r="H99" s="1">
         <v>43283.559027777781</v>
       </c>
-      <c r="H99">
+      <c r="I99">
         <v>-52.25224764</v>
       </c>
-      <c r="I99">
+      <c r="J99">
         <v>-22.606781179999999</v>
       </c>
-      <c r="J99" t="s">
+      <c r="K99" t="s">
         <v>247</v>
       </c>
-      <c r="K99">
+      <c r="L99">
         <v>6</v>
       </c>
-      <c r="L99">
+      <c r="M99">
         <v>383</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>100</v>
       </c>
       <c r="B100" t="s">
         <v>101</v>
       </c>
-      <c r="C100" s="1">
+      <c r="C100" t="s">
+        <v>303</v>
+      </c>
+      <c r="D100" s="1">
         <v>43283.597222222219</v>
       </c>
-      <c r="D100">
+      <c r="E100">
         <v>-52.250897279999997</v>
       </c>
-      <c r="E100">
+      <c r="F100">
         <v>-22.607612419999999</v>
       </c>
-      <c r="F100" s="5">
+      <c r="G100" s="5">
         <v>155</v>
       </c>
-      <c r="G100" s="1">
+      <c r="H100" s="1">
         <v>43283.638888888891</v>
       </c>
-      <c r="H100">
+      <c r="I100">
         <v>-52.248689069999998</v>
       </c>
-      <c r="I100">
+      <c r="J100">
         <v>-22.608908069999998</v>
       </c>
-      <c r="J100" t="s">
+      <c r="K100" t="s">
         <v>248</v>
       </c>
-      <c r="K100">
+      <c r="L100">
         <v>5</v>
       </c>
-      <c r="L100">
+      <c r="M100">
         <v>263</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>102</v>
       </c>
       <c r="B101" t="s">
         <v>101</v>
       </c>
-      <c r="C101" s="1">
+      <c r="C101" t="s">
+        <v>303</v>
+      </c>
+      <c r="D101" s="1">
         <v>43283.597222222219</v>
       </c>
-      <c r="D101">
+      <c r="E101">
         <v>-52.250897279999997</v>
       </c>
-      <c r="E101">
+      <c r="F101">
         <v>-22.607612419999999</v>
       </c>
-      <c r="F101" s="5">
+      <c r="G101" s="5">
         <v>155</v>
       </c>
-      <c r="G101" s="1">
+      <c r="H101" s="1">
         <v>43283.652777777781</v>
       </c>
-      <c r="H101">
+      <c r="I101">
         <v>-52.248689069999998</v>
       </c>
-      <c r="I101">
+      <c r="J101">
         <v>-22.608908069999998</v>
       </c>
-      <c r="J101" t="s">
+      <c r="K101" t="s">
         <v>249</v>
       </c>
-      <c r="K101">
+      <c r="L101">
         <v>5</v>
       </c>
-      <c r="L101">
+      <c r="M101">
         <v>263</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>103</v>
       </c>
       <c r="B102" t="s">
         <v>95</v>
       </c>
-      <c r="C102" s="1">
+      <c r="C102" t="s">
+        <v>303</v>
+      </c>
+      <c r="D102" s="1">
         <v>43284.291666666664</v>
       </c>
-      <c r="D102">
+      <c r="E102">
         <v>-52.25044578</v>
       </c>
-      <c r="E102">
+      <c r="F102">
         <v>-22.604222029999999</v>
       </c>
-      <c r="F102" s="5">
+      <c r="G102" s="5">
         <v>157</v>
       </c>
-      <c r="G102" s="1">
+      <c r="H102" s="1">
         <v>43284.361111111109</v>
       </c>
-      <c r="H102">
+      <c r="I102">
         <v>-52.249048960000003</v>
       </c>
-      <c r="I102">
+      <c r="J102">
         <v>-22.605508449999999</v>
       </c>
-      <c r="J102" t="s">
+      <c r="K102" t="s">
         <v>250</v>
       </c>
-      <c r="K102">
+      <c r="L102">
         <v>9</v>
       </c>
-      <c r="L102">
+      <c r="M102">
         <v>195</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>104</v>
       </c>
       <c r="B103" t="s">
         <v>95</v>
       </c>
-      <c r="C103" s="1">
+      <c r="C103" t="s">
+        <v>303</v>
+      </c>
+      <c r="D103" s="1">
         <v>43284.291666666664</v>
       </c>
-      <c r="D103">
+      <c r="E103">
         <v>-52.25044578</v>
       </c>
-      <c r="E103">
+      <c r="F103">
         <v>-22.604222029999999</v>
       </c>
-      <c r="F103" s="5">
+      <c r="G103" s="5">
         <v>157</v>
       </c>
-      <c r="G103" s="1">
+      <c r="H103" s="1">
         <v>43284.371527777781</v>
       </c>
-      <c r="H103">
+      <c r="I103">
         <v>-52.248395389999999</v>
       </c>
-      <c r="I103">
+      <c r="J103">
         <v>-22.60565699</v>
       </c>
-      <c r="J103" t="s">
+      <c r="K103" t="s">
         <v>251</v>
       </c>
-      <c r="K103">
+      <c r="L103">
         <v>10</v>
       </c>
-      <c r="L103">
+      <c r="M103">
         <v>257</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>105</v>
       </c>
       <c r="B104" t="s">
         <v>106</v>
       </c>
-      <c r="C104" s="1">
+      <c r="C104" t="s">
+        <v>303</v>
+      </c>
+      <c r="D104" s="1">
         <v>43284.340277777781</v>
       </c>
-      <c r="D104">
+      <c r="E104">
         <v>-52.25013878</v>
       </c>
-      <c r="E104">
+      <c r="F104">
         <v>-22.60363959</v>
       </c>
-      <c r="F104" s="5">
+      <c r="G104" s="5">
         <v>160</v>
       </c>
-      <c r="G104" s="1">
+      <c r="H104" s="1">
         <v>43284.388888888891</v>
       </c>
-      <c r="H104">
+      <c r="I104">
         <v>-52.248107390000001</v>
       </c>
-      <c r="I104">
+      <c r="J104">
         <v>-22.606176810000001</v>
       </c>
-      <c r="J104" t="s">
+      <c r="K104" t="s">
         <v>252</v>
       </c>
-      <c r="K104">
+      <c r="L104">
         <v>15</v>
       </c>
-      <c r="L104">
+      <c r="M104">
         <v>334</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>107</v>
       </c>
       <c r="B105" t="s">
         <v>108</v>
       </c>
-      <c r="C105" s="1">
+      <c r="C105" t="s">
+        <v>303</v>
+      </c>
+      <c r="D105" s="1">
         <v>43285.493055555555</v>
       </c>
-      <c r="D105">
+      <c r="E105">
         <v>-52.251539940000001</v>
       </c>
-      <c r="E105">
+      <c r="F105">
         <v>-22.603158780000001</v>
       </c>
-      <c r="F105" s="5">
+      <c r="G105" s="5">
         <v>167</v>
       </c>
-      <c r="G105" s="1">
+      <c r="H105" s="1">
         <v>43285.555555555555</v>
       </c>
-      <c r="H105">
+      <c r="I105">
         <v>-52.248711129999997</v>
       </c>
-      <c r="I105">
+      <c r="J105">
         <v>-22.604545689999998</v>
       </c>
-      <c r="J105" t="s">
+      <c r="K105" t="s">
         <v>253</v>
       </c>
-      <c r="K105">
+      <c r="L105">
         <v>7</v>
       </c>
-      <c r="L105">
+      <c r="M105">
         <v>324</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>109</v>
       </c>
       <c r="B106" t="s">
         <v>108</v>
       </c>
-      <c r="C106" s="1">
+      <c r="C106" t="s">
+        <v>303</v>
+      </c>
+      <c r="D106" s="1">
         <v>43285.611111111109</v>
       </c>
-      <c r="D106">
+      <c r="E106">
         <v>-52.245499950000003</v>
       </c>
-      <c r="E106">
+      <c r="F106">
         <v>-22.605320899999999</v>
       </c>
-      <c r="F106" s="5">
+      <c r="G106" s="5">
         <v>170</v>
       </c>
-      <c r="G106" s="1">
+      <c r="H106" s="1">
         <v>43285.649305555555</v>
       </c>
-      <c r="H106">
+      <c r="I106">
         <v>-52.244373160000002</v>
       </c>
-      <c r="I106">
+      <c r="J106">
         <v>-22.601522769999999</v>
       </c>
-      <c r="J106" t="s">
+      <c r="K106" t="s">
         <v>254</v>
       </c>
-      <c r="K106">
+      <c r="L106">
         <v>7</v>
       </c>
-      <c r="L106">
+      <c r="M106">
         <v>407</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>110</v>
       </c>
       <c r="B107" t="s">
         <v>111</v>
       </c>
-      <c r="C107" s="1">
+      <c r="C107" t="s">
+        <v>303</v>
+      </c>
+      <c r="D107" s="1">
         <v>43359.392361111109</v>
       </c>
-      <c r="D107">
+      <c r="E107">
         <v>-52.245506640000002</v>
       </c>
-      <c r="E107">
+      <c r="F107">
         <v>-22.603819399999999</v>
       </c>
-      <c r="F107" s="5">
+      <c r="G107" s="5">
         <v>182</v>
       </c>
-      <c r="G107" s="1">
+      <c r="H107" s="1">
         <v>43359.482638888891</v>
       </c>
-      <c r="H107">
+      <c r="I107">
         <v>-52.243621089999998</v>
       </c>
-      <c r="I107">
+      <c r="J107">
         <v>-22.605425749999998</v>
       </c>
-      <c r="J107" t="s">
+      <c r="K107" t="s">
         <v>255</v>
       </c>
-      <c r="K107">
+      <c r="L107">
         <v>5</v>
       </c>
-      <c r="L107">
+      <c r="M107">
         <v>255</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>112</v>
       </c>
       <c r="B108" t="s">
         <v>111</v>
       </c>
-      <c r="C108" s="1">
+      <c r="C108" t="s">
+        <v>303</v>
+      </c>
+      <c r="D108" s="1">
         <v>43359.392361111109</v>
       </c>
-      <c r="D108">
+      <c r="E108">
         <v>-52.245506640000002</v>
       </c>
-      <c r="E108">
+      <c r="F108">
         <v>-22.603819399999999</v>
       </c>
-      <c r="F108" s="5">
+      <c r="G108" s="5">
         <v>182</v>
       </c>
-      <c r="G108" s="1">
+      <c r="H108" s="1">
         <v>43359.489583333336</v>
       </c>
-      <c r="H108">
+      <c r="I108">
         <v>-52.243213619999999</v>
       </c>
-      <c r="I108">
+      <c r="J108">
         <v>-22.606084360000001</v>
       </c>
-      <c r="J108" t="s">
+      <c r="K108" t="s">
         <v>256</v>
       </c>
-      <c r="K108">
+      <c r="L108">
         <v>4</v>
       </c>
-      <c r="L108">
+      <c r="M108">
         <v>331</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>113</v>
       </c>
       <c r="B109" t="s">
         <v>108</v>
       </c>
-      <c r="C109" s="1">
+      <c r="C109" t="s">
+        <v>303</v>
+      </c>
+      <c r="D109" s="1">
         <v>43286.402777777781</v>
       </c>
-      <c r="D109">
+      <c r="E109">
         <v>-52.241934479999998</v>
       </c>
-      <c r="E109">
+      <c r="F109">
         <v>-22.603030740000001</v>
       </c>
-      <c r="F109" s="5">
+      <c r="G109" s="5">
         <v>175</v>
       </c>
-      <c r="G109" s="1">
+      <c r="H109" s="1">
         <v>43286.489583333336</v>
       </c>
-      <c r="H109">
+      <c r="I109">
         <v>-52.245018799999997</v>
       </c>
-      <c r="I109">
+      <c r="J109">
         <v>-22.605218130000001</v>
       </c>
-      <c r="J109" t="s">
+      <c r="K109" t="s">
         <v>257</v>
       </c>
-      <c r="K109">
+      <c r="L109">
         <v>6</v>
       </c>
-      <c r="L109">
+      <c r="M109">
         <v>388</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>114</v>
       </c>
       <c r="B110" t="s">
         <v>108</v>
       </c>
-      <c r="C110" s="1">
+      <c r="C110" t="s">
+        <v>303</v>
+      </c>
+      <c r="D110" s="1">
         <v>43286.402777777781</v>
       </c>
-      <c r="D110">
+      <c r="E110">
         <v>-52.241934479999998</v>
       </c>
-      <c r="E110">
+      <c r="F110">
         <v>-22.603030740000001</v>
       </c>
-      <c r="F110" s="5">
+      <c r="G110" s="5">
         <v>175</v>
       </c>
-      <c r="G110" s="1">
+      <c r="H110" s="1">
         <v>43286.493055555555</v>
       </c>
-      <c r="H110">
+      <c r="I110">
         <v>-52.245250050000003</v>
       </c>
-      <c r="I110">
+      <c r="J110">
         <v>-22.605358710000001</v>
       </c>
-      <c r="J110" t="s">
+      <c r="K110" t="s">
         <v>258</v>
       </c>
-      <c r="K110">
+      <c r="L110">
         <v>4</v>
       </c>
-      <c r="L110">
+      <c r="M110">
         <v>417</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>115</v>
       </c>
       <c r="B111" t="s">
         <v>116</v>
       </c>
-      <c r="C111" s="1">
+      <c r="C111" t="s">
+        <v>308</v>
+      </c>
+      <c r="D111" s="1">
         <v>43359.402777777781</v>
       </c>
-      <c r="D111">
+      <c r="E111">
         <v>-52.2453176</v>
       </c>
-      <c r="E111">
+      <c r="F111">
         <v>-22.60387218</v>
       </c>
-      <c r="F111" s="5">
+      <c r="G111" s="5">
         <v>183</v>
       </c>
-      <c r="G111" s="1">
+      <c r="H111" s="1">
         <v>43359.482638888891</v>
       </c>
-      <c r="H111">
+      <c r="I111">
         <v>-52.243621089999998</v>
       </c>
-      <c r="I111">
+      <c r="J111">
         <v>-22.605425749999998</v>
       </c>
-      <c r="J111" t="s">
+      <c r="K111" t="s">
         <v>259</v>
       </c>
-      <c r="K111">
+      <c r="L111">
         <v>9</v>
       </c>
-      <c r="L111">
+      <c r="M111">
         <v>236</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>117</v>
       </c>
       <c r="B112" t="s">
         <v>116</v>
       </c>
-      <c r="C112" s="1">
+      <c r="C112" t="s">
+        <v>308</v>
+      </c>
+      <c r="D112" s="1">
         <v>43359.402777777781</v>
       </c>
-      <c r="D112">
+      <c r="E112">
         <v>-52.2453176</v>
       </c>
-      <c r="E112">
+      <c r="F112">
         <v>-22.60387218</v>
       </c>
-      <c r="F112" s="5">
+      <c r="G112" s="5">
         <v>183</v>
       </c>
-      <c r="G112" s="1">
+      <c r="H112" s="1">
         <v>43359.489583333336</v>
       </c>
-      <c r="H112">
+      <c r="I112">
         <v>-52.243213619999999</v>
       </c>
-      <c r="I112">
+      <c r="J112">
         <v>-22.606084360000001</v>
       </c>
-      <c r="J112" t="s">
+      <c r="K112" t="s">
         <v>260</v>
       </c>
-      <c r="K112">
+      <c r="L112">
         <v>8</v>
       </c>
-      <c r="L112">
+      <c r="M112">
         <v>314</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>118</v>
       </c>
       <c r="B113" t="s">
         <v>108</v>
       </c>
-      <c r="C113" s="1">
+      <c r="C113" t="s">
+        <v>308</v>
+      </c>
+      <c r="D113" s="1">
         <v>43359.520833333336</v>
       </c>
-      <c r="D113">
+      <c r="E113">
         <v>-52.24240752</v>
       </c>
-      <c r="E113">
+      <c r="F113">
         <v>-22.606824140000001</v>
       </c>
-      <c r="F113" s="5">
+      <c r="G113" s="5">
         <v>184</v>
       </c>
-      <c r="G113" s="1">
+      <c r="H113" s="1">
         <v>43359.579861111109</v>
       </c>
-      <c r="H113">
+      <c r="I113">
         <v>-52.24176946</v>
       </c>
-      <c r="I113">
+      <c r="J113">
         <v>-22.608775860000002</v>
       </c>
-      <c r="J113" t="s">
+      <c r="K113" t="s">
         <v>261</v>
       </c>
-      <c r="K113">
+      <c r="L113">
         <v>5</v>
       </c>
-      <c r="L113">
+      <c r="M113">
         <v>211</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>119</v>
       </c>
       <c r="B114" t="s">
         <v>108</v>
       </c>
-      <c r="C114" s="1">
+      <c r="C114" t="s">
+        <v>308</v>
+      </c>
+      <c r="D114" s="1">
         <v>43359.520833333336</v>
       </c>
-      <c r="D114">
+      <c r="E114">
         <v>-52.24240752</v>
       </c>
-      <c r="E114">
+      <c r="F114">
         <v>-22.606824140000001</v>
       </c>
-      <c r="F114" s="5">
+      <c r="G114" s="5">
         <v>184</v>
       </c>
-      <c r="G114" s="1">
+      <c r="H114" s="1">
         <v>43359.59375</v>
       </c>
-      <c r="H114">
+      <c r="I114">
         <v>-52.241406300000001</v>
       </c>
-      <c r="I114">
+      <c r="J114">
         <v>-22.60983822</v>
       </c>
-      <c r="J114" t="s">
+      <c r="K114" t="s">
         <v>262</v>
       </c>
-      <c r="K114">
+      <c r="L114">
         <v>4</v>
       </c>
-      <c r="L114">
+      <c r="M114">
         <v>326</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>118</v>
       </c>
       <c r="B115" t="s">
         <v>116</v>
       </c>
-      <c r="C115" s="1">
+      <c r="C115" t="s">
+        <v>308</v>
+      </c>
+      <c r="D115" s="1">
         <v>43359.53125</v>
       </c>
-      <c r="D115">
+      <c r="E115">
         <v>-52.242239490000003</v>
       </c>
-      <c r="E115">
+      <c r="F115">
         <v>-22.606991260000001</v>
       </c>
-      <c r="F115" s="5">
+      <c r="G115" s="5">
         <v>185</v>
       </c>
-      <c r="G115" s="1">
+      <c r="H115" s="1">
         <v>43359.579861111109</v>
       </c>
-      <c r="H115">
+      <c r="I115">
         <v>-52.24176946</v>
       </c>
-      <c r="I115">
+      <c r="J115">
         <v>-22.608775860000002</v>
       </c>
-      <c r="J115" t="s">
+      <c r="K115" t="s">
         <v>263</v>
       </c>
-      <c r="K115">
+      <c r="L115">
         <v>11</v>
       </c>
-      <c r="L115">
+      <c r="M115">
         <v>190</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>119</v>
       </c>
       <c r="B116" t="s">
         <v>116</v>
       </c>
-      <c r="C116" s="1">
+      <c r="C116" t="s">
+        <v>308</v>
+      </c>
+      <c r="D116" s="1">
         <v>43359.53125</v>
       </c>
-      <c r="D116">
+      <c r="E116">
         <v>-52.242239490000003</v>
       </c>
-      <c r="E116">
+      <c r="F116">
         <v>-22.606991260000001</v>
       </c>
-      <c r="F116" s="5">
+      <c r="G116" s="5">
         <v>185</v>
       </c>
-      <c r="G116" s="1">
+      <c r="H116" s="1">
         <v>43359.59375</v>
       </c>
-      <c r="H116">
+      <c r="I116">
         <v>-52.241406300000001</v>
       </c>
-      <c r="I116">
+      <c r="J116">
         <v>-22.60983822</v>
       </c>
-      <c r="J116" t="s">
+      <c r="K116" t="s">
         <v>264</v>
       </c>
-      <c r="K116">
+      <c r="L116">
         <v>7</v>
       </c>
-      <c r="L116">
+      <c r="M116">
         <v>305</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>120</v>
       </c>
       <c r="B117" t="s">
         <v>108</v>
       </c>
-      <c r="C117" s="1">
+      <c r="C117" t="s">
+        <v>308</v>
+      </c>
+      <c r="D117" s="1">
         <v>43360.506944444445</v>
       </c>
-      <c r="D117">
+      <c r="E117">
         <v>-52.241207340000003</v>
       </c>
-      <c r="E117">
+      <c r="F117">
         <v>-22.60821017</v>
       </c>
-      <c r="F117" s="5">
+      <c r="G117" s="5">
         <v>188</v>
       </c>
-      <c r="G117" s="1">
+      <c r="H117" s="1">
         <v>43360.555555555555</v>
       </c>
-      <c r="H117">
+      <c r="I117">
         <v>-52.242769930000001</v>
       </c>
-      <c r="I117">
+      <c r="J117">
         <v>-22.607551690000001</v>
       </c>
-      <c r="J117" t="s">
+      <c r="K117" t="s">
         <v>265</v>
       </c>
-      <c r="K117">
+      <c r="L117">
         <v>10</v>
       </c>
-      <c r="L117">
+      <c r="M117">
         <v>174</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>121</v>
       </c>
       <c r="B118" t="s">
         <v>108</v>
       </c>
-      <c r="C118" s="1">
+      <c r="C118" t="s">
+        <v>308</v>
+      </c>
+      <c r="D118" s="1">
         <v>43360.506944444445</v>
       </c>
-      <c r="D118">
+      <c r="E118">
         <v>-52.241207340000003</v>
       </c>
-      <c r="E118">
+      <c r="F118">
         <v>-22.60821017</v>
       </c>
-      <c r="F118" s="5">
+      <c r="G118" s="5">
         <v>188</v>
       </c>
-      <c r="G118" s="1">
+      <c r="H118" s="1">
         <v>43360.5625</v>
       </c>
-      <c r="H118">
+      <c r="I118">
         <v>-52.243563960000003</v>
       </c>
-      <c r="I118">
+      <c r="J118">
         <v>-22.60707111</v>
       </c>
-      <c r="J118" t="s">
+      <c r="K118" t="s">
         <v>266</v>
       </c>
-      <c r="K118">
+      <c r="L118">
         <v>9</v>
       </c>
-      <c r="L118">
+      <c r="M118">
         <v>269</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>122</v>
       </c>
       <c r="B119" t="s">
         <v>111</v>
       </c>
-      <c r="C119" s="1">
+      <c r="C119" t="s">
+        <v>308</v>
+      </c>
+      <c r="D119" s="1">
         <v>43360.65625</v>
       </c>
-      <c r="D119">
+      <c r="E119">
         <v>-52.251755060000001</v>
       </c>
-      <c r="E119">
+      <c r="F119">
         <v>-22.60643146</v>
       </c>
-      <c r="F119" s="5">
+      <c r="G119" s="5">
         <v>189</v>
       </c>
-      <c r="G119" s="1">
+      <c r="H119" s="1">
         <v>43361.34375</v>
       </c>
-      <c r="H119">
+      <c r="I119">
         <v>-52.251927590000001</v>
       </c>
-      <c r="I119">
+      <c r="J119">
         <v>-22.60435674</v>
       </c>
-      <c r="J119" t="s">
+      <c r="K119" t="s">
         <v>267</v>
       </c>
-      <c r="K119">
+      <c r="L119">
         <v>4</v>
       </c>
-      <c r="L119">
+      <c r="M119">
         <v>214</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>122</v>
       </c>
       <c r="B120" t="s">
         <v>80</v>
       </c>
-      <c r="C120" s="1">
+      <c r="C120" t="s">
+        <v>308</v>
+      </c>
+      <c r="D120" s="1">
         <v>43360.666666666664</v>
       </c>
-      <c r="D120">
+      <c r="E120">
         <v>-52.252008490000001</v>
       </c>
-      <c r="E120">
+      <c r="F120">
         <v>-22.606309960000001</v>
       </c>
-      <c r="F120" s="5">
+      <c r="G120" s="5">
         <v>190</v>
       </c>
-      <c r="G120" s="1">
+      <c r="H120" s="1">
         <v>43361.34375</v>
       </c>
-      <c r="H120">
+      <c r="I120">
         <v>-52.251927590000001</v>
       </c>
-      <c r="I120">
+      <c r="J120">
         <v>-22.60435674</v>
       </c>
-      <c r="J120" t="s">
+      <c r="K120" t="s">
         <v>268</v>
       </c>
-      <c r="K120">
+      <c r="L120">
         <v>16</v>
       </c>
-      <c r="L120">
+      <c r="M120">
         <v>201</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>123</v>
       </c>
       <c r="B121" t="s">
         <v>95</v>
       </c>
-      <c r="C121" s="1">
+      <c r="C121" t="s">
+        <v>308</v>
+      </c>
+      <c r="D121" s="1">
         <v>43361.357638888891</v>
       </c>
-      <c r="D121">
+      <c r="E121">
         <v>-52.252211420000002</v>
       </c>
-      <c r="E121">
+      <c r="F121">
         <v>-22.6039602</v>
       </c>
-      <c r="F121" s="5">
+      <c r="G121" s="5">
         <v>191</v>
       </c>
-      <c r="G121" s="1">
+      <c r="H121" s="1">
         <v>43361.420138888891</v>
       </c>
-      <c r="H121">
+      <c r="I121">
         <v>-52.250452889999998</v>
       </c>
-      <c r="I121">
+      <c r="J121">
         <v>-22.60259396</v>
       </c>
-      <c r="J121" t="s">
+      <c r="K121" t="s">
         <v>269</v>
       </c>
-      <c r="K121">
+      <c r="L121">
         <v>14</v>
       </c>
-      <c r="L121">
+      <c r="M121">
         <v>229</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>124</v>
       </c>
       <c r="B122" t="s">
         <v>95</v>
       </c>
-      <c r="C122" s="1">
+      <c r="C122" t="s">
+        <v>308</v>
+      </c>
+      <c r="D122" s="1">
         <v>43361.357638888891</v>
       </c>
-      <c r="D122">
+      <c r="E122">
         <v>-52.252211420000002</v>
       </c>
-      <c r="E122">
+      <c r="F122">
         <v>-22.6039602</v>
       </c>
-      <c r="F122" s="5">
+      <c r="G122" s="5">
         <v>191</v>
       </c>
-      <c r="G122" s="1">
+      <c r="H122" s="1">
         <v>43361.427083333336</v>
       </c>
-      <c r="H122">
+      <c r="I122">
         <v>-52.249433889999999</v>
       </c>
-      <c r="I122">
+      <c r="J122">
         <v>-22.602114799999999</v>
       </c>
-      <c r="J122" t="s">
+      <c r="K122" t="s">
         <v>270</v>
       </c>
-      <c r="K122">
+      <c r="L122">
         <v>9</v>
       </c>
-      <c r="L122">
+      <c r="M122">
         <v>343</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>125</v>
       </c>
       <c r="B123" t="s">
         <v>95</v>
       </c>
-      <c r="C123" s="1">
+      <c r="C123" t="s">
+        <v>308</v>
+      </c>
+      <c r="D123" s="1">
         <v>43361.357638888891</v>
       </c>
-      <c r="D123">
+      <c r="E123">
         <v>-52.252211420000002</v>
       </c>
-      <c r="E123">
+      <c r="F123">
         <v>-22.6039602</v>
       </c>
-      <c r="F123" s="5">
+      <c r="G123" s="5">
         <v>191</v>
       </c>
-      <c r="G123" s="1">
+      <c r="H123" s="1">
         <v>43361.430555555555</v>
       </c>
-      <c r="H123">
+      <c r="I123">
         <v>-52.248929560000001</v>
       </c>
-      <c r="I123">
+      <c r="J123">
         <v>-22.602059409999999</v>
       </c>
-      <c r="J123" t="s">
+      <c r="K123" t="s">
         <v>271</v>
       </c>
-      <c r="K123">
+      <c r="L123">
         <v>11</v>
       </c>
-      <c r="L123">
+      <c r="M123">
         <v>390</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>126</v>
       </c>
       <c r="B124" t="s">
         <v>108</v>
       </c>
-      <c r="C124" s="1">
+      <c r="C124" t="s">
+        <v>308</v>
+      </c>
+      <c r="D124" s="1">
         <v>43361.524305555555</v>
       </c>
-      <c r="D124">
+      <c r="E124">
         <v>-52.24469345</v>
       </c>
-      <c r="E124">
+      <c r="F124">
         <v>-22.600651540000001</v>
       </c>
-      <c r="F124" s="5">
+      <c r="G124" s="5">
         <v>193</v>
       </c>
-      <c r="G124" s="1">
+      <c r="H124" s="1">
         <v>43361.611111111109</v>
       </c>
-      <c r="H124">
+      <c r="I124">
         <v>-52.244330249999997</v>
       </c>
-      <c r="I124">
+      <c r="J124">
         <v>-22.601890340000001</v>
       </c>
-      <c r="J124" t="s">
+      <c r="K124" t="s">
         <v>272</v>
       </c>
-      <c r="K124">
+      <c r="L124">
         <v>6</v>
       </c>
-      <c r="L124">
+      <c r="M124">
         <v>133</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>127</v>
       </c>
       <c r="B125" t="s">
         <v>108</v>
       </c>
-      <c r="C125" s="1">
+      <c r="C125" t="s">
+        <v>308</v>
+      </c>
+      <c r="D125" s="1">
         <v>43361.524305555555</v>
       </c>
-      <c r="D125">
+      <c r="E125">
         <v>-52.24469345</v>
       </c>
-      <c r="E125">
+      <c r="F125">
         <v>-22.600651540000001</v>
       </c>
-      <c r="F125" s="5">
+      <c r="G125" s="5">
         <v>193</v>
       </c>
-      <c r="G125" s="1">
+      <c r="H125" s="1">
         <v>43361.621527777781</v>
       </c>
-      <c r="H125">
+      <c r="I125">
         <v>-52.244455520000002</v>
       </c>
-      <c r="I125">
+      <c r="J125">
         <v>-22.602992400000002</v>
       </c>
-      <c r="J125" t="s">
+      <c r="K125" t="s">
         <v>273</v>
       </c>
-      <c r="K125">
+      <c r="L125">
         <v>7</v>
       </c>
-      <c r="L125">
+      <c r="M125">
         <v>241</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>128</v>
       </c>
       <c r="B126" t="s">
         <v>111</v>
       </c>
-      <c r="C126" s="1">
+      <c r="C126" t="s">
+        <v>308</v>
+      </c>
+      <c r="D126" s="1">
         <v>43362.361111111109</v>
       </c>
-      <c r="D126">
+      <c r="E126">
         <v>-52.244272799999997</v>
       </c>
-      <c r="E126">
+      <c r="F126">
         <v>-22.604562810000001</v>
       </c>
-      <c r="F126" s="5">
+      <c r="G126" s="5">
         <v>198</v>
       </c>
-      <c r="G126" s="1">
+      <c r="H126" s="1">
         <v>43362.420138888891</v>
       </c>
-      <c r="H126">
+      <c r="I126">
         <v>-52.242393499999999</v>
       </c>
-      <c r="I126">
+      <c r="J126">
         <v>-22.60314254</v>
       </c>
-      <c r="J126" t="s">
+      <c r="K126" t="s">
         <v>274</v>
       </c>
-      <c r="K126">
+      <c r="L126">
         <v>3</v>
       </c>
-      <c r="L126">
+      <c r="M126">
         <v>242</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>129</v>
       </c>
       <c r="B127" t="s">
         <v>111</v>
       </c>
-      <c r="C127" s="1">
+      <c r="C127" t="s">
+        <v>308</v>
+      </c>
+      <c r="D127" s="1">
         <v>43362.361111111109</v>
       </c>
-      <c r="D127">
+      <c r="E127">
         <v>-52.244272799999997</v>
       </c>
-      <c r="E127">
+      <c r="F127">
         <v>-22.604562810000001</v>
       </c>
-      <c r="F127" s="5">
+      <c r="G127" s="5">
         <v>198</v>
       </c>
-      <c r="G127" s="1">
+      <c r="H127" s="1">
         <v>43362.427083333336</v>
       </c>
-      <c r="H127">
+      <c r="I127">
         <v>-52.241776539999996</v>
       </c>
-      <c r="I127">
+      <c r="J127">
         <v>-22.602791150000002</v>
       </c>
-      <c r="J127" t="s">
+      <c r="K127" t="s">
         <v>275</v>
       </c>
-      <c r="K127">
+      <c r="L127">
         <v>4</v>
       </c>
-      <c r="L127">
+      <c r="M127">
         <v>315</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>128</v>
       </c>
       <c r="B128" t="s">
         <v>130</v>
       </c>
-      <c r="C128" s="1">
+      <c r="C128" t="s">
+        <v>308</v>
+      </c>
+      <c r="D128" s="1">
         <v>43362.371527777781</v>
       </c>
-      <c r="D128">
+      <c r="E128">
         <v>-52.244111879999998</v>
       </c>
-      <c r="E128">
+      <c r="F128">
         <v>-22.604450969999998</v>
       </c>
-      <c r="F128" s="5">
+      <c r="G128" s="5">
         <v>199</v>
       </c>
-      <c r="G128" s="1">
+      <c r="H128" s="1">
         <v>43362.420138888891</v>
       </c>
-      <c r="H128">
+      <c r="I128">
         <v>-52.242393499999999</v>
       </c>
-      <c r="I128">
+      <c r="J128">
         <v>-22.60314254</v>
       </c>
-      <c r="J128" t="s">
+      <c r="K128" t="s">
         <v>276</v>
       </c>
-      <c r="K128">
+      <c r="L128">
         <v>7</v>
       </c>
-      <c r="L128">
+      <c r="M128">
         <v>222</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>129</v>
       </c>
       <c r="B129" t="s">
         <v>130</v>
       </c>
-      <c r="C129" s="1">
+      <c r="C129" t="s">
+        <v>308</v>
+      </c>
+      <c r="D129" s="1">
         <v>43362.371527777781</v>
       </c>
-      <c r="D129">
+      <c r="E129">
         <v>-52.244111879999998</v>
       </c>
-      <c r="E129">
+      <c r="F129">
         <v>-22.604450969999998</v>
       </c>
-      <c r="F129" s="5">
+      <c r="G129" s="5">
         <v>199</v>
       </c>
-      <c r="G129" s="1">
+      <c r="H129" s="1">
         <v>43362.427083333336</v>
       </c>
-      <c r="H129">
+      <c r="I129">
         <v>-52.241776539999996</v>
       </c>
-      <c r="I129">
+      <c r="J129">
         <v>-22.602791150000002</v>
       </c>
-      <c r="J129" t="s">
+      <c r="K129" t="s">
         <v>277</v>
       </c>
-      <c r="K129">
+      <c r="L129">
         <v>7</v>
       </c>
-      <c r="L129">
+      <c r="M129">
         <v>294</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>131</v>
       </c>
       <c r="B130" t="s">
         <v>95</v>
       </c>
-      <c r="C130" s="1">
+      <c r="C130" t="s">
+        <v>308</v>
+      </c>
+      <c r="D130" s="1">
         <v>43362.392361111109</v>
       </c>
-      <c r="D130">
+      <c r="E130">
         <v>-52.243752919999999</v>
       </c>
-      <c r="E130">
+      <c r="F130">
         <v>-22.604417980000001</v>
       </c>
-      <c r="F130" s="5">
+      <c r="G130" s="5">
         <v>200</v>
       </c>
-      <c r="G130" s="1">
+      <c r="H130" s="1">
         <v>43362.454861111109</v>
       </c>
-      <c r="H130">
+      <c r="I130">
         <v>-52.24077802</v>
       </c>
-      <c r="I130">
+      <c r="J130">
         <v>-22.60237841</v>
       </c>
-      <c r="J130" t="s">
+      <c r="K130" t="s">
         <v>278</v>
       </c>
-      <c r="K130">
+      <c r="L130">
         <v>11</v>
       </c>
-      <c r="L130">
+      <c r="M130">
         <v>371</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>132</v>
       </c>
       <c r="B131" t="s">
         <v>111</v>
       </c>
-      <c r="C131" s="1">
+      <c r="C131" t="s">
+        <v>308</v>
+      </c>
+      <c r="D131" s="1">
         <v>43362.46875</v>
       </c>
-      <c r="D131">
+      <c r="E131">
         <v>-52.239391959999999</v>
       </c>
-      <c r="E131">
+      <c r="F131">
         <v>-22.601459070000001</v>
       </c>
-      <c r="F131" s="5">
+      <c r="G131" s="5">
         <v>201</v>
       </c>
-      <c r="G131" s="1">
+      <c r="H131" s="1">
         <v>43362.524305555555</v>
       </c>
-      <c r="H131">
+      <c r="I131">
         <v>-52.237065520000002</v>
       </c>
-      <c r="I131">
+      <c r="J131">
         <v>-22.600290040000001</v>
       </c>
-      <c r="J131" t="s">
+      <c r="K131" t="s">
         <v>279</v>
       </c>
-      <c r="K131">
+      <c r="L131">
         <v>8</v>
       </c>
-      <c r="L131">
+      <c r="M131">
         <v>268</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>133</v>
       </c>
       <c r="B132" t="s">
         <v>31</v>
       </c>
-      <c r="C132" s="1">
+      <c r="C132" t="s">
+        <v>304</v>
+      </c>
+      <c r="D132" s="1">
         <v>43434.319444444445</v>
       </c>
-      <c r="D132">
+      <c r="E132">
         <v>-52.247110589999998</v>
       </c>
-      <c r="E132">
+      <c r="F132">
         <v>-22.600504050000001</v>
       </c>
-      <c r="F132" s="5">
+      <c r="G132" s="5">
         <v>204</v>
       </c>
-      <c r="G132" s="1">
+      <c r="H132" s="1">
         <v>43434.388888888891</v>
       </c>
-      <c r="H132">
+      <c r="I132">
         <v>-52.248184010000003</v>
       </c>
-      <c r="I132">
+      <c r="J132">
         <v>-22.603362600000001</v>
       </c>
-      <c r="J132" t="s">
+      <c r="K132" t="s">
         <v>280</v>
       </c>
-      <c r="K132">
+      <c r="L132">
         <v>4</v>
       </c>
-      <c r="L132">
+      <c r="M132">
         <v>314</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>134</v>
       </c>
       <c r="B133" t="s">
         <v>31</v>
       </c>
-      <c r="C133" s="1">
+      <c r="C133" t="s">
+        <v>304</v>
+      </c>
+      <c r="D133" s="1">
         <v>43434.319444444445</v>
       </c>
-      <c r="D133">
+      <c r="E133">
         <v>-52.247110589999998</v>
       </c>
-      <c r="E133">
+      <c r="F133">
         <v>-22.600504050000001</v>
       </c>
-      <c r="F133" s="5">
+      <c r="G133" s="5">
         <v>204</v>
       </c>
-      <c r="G133" s="1">
+      <c r="H133" s="1">
         <v>43434.392361111109</v>
       </c>
-      <c r="H133">
+      <c r="I133">
         <v>-52.248181889999998</v>
       </c>
-      <c r="I133">
+      <c r="J133">
         <v>-22.603570130000001</v>
       </c>
-      <c r="J133" t="s">
+      <c r="K133" t="s">
         <v>281</v>
       </c>
-      <c r="K133">
+      <c r="L133">
         <v>5</v>
       </c>
-      <c r="L133">
+      <c r="M133">
         <v>334</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>133</v>
       </c>
       <c r="B134" t="s">
         <v>18</v>
       </c>
-      <c r="C134" s="1">
+      <c r="C134" t="s">
+        <v>304</v>
+      </c>
+      <c r="D134" s="1">
         <v>43434.329861111109</v>
       </c>
-      <c r="D134">
+      <c r="E134">
         <v>-52.247344419999997</v>
       </c>
-      <c r="E134">
+      <c r="F134">
         <v>-22.60068635</v>
       </c>
-      <c r="F134" s="5">
+      <c r="G134" s="5">
         <v>205</v>
       </c>
-      <c r="G134" s="1">
+      <c r="H134" s="1">
         <v>43434.388888888891</v>
       </c>
-      <c r="H134">
+      <c r="I134">
         <v>-52.248184010000003</v>
       </c>
-      <c r="I134">
+      <c r="J134">
         <v>-22.603362600000001</v>
       </c>
-      <c r="J134" t="s">
+      <c r="K134" t="s">
         <v>282</v>
       </c>
-      <c r="K134">
+      <c r="L134">
         <v>11</v>
       </c>
-      <c r="L134">
+      <c r="M134">
         <v>288</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>134</v>
       </c>
       <c r="B135" t="s">
         <v>18</v>
       </c>
-      <c r="C135" s="1">
+      <c r="C135" t="s">
+        <v>304</v>
+      </c>
+      <c r="D135" s="1">
         <v>43434.329861111109</v>
       </c>
-      <c r="D135">
+      <c r="E135">
         <v>-52.247344419999997</v>
       </c>
-      <c r="E135">
+      <c r="F135">
         <v>-22.60068635</v>
       </c>
-      <c r="F135" s="5">
+      <c r="G135" s="5">
         <v>205</v>
       </c>
-      <c r="G135" s="1">
+      <c r="H135" s="1">
         <v>43434.392361111109</v>
       </c>
-      <c r="H135">
+      <c r="I135">
         <v>-52.248181889999998</v>
       </c>
-      <c r="I135">
+      <c r="J135">
         <v>-22.603570130000001</v>
       </c>
-      <c r="J135" t="s">
+      <c r="K135" t="s">
         <v>283</v>
       </c>
-      <c r="K135">
+      <c r="L135">
         <v>10</v>
       </c>
-      <c r="L135">
+      <c r="M135">
         <v>309</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>135</v>
       </c>
       <c r="B136" t="s">
         <v>130</v>
       </c>
-      <c r="C136" s="1">
+      <c r="C136" t="s">
+        <v>304</v>
+      </c>
+      <c r="D136" s="1">
         <v>43434.361111111109</v>
       </c>
-      <c r="D136">
+      <c r="E136">
         <v>-52.247691039999999</v>
       </c>
-      <c r="E136">
+      <c r="F136">
         <v>-22.60103792</v>
       </c>
-      <c r="F136" s="5">
+      <c r="G136" s="5">
         <v>206</v>
       </c>
-      <c r="G136" s="1">
+      <c r="H136" s="1">
         <v>43434.409722222219</v>
       </c>
-      <c r="H136">
+      <c r="I136">
         <v>-52.248009740000001</v>
       </c>
-      <c r="I136">
+      <c r="J136">
         <v>-22.604143839999999</v>
       </c>
-      <c r="J136" t="s">
+      <c r="K136" t="s">
         <v>284</v>
       </c>
-      <c r="K136">
+      <c r="L136">
         <v>8</v>
       </c>
-      <c r="L136">
+      <c r="M136">
         <v>321</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>136</v>
       </c>
       <c r="B137" t="s">
         <v>31</v>
       </c>
-      <c r="C137" s="1">
+      <c r="C137" t="s">
+        <v>304</v>
+      </c>
+      <c r="D137" s="1">
         <v>43434.392361111109</v>
       </c>
-      <c r="D137">
+      <c r="E137">
         <v>-52.248181889999998</v>
       </c>
-      <c r="E137">
+      <c r="F137">
         <v>-22.603570130000001</v>
       </c>
-      <c r="F137" s="5">
+      <c r="G137" s="5">
         <v>207</v>
       </c>
-      <c r="G137" s="1">
+      <c r="H137" s="1">
         <v>43434.486111111109</v>
       </c>
-      <c r="H137">
+      <c r="I137">
         <v>-52.248343179999999</v>
       </c>
-      <c r="I137">
+      <c r="J137">
         <v>-22.605906470000001</v>
       </c>
-      <c r="J137" t="s">
+      <c r="K137" t="s">
         <v>285</v>
       </c>
-      <c r="K137">
+      <c r="L137">
         <v>5</v>
       </c>
-      <c r="L137">
+      <c r="M137">
         <v>240</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>137</v>
       </c>
       <c r="B138" t="s">
         <v>31</v>
       </c>
-      <c r="C138" s="1">
+      <c r="C138" t="s">
+        <v>304</v>
+      </c>
+      <c r="D138" s="1">
         <v>43434.392361111109</v>
       </c>
-      <c r="D138">
+      <c r="E138">
         <v>-52.248181889999998</v>
       </c>
-      <c r="E138">
+      <c r="F138">
         <v>-22.603570130000001</v>
       </c>
-      <c r="F138" s="5">
+      <c r="G138" s="5">
         <v>207</v>
       </c>
-      <c r="G138" s="1">
+      <c r="H138" s="1">
         <v>43434.496527777781</v>
       </c>
-      <c r="H138">
+      <c r="I138">
         <v>-52.248343179999999</v>
       </c>
-      <c r="I138">
+      <c r="J138">
         <v>-22.605906470000001</v>
       </c>
-      <c r="J138" t="s">
+      <c r="K138" t="s">
         <v>286</v>
       </c>
-      <c r="K138">
+      <c r="L138">
         <v>5</v>
       </c>
-      <c r="L138">
+      <c r="M138">
         <v>240</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>136</v>
       </c>
       <c r="B139" t="s">
         <v>138</v>
       </c>
-      <c r="C139" s="1">
+      <c r="C139" t="s">
+        <v>304</v>
+      </c>
+      <c r="D139" s="1">
         <v>43434.402777777781</v>
       </c>
-      <c r="D139">
+      <c r="E139">
         <v>-52.248180439999999</v>
       </c>
-      <c r="E139">
+      <c r="F139">
         <v>-22.603817939999999</v>
       </c>
-      <c r="F139" s="5">
+      <c r="G139" s="5">
         <v>208</v>
       </c>
-      <c r="G139" s="1">
+      <c r="H139" s="1">
         <v>43434.486111111109</v>
       </c>
-      <c r="H139">
+      <c r="I139">
         <v>-52.248343179999999</v>
       </c>
-      <c r="I139">
+      <c r="J139">
         <v>-22.605906470000001</v>
       </c>
-      <c r="J139" t="s">
+      <c r="K139" t="s">
         <v>287</v>
       </c>
-      <c r="K139">
+      <c r="L139">
         <v>4</v>
       </c>
-      <c r="L139">
+      <c r="M139">
         <v>215</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>137</v>
       </c>
       <c r="B140" t="s">
         <v>138</v>
       </c>
-      <c r="C140" s="1">
+      <c r="C140" t="s">
+        <v>304</v>
+      </c>
+      <c r="D140" s="1">
         <v>43434.402777777781</v>
       </c>
-      <c r="D140">
+      <c r="E140">
         <v>-52.248180439999999</v>
       </c>
-      <c r="E140">
+      <c r="F140">
         <v>-22.603817939999999</v>
       </c>
-      <c r="F140" s="5">
+      <c r="G140" s="5">
         <v>208</v>
       </c>
-      <c r="G140" s="1">
+      <c r="H140" s="1">
         <v>43434.496527777781</v>
       </c>
-      <c r="H140">
+      <c r="I140">
         <v>-52.248343179999999</v>
       </c>
-      <c r="I140">
+      <c r="J140">
         <v>-22.605906470000001</v>
       </c>
-      <c r="J140" t="s">
+      <c r="K140" t="s">
         <v>288</v>
       </c>
-      <c r="K140">
+      <c r="L140">
         <v>6</v>
       </c>
-      <c r="L140">
+      <c r="M140">
         <v>215</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>139</v>
       </c>
       <c r="B141" t="s">
         <v>35</v>
       </c>
-      <c r="C141" s="1">
+      <c r="C141" t="s">
+        <v>304</v>
+      </c>
+      <c r="D141" s="1">
         <v>43434.53125</v>
       </c>
-      <c r="D141">
+      <c r="E141">
         <v>-52.248832360000002</v>
       </c>
-      <c r="E141">
+      <c r="F141">
         <v>-22.605876009999999</v>
       </c>
-      <c r="F141" s="5">
+      <c r="G141" s="5">
         <v>211</v>
       </c>
-      <c r="G141" s="1">
+      <c r="H141" s="1">
         <v>43434.579861111109</v>
       </c>
-      <c r="H141">
+      <c r="I141">
         <v>-52.249338719999997</v>
       </c>
-      <c r="I141">
+      <c r="J141">
         <v>-22.60675311</v>
       </c>
-      <c r="J141" t="s">
+      <c r="K141" t="s">
         <v>289</v>
       </c>
-      <c r="K141">
+      <c r="L141">
         <v>26</v>
       </c>
-      <c r="L141">
+      <c r="M141">
         <v>104</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>140</v>
       </c>
       <c r="B142" t="s">
         <v>141</v>
       </c>
-      <c r="C142" s="1">
+      <c r="C142" t="s">
+        <v>304</v>
+      </c>
+      <c r="D142" s="1">
         <v>43434.572916666664</v>
       </c>
-      <c r="D142">
+      <c r="E142">
         <v>-52.249338719999997</v>
       </c>
-      <c r="E142">
+      <c r="F142">
         <v>-22.60675311</v>
       </c>
-      <c r="F142" s="5">
+      <c r="G142" s="5">
         <v>212</v>
       </c>
-      <c r="G142" s="1">
+      <c r="H142" s="1">
         <v>43434.652777777781</v>
       </c>
-      <c r="H142">
+      <c r="I142">
         <v>-52.251656580000002</v>
       </c>
-      <c r="I142">
+      <c r="J142">
         <v>-22.609250549999999</v>
       </c>
-      <c r="J142" t="s">
+      <c r="K142" t="s">
         <v>290</v>
       </c>
-      <c r="K142">
+      <c r="L142">
         <v>6</v>
       </c>
-      <c r="L142">
+      <c r="M142">
         <v>350</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>142</v>
       </c>
       <c r="B143" t="s">
         <v>141</v>
       </c>
-      <c r="C143" s="1">
+      <c r="C143" t="s">
+        <v>304</v>
+      </c>
+      <c r="D143" s="1">
         <v>43434.628472222219</v>
       </c>
-      <c r="D143">
+      <c r="E143">
         <v>-52.25054686</v>
       </c>
-      <c r="E143">
+      <c r="F143">
         <v>-22.60848257</v>
       </c>
-      <c r="F143" s="5">
+      <c r="G143" s="5">
         <v>215</v>
       </c>
-      <c r="G143" s="1">
+      <c r="H143" s="1">
         <v>43435.309027777781</v>
       </c>
-      <c r="H143">
+      <c r="I143">
         <v>-52.24026757</v>
       </c>
-      <c r="I143">
+      <c r="J143">
         <v>-22.598689950000001</v>
       </c>
-      <c r="J143" t="s">
+      <c r="K143" t="s">
         <v>291</v>
       </c>
-      <c r="K143">
+      <c r="L143">
         <v>8</v>
       </c>
-      <c r="L143">
+      <c r="M143">
         <v>1100</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>143</v>
       </c>
       <c r="B144" t="s">
         <v>141</v>
       </c>
-      <c r="C144" s="1">
+      <c r="C144" t="s">
+        <v>304</v>
+      </c>
+      <c r="D144" s="1">
         <v>43434.628472222219</v>
       </c>
-      <c r="D144">
+      <c r="E144">
         <v>-52.25054686</v>
       </c>
-      <c r="E144">
+      <c r="F144">
         <v>-22.60848257</v>
       </c>
-      <c r="F144" s="5">
+      <c r="G144" s="5">
         <v>215</v>
       </c>
-      <c r="G144" s="1">
+      <c r="H144" s="1">
         <v>43435.309027777781</v>
       </c>
-      <c r="H144">
+      <c r="I144">
         <v>-52.24026757</v>
       </c>
-      <c r="I144">
+      <c r="J144">
         <v>-22.598689950000001</v>
       </c>
-      <c r="J144" t="s">
+      <c r="K144" t="s">
         <v>292</v>
       </c>
-      <c r="K144">
+      <c r="L144">
         <v>8</v>
       </c>
-      <c r="L144">
+      <c r="M144">
         <v>1100</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>144</v>
       </c>
       <c r="B145" t="s">
         <v>141</v>
       </c>
-      <c r="C145" s="1">
+      <c r="C145" t="s">
+        <v>304</v>
+      </c>
+      <c r="D145" s="1">
         <v>43434.628472222219</v>
       </c>
-      <c r="D145">
+      <c r="E145">
         <v>-52.25054686</v>
       </c>
-      <c r="E145">
+      <c r="F145">
         <v>-22.60848257</v>
       </c>
-      <c r="F145" s="5">
+      <c r="G145" s="5">
         <v>215</v>
       </c>
-      <c r="G145" s="1">
+      <c r="H145" s="1">
         <v>43435.309027777781</v>
       </c>
-      <c r="H145">
+      <c r="I145">
         <v>-52.24026757</v>
       </c>
-      <c r="I145">
+      <c r="J145">
         <v>-22.598689950000001</v>
       </c>
-      <c r="J145" t="s">
+      <c r="K145" t="s">
         <v>293</v>
       </c>
-      <c r="K145">
+      <c r="L145">
         <v>4</v>
       </c>
-      <c r="L145">
+      <c r="M145">
         <v>1100</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>145</v>
       </c>
       <c r="B146" t="s">
         <v>18</v>
       </c>
-      <c r="C146" s="1">
+      <c r="C146" t="s">
+        <v>309</v>
+      </c>
+      <c r="D146" s="1">
         <v>43435.319444444445</v>
       </c>
-      <c r="D146">
+      <c r="E146">
         <v>-52.239727260000002</v>
       </c>
-      <c r="E146">
+      <c r="F146">
         <v>-22.599130280000001</v>
       </c>
-      <c r="F146" s="5">
+      <c r="G146" s="5">
         <v>216</v>
       </c>
-      <c r="G146" s="1">
+      <c r="H146" s="1">
         <v>43435.371527777781</v>
       </c>
-      <c r="H146">
+      <c r="I146">
         <v>-52.237881109999996</v>
       </c>
-      <c r="I146">
+      <c r="J146">
         <v>-22.600328350000002</v>
       </c>
-      <c r="J146" t="s">
+      <c r="K146" t="s">
         <v>294</v>
       </c>
-      <c r="K146">
+      <c r="L146">
         <v>11</v>
       </c>
-      <c r="L146">
+      <c r="M146">
         <v>226</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>146</v>
       </c>
       <c r="B147" t="s">
         <v>18</v>
       </c>
-      <c r="C147" s="1">
+      <c r="C147" t="s">
+        <v>309</v>
+      </c>
+      <c r="D147" s="1">
         <v>43435.319444444445</v>
       </c>
-      <c r="D147">
+      <c r="E147">
         <v>-52.239727260000002</v>
       </c>
-      <c r="E147">
+      <c r="F147">
         <v>-22.599130280000001</v>
       </c>
-      <c r="F147" s="5">
+      <c r="G147" s="5">
         <v>216</v>
       </c>
-      <c r="G147" s="1">
+      <c r="H147" s="1">
         <v>43435.399305555555</v>
       </c>
-      <c r="H147">
+      <c r="I147">
         <v>-52.237688900000002</v>
       </c>
-      <c r="I147">
+      <c r="J147">
         <v>-22.600625789999999</v>
       </c>
-      <c r="J147" t="s">
+      <c r="K147" t="s">
         <v>295</v>
       </c>
-      <c r="K147">
+      <c r="L147">
         <v>10</v>
       </c>
-      <c r="L147">
+      <c r="M147">
         <v>259</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>147</v>
       </c>
       <c r="B148" t="s">
         <v>148</v>
       </c>
-      <c r="C148" s="1">
+      <c r="C148" t="s">
+        <v>309</v>
+      </c>
+      <c r="D148" s="1">
         <v>43435.385416666664</v>
       </c>
-      <c r="D148">
+      <c r="E148">
         <v>-52.237881109999996</v>
       </c>
-      <c r="E148">
+      <c r="F148">
         <v>-22.600328350000002</v>
       </c>
-      <c r="F148" s="5">
+      <c r="G148" s="5">
         <v>219</v>
       </c>
-      <c r="G148" s="1">
+      <c r="H148" s="1">
         <v>43435.493055555555</v>
       </c>
-      <c r="H148">
+      <c r="I148">
         <v>-52.236802869999998</v>
       </c>
-      <c r="I148">
+      <c r="J148">
         <v>-22.602078859999999</v>
       </c>
-      <c r="J148" t="s">
+      <c r="K148" t="s">
         <v>296</v>
       </c>
-      <c r="K148">
+      <c r="L148">
         <v>8</v>
       </c>
-      <c r="L148">
+      <c r="M148">
         <v>211</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>149</v>
       </c>
       <c r="B149" t="s">
         <v>148</v>
       </c>
-      <c r="C149" s="1">
+      <c r="C149" t="s">
+        <v>309</v>
+      </c>
+      <c r="D149" s="1">
         <v>43435.385416666664</v>
       </c>
-      <c r="D149">
+      <c r="E149">
         <v>-52.237881109999996</v>
       </c>
-      <c r="E149">
+      <c r="F149">
         <v>-22.600328350000002</v>
       </c>
-      <c r="F149" s="5">
+      <c r="G149" s="5">
         <v>219</v>
       </c>
-      <c r="G149" s="1">
+      <c r="H149" s="1">
         <v>43435.513888888891</v>
       </c>
-      <c r="H149">
+      <c r="I149">
         <v>-52.236630329999997</v>
       </c>
-      <c r="I149">
+      <c r="J149">
         <v>-22.6023611</v>
       </c>
-      <c r="J149" t="s">
+      <c r="K149" t="s">
         <v>297</v>
       </c>
-      <c r="K149">
+      <c r="L149">
         <v>9</v>
       </c>
-      <c r="L149">
+      <c r="M149">
         <v>245</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>147</v>
       </c>
       <c r="B150" t="s">
         <v>25</v>
       </c>
-      <c r="C150" s="1">
+      <c r="C150" t="s">
+        <v>309</v>
+      </c>
+      <c r="D150" s="1">
         <v>43435.399305555555</v>
       </c>
-      <c r="D150">
+      <c r="E150">
         <v>-52.237688900000002</v>
       </c>
-      <c r="E150">
+      <c r="F150">
         <v>-22.600625789999999</v>
       </c>
-      <c r="F150" s="5">
+      <c r="G150" s="5">
         <v>220</v>
       </c>
-      <c r="G150" s="1">
+      <c r="H150" s="1">
         <v>43435.493055555555</v>
       </c>
-      <c r="H150">
+      <c r="I150">
         <v>-52.236802869999998</v>
       </c>
-      <c r="I150">
+      <c r="J150">
         <v>-22.602078859999999</v>
       </c>
-      <c r="J150" t="s">
+      <c r="K150" t="s">
         <v>298</v>
       </c>
-      <c r="K150">
+      <c r="L150">
         <v>8</v>
       </c>
-      <c r="L150">
+      <c r="M150">
         <v>174</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>149</v>
       </c>
       <c r="B151" t="s">
         <v>25</v>
       </c>
-      <c r="C151" s="1">
+      <c r="C151" t="s">
+        <v>309</v>
+      </c>
+      <c r="D151" s="1">
         <v>43435.399305555555</v>
       </c>
-      <c r="D151">
+      <c r="E151">
         <v>-52.237688900000002</v>
       </c>
-      <c r="E151">
+      <c r="F151">
         <v>-22.600625789999999</v>
       </c>
-      <c r="F151" s="5">
+      <c r="G151" s="5">
         <v>220</v>
       </c>
-      <c r="G151" s="1">
+      <c r="H151" s="1">
         <v>43435.513888888891</v>
       </c>
-      <c r="H151">
+      <c r="I151">
         <v>-52.236630329999997</v>
       </c>
-      <c r="I151">
+      <c r="J151">
         <v>-22.6023611</v>
       </c>
-      <c r="J151" t="s">
+      <c r="K151" t="s">
         <v>299</v>
       </c>
-      <c r="K151">
+      <c r="L151">
         <v>9</v>
       </c>
-      <c r="L151">
+      <c r="M151">
         <v>209</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L151" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:M151" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/Data/Seed_dispersal/Raw_TaquaraAnne_EMZ4_Seed-dispersal.xlsx
+++ b/Data/Seed_dispersal/Raw_TaquaraAnne_EMZ4_Seed-dispersal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Documentos\github\BLT_IBM-Model\Data\Seed_dispersal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8F83AD-0C43-4947-81AD-FDD8DE282D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD8C3B6-713E-4DE5-9225-7C28A8D6D4A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,24 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Raw_TaquaraAnne_EMZ4_Seed-dispe'!$A$1:$M$151</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="309">
   <si>
     <t>id_feces</t>
   </si>
@@ -941,9 +953,6 @@
   </si>
   <si>
     <t>Dec2017</t>
-  </si>
-  <si>
-    <t>Feb</t>
   </si>
   <si>
     <t>May</t>
@@ -3399,7 +3408,7 @@
         <v>31</v>
       </c>
       <c r="C39" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D39" s="1">
         <v>43132.302083333336</v>
@@ -3440,7 +3449,7 @@
         <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D40" s="1">
         <v>43132.3125</v>
@@ -3481,7 +3490,7 @@
         <v>31</v>
       </c>
       <c r="C41" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D41" s="1">
         <v>43132.392361111109</v>
@@ -3522,7 +3531,7 @@
         <v>31</v>
       </c>
       <c r="C42" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D42" s="1">
         <v>43132.392361111109</v>
@@ -3563,7 +3572,7 @@
         <v>35</v>
       </c>
       <c r="C43" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D43" s="1">
         <v>43132.451388888891</v>
@@ -3604,7 +3613,7 @@
         <v>35</v>
       </c>
       <c r="C44" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D44" s="1">
         <v>43132.451388888891</v>
@@ -3645,7 +3654,7 @@
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D45" s="1">
         <v>43132.579861111109</v>
@@ -3686,7 +3695,7 @@
         <v>18</v>
       </c>
       <c r="C46" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D46" s="1">
         <v>43133.395833333336</v>
@@ -3727,7 +3736,7 @@
         <v>18</v>
       </c>
       <c r="C47" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D47" s="1">
         <v>43133.395833333336</v>
@@ -3768,7 +3777,7 @@
         <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D48" s="1">
         <v>43133.413194444445</v>
@@ -3809,7 +3818,7 @@
         <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D49" s="1">
         <v>43133.413194444445</v>
@@ -3850,7 +3859,7 @@
         <v>48</v>
       </c>
       <c r="C50" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D50" s="1">
         <v>43133.753472222219</v>
@@ -3891,7 +3900,7 @@
         <v>13</v>
       </c>
       <c r="C51" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D51" s="1">
         <v>43134.298611111109</v>
@@ -3932,7 +3941,7 @@
         <v>13</v>
       </c>
       <c r="C52" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D52" s="1">
         <v>43135.305555555555</v>
@@ -3973,7 +3982,7 @@
         <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D53" s="1">
         <v>43134.309027777781</v>
@@ -4014,7 +4023,7 @@
         <v>13</v>
       </c>
       <c r="C54" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D54" s="1">
         <v>43135.559027777781</v>
@@ -4055,7 +4064,7 @@
         <v>13</v>
       </c>
       <c r="C55" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D55" s="1">
         <v>43135.559027777781</v>
@@ -4096,7 +4105,7 @@
         <v>58</v>
       </c>
       <c r="C56" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D56" s="1">
         <v>43135.586805555555</v>
@@ -4137,7 +4146,7 @@
         <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D57" s="1">
         <v>43135.586805555555</v>
@@ -4178,7 +4187,7 @@
         <v>31</v>
       </c>
       <c r="C58" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D58" s="1">
         <v>43159.430555555555</v>
@@ -4219,7 +4228,7 @@
         <v>31</v>
       </c>
       <c r="C59" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D59" s="1">
         <v>43159.430555555555</v>
@@ -4260,7 +4269,7 @@
         <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D60" s="1">
         <v>43159.440972222219</v>
@@ -4301,7 +4310,7 @@
         <v>61</v>
       </c>
       <c r="C61" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D61" s="1">
         <v>43159.440972222219</v>
@@ -4342,7 +4351,7 @@
         <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D62" s="1">
         <v>43159.65625</v>
@@ -4383,7 +4392,7 @@
         <v>63</v>
       </c>
       <c r="C63" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D63" s="1">
         <v>43159.65625</v>
@@ -4424,7 +4433,7 @@
         <v>35</v>
       </c>
       <c r="C64" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D64" s="1">
         <v>43159.6875</v>
@@ -4465,7 +4474,7 @@
         <v>35</v>
       </c>
       <c r="C65" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D65" s="1">
         <v>43159.6875</v>
@@ -4998,7 +5007,7 @@
         <v>78</v>
       </c>
       <c r="C78" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D78" s="1">
         <v>43222.371527777781</v>
@@ -5039,7 +5048,7 @@
         <v>80</v>
       </c>
       <c r="C79" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D79" s="1">
         <v>43222.465277777781</v>
@@ -5080,7 +5089,7 @@
         <v>75</v>
       </c>
       <c r="C80" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D80" s="1">
         <v>43222.756944444445</v>
@@ -5121,7 +5130,7 @@
         <v>75</v>
       </c>
       <c r="C81" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D81" s="1">
         <v>43222.756944444445</v>
@@ -5162,7 +5171,7 @@
         <v>75</v>
       </c>
       <c r="C82" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D82" s="1">
         <v>43222.756944444445</v>
@@ -5203,7 +5212,7 @@
         <v>78</v>
       </c>
       <c r="C83" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D83" s="1">
         <v>43223.274305555555</v>
@@ -5244,7 +5253,7 @@
         <v>78</v>
       </c>
       <c r="C84" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D84" s="1">
         <v>43223.274305555555</v>
@@ -5285,7 +5294,7 @@
         <v>78</v>
       </c>
       <c r="C85" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D85" s="1">
         <v>43223.274305555555</v>
@@ -5326,7 +5335,7 @@
         <v>78</v>
       </c>
       <c r="C86" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D86" s="1">
         <v>43223.274305555555</v>
@@ -5367,7 +5376,7 @@
         <v>89</v>
       </c>
       <c r="C87" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D87" s="1">
         <v>43223.430555555555</v>
@@ -5408,7 +5417,7 @@
         <v>89</v>
       </c>
       <c r="C88" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D88" s="1">
         <v>43223.430555555555</v>
@@ -5449,7 +5458,7 @@
         <v>91</v>
       </c>
       <c r="C89" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D89" s="1">
         <v>43223.447916666664</v>
@@ -5490,7 +5499,7 @@
         <v>91</v>
       </c>
       <c r="C90" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D90" s="1">
         <v>43223.447916666664</v>
@@ -5531,7 +5540,7 @@
         <v>61</v>
       </c>
       <c r="C91" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D91" s="1">
         <v>43223.569444444445</v>
@@ -5572,7 +5581,7 @@
         <v>61</v>
       </c>
       <c r="C92" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D92" s="1">
         <v>43223.569444444445</v>
@@ -5613,7 +5622,7 @@
         <v>91</v>
       </c>
       <c r="C93" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D93" s="1">
         <v>43223.597222222219</v>
@@ -5654,7 +5663,7 @@
         <v>91</v>
       </c>
       <c r="C94" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D94" s="1">
         <v>43223.597222222219</v>
@@ -6351,7 +6360,7 @@
         <v>116</v>
       </c>
       <c r="C111" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D111" s="1">
         <v>43359.402777777781</v>
@@ -6392,7 +6401,7 @@
         <v>116</v>
       </c>
       <c r="C112" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D112" s="1">
         <v>43359.402777777781</v>
@@ -6433,7 +6442,7 @@
         <v>108</v>
       </c>
       <c r="C113" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D113" s="1">
         <v>43359.520833333336</v>
@@ -6474,7 +6483,7 @@
         <v>108</v>
       </c>
       <c r="C114" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D114" s="1">
         <v>43359.520833333336</v>
@@ -6515,7 +6524,7 @@
         <v>116</v>
       </c>
       <c r="C115" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D115" s="1">
         <v>43359.53125</v>
@@ -6556,7 +6565,7 @@
         <v>116</v>
       </c>
       <c r="C116" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D116" s="1">
         <v>43359.53125</v>
@@ -6597,7 +6606,7 @@
         <v>108</v>
       </c>
       <c r="C117" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D117" s="1">
         <v>43360.506944444445</v>
@@ -6638,7 +6647,7 @@
         <v>108</v>
       </c>
       <c r="C118" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D118" s="1">
         <v>43360.506944444445</v>
@@ -6679,7 +6688,7 @@
         <v>111</v>
       </c>
       <c r="C119" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D119" s="1">
         <v>43360.65625</v>
@@ -6720,7 +6729,7 @@
         <v>80</v>
       </c>
       <c r="C120" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D120" s="1">
         <v>43360.666666666664</v>
@@ -6761,7 +6770,7 @@
         <v>95</v>
       </c>
       <c r="C121" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D121" s="1">
         <v>43361.357638888891</v>
@@ -6802,7 +6811,7 @@
         <v>95</v>
       </c>
       <c r="C122" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D122" s="1">
         <v>43361.357638888891</v>
@@ -6843,7 +6852,7 @@
         <v>95</v>
       </c>
       <c r="C123" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D123" s="1">
         <v>43361.357638888891</v>
@@ -6884,7 +6893,7 @@
         <v>108</v>
       </c>
       <c r="C124" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D124" s="1">
         <v>43361.524305555555</v>
@@ -6925,7 +6934,7 @@
         <v>108</v>
       </c>
       <c r="C125" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D125" s="1">
         <v>43361.524305555555</v>
@@ -6966,7 +6975,7 @@
         <v>111</v>
       </c>
       <c r="C126" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D126" s="1">
         <v>43362.361111111109</v>
@@ -7007,7 +7016,7 @@
         <v>111</v>
       </c>
       <c r="C127" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D127" s="1">
         <v>43362.361111111109</v>
@@ -7048,7 +7057,7 @@
         <v>130</v>
       </c>
       <c r="C128" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D128" s="1">
         <v>43362.371527777781</v>
@@ -7089,7 +7098,7 @@
         <v>130</v>
       </c>
       <c r="C129" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D129" s="1">
         <v>43362.371527777781</v>
@@ -7130,7 +7139,7 @@
         <v>95</v>
       </c>
       <c r="C130" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D130" s="1">
         <v>43362.392361111109</v>
@@ -7171,7 +7180,7 @@
         <v>111</v>
       </c>
       <c r="C131" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D131" s="1">
         <v>43362.46875</v>
@@ -7786,7 +7795,7 @@
         <v>18</v>
       </c>
       <c r="C146" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D146" s="1">
         <v>43435.319444444445</v>
@@ -7827,7 +7836,7 @@
         <v>18</v>
       </c>
       <c r="C147" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D147" s="1">
         <v>43435.319444444445</v>
@@ -7868,7 +7877,7 @@
         <v>148</v>
       </c>
       <c r="C148" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D148" s="1">
         <v>43435.385416666664</v>
@@ -7909,7 +7918,7 @@
         <v>148</v>
       </c>
       <c r="C149" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D149" s="1">
         <v>43435.385416666664</v>
@@ -7950,7 +7959,7 @@
         <v>25</v>
       </c>
       <c r="C150" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D150" s="1">
         <v>43435.399305555555</v>
@@ -7991,7 +8000,7 @@
         <v>25</v>
       </c>
       <c r="C151" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D151" s="1">
         <v>43435.399305555555</v>
